--- a/pingpong/pingpong.xlsx
+++ b/pingpong/pingpong.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mnakao/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mnakao/Desktop/PEACH2-Benchmarks/pingpong/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="3860" windowWidth="39680" windowHeight="17440"/>
+    <workbookView xWindow="23700" yWindow="4140" windowWidth="39680" windowHeight="17440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TCA" sheetId="1" r:id="rId1"/>
@@ -117,9 +117,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MV2_GPUDIRECT_LIMIT=524288</t>
-  </si>
-  <si>
     <t>MV2_USE_GPUDIRECT_RECEIVE_LIMIT=8192</t>
   </si>
   <si>
@@ -128,6 +125,10 @@
   </si>
   <si>
     <t>MV2_GPUDIRECT_LIMITなし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MV2_GPUDIRECT_LIMIT=262144</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -665,64 +666,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>2.0120140000000002</c:v>
+                  <c:v>2.0208360000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0229819999999998</c:v>
+                  <c:v>2.0380020000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.2989980000000001</c:v>
+                  <c:v>3.4677980000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.4518239999999998</c:v>
+                  <c:v>3.443956</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.3509730000000002</c:v>
+                  <c:v>3.5159590000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.4720900000000001</c:v>
+                  <c:v>3.6351680000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.5729410000000001</c:v>
+                  <c:v>3.6661619999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.9010050000000001</c:v>
+                  <c:v>3.9479730000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.4698719999999996</c:v>
+                  <c:v>4.5120719999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.4969789999999996</c:v>
+                  <c:v>5.563974</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.896185</c:v>
+                  <c:v>7.7760220000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.609076999999999</c:v>
+                  <c:v>11.476039999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17.247914999999999</c:v>
+                  <c:v>17.230988</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28.651952999999999</c:v>
+                  <c:v>27.86994</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>50.590038</c:v>
+                  <c:v>50.349950999999997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>95.351934</c:v>
+                  <c:v>95.088959000000003</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>184.36193499999999</c:v>
+                  <c:v>199.95784800000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>292.26994500000001</c:v>
+                  <c:v>292.49501199999997</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>478.33299599999998</c:v>
+                  <c:v>478.399992</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>871.89102200000002</c:v>
+                  <c:v>871.972084</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1334,64 +1335,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>2.0120140000000002</c:v>
+                  <c:v>2.0208360000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0229819999999998</c:v>
+                  <c:v>2.0380020000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.2989980000000001</c:v>
+                  <c:v>3.4677980000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.4518239999999998</c:v>
+                  <c:v>3.443956</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.3509730000000002</c:v>
+                  <c:v>3.5159590000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.4720900000000001</c:v>
+                  <c:v>3.6351680000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.5729410000000001</c:v>
+                  <c:v>3.6661619999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.9010050000000001</c:v>
+                  <c:v>3.9479730000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.4698719999999996</c:v>
+                  <c:v>4.5120719999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.4969789999999996</c:v>
+                  <c:v>5.563974</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.896185</c:v>
+                  <c:v>7.7760220000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.609076999999999</c:v>
+                  <c:v>11.476039999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17.247914999999999</c:v>
+                  <c:v>17.230988</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28.651952999999999</c:v>
+                  <c:v>27.86994</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>50.590038</c:v>
+                  <c:v>50.349950999999997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>95.351934</c:v>
+                  <c:v>95.088959000000003</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>184.36193499999999</c:v>
+                  <c:v>199.95784800000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>292.26994500000001</c:v>
+                  <c:v>292.49501199999997</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>478.33299599999998</c:v>
+                  <c:v>478.399992</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>871.89102200000002</c:v>
+                  <c:v>871.972084</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4437,8 +4438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -5282,7 +5283,7 @@
     </row>
     <row r="23" spans="1:12" ht="19" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="19" thickBot="1" x14ac:dyDescent="0.3">
@@ -5329,37 +5330,37 @@
       </c>
       <c r="B25" s="11">
         <f>MIN(C25:L25)</f>
-        <v>2.0120140000000002</v>
+        <v>2.0208360000000001</v>
       </c>
       <c r="C25" s="2">
-        <v>2.0251269999999999</v>
+        <v>2.0561219999999998</v>
       </c>
       <c r="D25" s="2">
-        <v>2.0759110000000001</v>
+        <v>2.0329950000000001</v>
       </c>
       <c r="E25" s="2">
-        <v>2.0709040000000001</v>
+        <v>2.0461079999999998</v>
       </c>
       <c r="F25" s="2">
-        <v>2.1011829999999998</v>
+        <v>2.053976</v>
       </c>
       <c r="G25" s="2">
-        <v>2.054214</v>
+        <v>2.042055</v>
       </c>
       <c r="H25" s="2">
-        <v>2.0120140000000002</v>
+        <v>2.064943</v>
       </c>
       <c r="I25" s="2">
-        <v>2.0401479999999999</v>
+        <v>2.0220280000000002</v>
       </c>
       <c r="J25" s="2">
-        <v>2.0408629999999999</v>
+        <v>2.0208360000000001</v>
       </c>
       <c r="K25" s="2">
-        <v>2.0380020000000001</v>
+        <v>2.110004</v>
       </c>
       <c r="L25" s="3">
-        <v>2.0251269999999999</v>
+        <v>2.0561219999999998</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -5369,37 +5370,37 @@
       </c>
       <c r="B26" s="11">
         <f t="shared" ref="B26:B44" si="2">MIN(C26:L26)</f>
-        <v>2.0229819999999998</v>
+        <v>2.0380020000000001</v>
       </c>
       <c r="C26" s="2">
-        <v>2.0229819999999998</v>
+        <v>2.091885</v>
       </c>
       <c r="D26" s="2">
-        <v>2.264977</v>
+        <v>2.0651820000000001</v>
       </c>
       <c r="E26" s="2">
-        <v>2.0611290000000002</v>
+        <v>2.2871489999999999</v>
       </c>
       <c r="F26" s="2">
-        <v>2.0349029999999999</v>
+        <v>2.0718570000000001</v>
       </c>
       <c r="G26" s="2">
-        <v>2.0611290000000002</v>
+        <v>2.0580289999999999</v>
       </c>
       <c r="H26" s="2">
+        <v>2.0439620000000001</v>
+      </c>
+      <c r="I26" s="2">
+        <v>2.0470619999999999</v>
+      </c>
+      <c r="J26" s="2">
         <v>2.0380020000000001</v>
       </c>
-      <c r="I26" s="2">
-        <v>2.0608900000000001</v>
-      </c>
-      <c r="J26" s="2">
-        <v>2.0470619999999999</v>
-      </c>
       <c r="K26" s="2">
-        <v>2.0570759999999999</v>
+        <v>2.1240709999999998</v>
       </c>
       <c r="L26" s="3">
-        <v>2.0229819999999998</v>
+        <v>2.091885</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -5409,37 +5410,37 @@
       </c>
       <c r="B27" s="11">
         <f t="shared" si="2"/>
-        <v>3.2989980000000001</v>
+        <v>3.4677980000000002</v>
       </c>
       <c r="C27" s="2">
-        <v>3.397942</v>
+        <v>3.7031170000000002</v>
       </c>
       <c r="D27" s="2">
-        <v>3.7250519999999998</v>
+        <v>3.4730430000000001</v>
       </c>
       <c r="E27" s="2">
-        <v>3.5059450000000001</v>
+        <v>3.4677980000000002</v>
       </c>
       <c r="F27" s="2">
-        <v>3.2989980000000001</v>
+        <v>3.687859</v>
       </c>
       <c r="G27" s="2">
-        <v>3.7479399999999998</v>
+        <v>3.7629600000000001</v>
       </c>
       <c r="H27" s="2">
-        <v>3.8399700000000001</v>
+        <v>3.8700100000000002</v>
       </c>
       <c r="I27" s="2">
-        <v>3.8399700000000001</v>
+        <v>3.6571030000000002</v>
       </c>
       <c r="J27" s="2">
-        <v>3.3719540000000001</v>
+        <v>3.4968849999999998</v>
       </c>
       <c r="K27" s="2">
-        <v>3.7591459999999999</v>
+        <v>3.9920810000000002</v>
       </c>
       <c r="L27" s="3">
-        <v>3.397942</v>
+        <v>3.7031170000000002</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -5449,37 +5450,37 @@
       </c>
       <c r="B28" s="11">
         <f t="shared" si="2"/>
-        <v>3.4518239999999998</v>
+        <v>3.443956</v>
       </c>
       <c r="C28" s="2">
-        <v>3.659964</v>
+        <v>3.5119060000000002</v>
       </c>
       <c r="D28" s="2">
-        <v>3.5350320000000002</v>
+        <v>3.4999850000000001</v>
       </c>
       <c r="E28" s="2">
-        <v>3.4518239999999998</v>
+        <v>3.8149359999999999</v>
       </c>
       <c r="F28" s="2">
-        <v>3.5300250000000002</v>
+        <v>3.7178990000000001</v>
       </c>
       <c r="G28" s="2">
-        <v>3.5841460000000001</v>
+        <v>3.5858150000000002</v>
       </c>
       <c r="H28" s="2">
-        <v>4.0788650000000004</v>
+        <v>3.8909910000000001</v>
       </c>
       <c r="I28" s="2">
-        <v>3.5281180000000001</v>
+        <v>4.0209289999999998</v>
       </c>
       <c r="J28" s="2">
-        <v>3.5381320000000001</v>
+        <v>3.443956</v>
       </c>
       <c r="K28" s="2">
-        <v>3.5030839999999999</v>
+        <v>3.4828190000000001</v>
       </c>
       <c r="L28" s="3">
-        <v>3.659964</v>
+        <v>3.5119060000000002</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -5489,37 +5490,37 @@
       </c>
       <c r="B29" s="11">
         <f t="shared" si="2"/>
-        <v>3.3509730000000002</v>
+        <v>3.5159590000000001</v>
       </c>
       <c r="C29" s="2">
-        <v>3.9100649999999999</v>
+        <v>4.1170119999999999</v>
       </c>
       <c r="D29" s="2">
-        <v>3.571987</v>
+        <v>3.6230090000000001</v>
       </c>
       <c r="E29" s="2">
-        <v>3.8690570000000002</v>
+        <v>3.8080219999999998</v>
       </c>
       <c r="F29" s="2">
-        <v>3.5338400000000001</v>
+        <v>3.972054</v>
       </c>
       <c r="G29" s="2">
-        <v>3.6230090000000001</v>
+        <v>3.5159590000000001</v>
       </c>
       <c r="H29" s="2">
-        <v>3.617048</v>
+        <v>3.6280160000000001</v>
       </c>
       <c r="I29" s="2">
-        <v>3.5359859999999999</v>
+        <v>3.855944</v>
       </c>
       <c r="J29" s="2">
-        <v>3.582954</v>
+        <v>3.5619740000000002</v>
       </c>
       <c r="K29" s="2">
-        <v>3.3509730000000002</v>
+        <v>3.7090779999999999</v>
       </c>
       <c r="L29" s="3">
-        <v>3.9100649999999999</v>
+        <v>4.1170119999999999</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -5529,37 +5530,37 @@
       </c>
       <c r="B30" s="11">
         <f t="shared" si="2"/>
-        <v>3.4720900000000001</v>
+        <v>3.6351680000000002</v>
       </c>
       <c r="C30" s="2">
-        <v>3.9460660000000001</v>
+        <v>3.8039679999999998</v>
       </c>
       <c r="D30" s="2">
-        <v>3.8437839999999999</v>
+        <v>3.6351680000000002</v>
       </c>
       <c r="E30" s="2">
-        <v>4.0240289999999996</v>
+        <v>3.7291050000000001</v>
       </c>
       <c r="F30" s="2">
-        <v>3.8261409999999998</v>
+        <v>3.8900380000000001</v>
       </c>
       <c r="G30" s="2">
-        <v>3.6749839999999998</v>
+        <v>3.8859840000000001</v>
       </c>
       <c r="H30" s="2">
-        <v>3.7431719999999999</v>
+        <v>4.2870039999999996</v>
       </c>
       <c r="I30" s="2">
-        <v>3.6408900000000002</v>
+        <v>3.8509370000000001</v>
       </c>
       <c r="J30" s="2">
-        <v>3.4720900000000001</v>
+        <v>3.8089750000000002</v>
       </c>
       <c r="K30" s="2">
-        <v>3.6261079999999999</v>
+        <v>3.8528440000000002</v>
       </c>
       <c r="L30" s="3">
-        <v>3.9460660000000001</v>
+        <v>3.8039679999999998</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -5569,37 +5570,37 @@
       </c>
       <c r="B31" s="11">
         <f t="shared" si="2"/>
-        <v>3.5729410000000001</v>
+        <v>3.6661619999999999</v>
       </c>
       <c r="C31" s="2">
-        <v>3.8630960000000001</v>
+        <v>4.268885</v>
       </c>
       <c r="D31" s="2">
-        <v>3.7770269999999999</v>
+        <v>3.7851330000000001</v>
       </c>
       <c r="E31" s="2">
-        <v>3.7701129999999998</v>
+        <v>3.9110179999999999</v>
       </c>
       <c r="F31" s="2">
-        <v>3.7019250000000001</v>
+        <v>3.722191</v>
       </c>
       <c r="G31" s="2">
-        <v>4.0569309999999996</v>
+        <v>3.6661619999999999</v>
       </c>
       <c r="H31" s="2">
-        <v>4.3358800000000004</v>
+        <v>3.9467810000000001</v>
       </c>
       <c r="I31" s="2">
-        <v>4.0149689999999998</v>
+        <v>4.1728019999999999</v>
       </c>
       <c r="J31" s="2">
-        <v>3.5729410000000001</v>
+        <v>4.0071009999999996</v>
       </c>
       <c r="K31" s="2">
-        <v>3.6070350000000002</v>
+        <v>3.710985</v>
       </c>
       <c r="L31" s="3">
-        <v>3.8630960000000001</v>
+        <v>4.268885</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -5609,37 +5610,37 @@
       </c>
       <c r="B32" s="11">
         <f t="shared" si="2"/>
-        <v>3.9010050000000001</v>
+        <v>3.9479730000000002</v>
       </c>
       <c r="C32" s="2">
-        <v>4.1959289999999996</v>
+        <v>4.0230750000000004</v>
       </c>
       <c r="D32" s="2">
-        <v>4.5568939999999998</v>
+        <v>3.9479730000000002</v>
       </c>
       <c r="E32" s="2">
-        <v>4.123926</v>
+        <v>4.3089389999999996</v>
       </c>
       <c r="F32" s="2">
-        <v>4.0860180000000001</v>
+        <v>4.2531489999999996</v>
       </c>
       <c r="G32" s="2">
-        <v>4.1260719999999997</v>
+        <v>4.3790339999999999</v>
       </c>
       <c r="H32" s="2">
-        <v>4.541874</v>
+        <v>4.4550900000000002</v>
       </c>
       <c r="I32" s="2">
-        <v>3.9010050000000001</v>
+        <v>4.1871070000000001</v>
       </c>
       <c r="J32" s="2">
-        <v>4.1580199999999996</v>
+        <v>4.1391850000000003</v>
       </c>
       <c r="K32" s="2">
-        <v>3.952026</v>
+        <v>4.2989249999999997</v>
       </c>
       <c r="L32" s="3">
-        <v>4.1959289999999996</v>
+        <v>4.0230750000000004</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -5649,37 +5650,37 @@
       </c>
       <c r="B33" s="11">
         <f t="shared" si="2"/>
-        <v>4.4698719999999996</v>
+        <v>4.5120719999999999</v>
       </c>
       <c r="C33" s="2">
-        <v>4.6658520000000001</v>
+        <v>4.9488539999999999</v>
       </c>
       <c r="D33" s="2">
-        <v>4.8248769999999999</v>
+        <v>4.5120719999999999</v>
       </c>
       <c r="E33" s="2">
-        <v>4.694223</v>
+        <v>4.6670439999999997</v>
       </c>
       <c r="F33" s="2">
-        <v>5.0201419999999999</v>
+        <v>5.0561429999999996</v>
       </c>
       <c r="G33" s="2">
-        <v>5.0690169999999997</v>
+        <v>4.8949720000000001</v>
       </c>
       <c r="H33" s="2">
+        <v>4.8420430000000003</v>
+      </c>
+      <c r="I33" s="2">
         <v>4.9970150000000002</v>
       </c>
-      <c r="I33" s="2">
-        <v>4.4698719999999996</v>
-      </c>
       <c r="J33" s="2">
-        <v>4.6529769999999999</v>
+        <v>4.6620369999999998</v>
       </c>
       <c r="K33" s="2">
-        <v>4.5759679999999996</v>
+        <v>4.7609810000000001</v>
       </c>
       <c r="L33" s="3">
-        <v>4.6658520000000001</v>
+        <v>4.9488539999999999</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -5689,37 +5690,37 @@
       </c>
       <c r="B34" s="11">
         <f t="shared" si="2"/>
-        <v>5.4969789999999996</v>
+        <v>5.563974</v>
       </c>
       <c r="C34" s="2">
-        <v>5.6011680000000004</v>
+        <v>5.6850909999999999</v>
       </c>
       <c r="D34" s="2">
-        <v>5.7928559999999996</v>
+        <v>5.9180260000000002</v>
       </c>
       <c r="E34" s="2">
-        <v>5.8341029999999998</v>
+        <v>5.9280400000000002</v>
       </c>
       <c r="F34" s="2">
-        <v>5.558014</v>
+        <v>5.5739879999999999</v>
       </c>
       <c r="G34" s="2">
-        <v>5.7718749999999996</v>
+        <v>5.7370660000000004</v>
       </c>
       <c r="H34" s="2">
-        <v>5.6450370000000003</v>
+        <v>6.0789590000000002</v>
       </c>
       <c r="I34" s="2">
-        <v>5.7940480000000001</v>
+        <v>5.563974</v>
       </c>
       <c r="J34" s="2">
-        <v>5.4969789999999996</v>
+        <v>5.8610439999999997</v>
       </c>
       <c r="K34" s="2">
-        <v>5.563021</v>
+        <v>5.8310029999999999</v>
       </c>
       <c r="L34" s="3">
-        <v>5.6011680000000004</v>
+        <v>5.6850909999999999</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -5729,37 +5730,37 @@
       </c>
       <c r="B35" s="11">
         <f t="shared" si="2"/>
-        <v>7.896185</v>
+        <v>7.7760220000000002</v>
       </c>
       <c r="C35" s="2">
-        <v>8.1088539999999991</v>
+        <v>8.1617829999999998</v>
       </c>
       <c r="D35" s="2">
-        <v>8.1110000000000007</v>
+        <v>7.8032019999999997</v>
       </c>
       <c r="E35" s="2">
-        <v>7.896185</v>
+        <v>7.7760220000000002</v>
       </c>
       <c r="F35" s="2">
-        <v>8.1958769999999994</v>
+        <v>8.3658699999999993</v>
       </c>
       <c r="G35" s="2">
-        <v>8.0978870000000001</v>
+        <v>8.0130099999999995</v>
       </c>
       <c r="H35" s="2">
-        <v>8.1610680000000002</v>
+        <v>8.1050400000000007</v>
       </c>
       <c r="I35" s="2">
-        <v>7.9510209999999999</v>
+        <v>8.5229870000000005</v>
       </c>
       <c r="J35" s="2">
-        <v>8.2998279999999998</v>
+        <v>7.7810290000000002</v>
       </c>
       <c r="K35" s="2">
-        <v>8.1150529999999996</v>
+        <v>8.0709459999999993</v>
       </c>
       <c r="L35" s="3">
-        <v>8.1088539999999991</v>
+        <v>8.1617829999999998</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -5769,37 +5770,37 @@
       </c>
       <c r="B36" s="11">
         <f t="shared" si="2"/>
-        <v>11.609076999999999</v>
+        <v>11.476039999999999</v>
       </c>
       <c r="C36" s="2">
-        <v>11.642932999999999</v>
+        <v>11.721849000000001</v>
       </c>
       <c r="D36" s="2">
-        <v>11.848927</v>
+        <v>11.476039999999999</v>
       </c>
       <c r="E36" s="2">
-        <v>11.718988</v>
+        <v>11.632918999999999</v>
       </c>
       <c r="F36" s="2">
-        <v>11.609076999999999</v>
+        <v>11.938095000000001</v>
       </c>
       <c r="G36" s="2">
-        <v>11.630058</v>
+        <v>11.685133</v>
       </c>
       <c r="H36" s="2">
-        <v>11.799097</v>
+        <v>11.910914999999999</v>
       </c>
       <c r="I36" s="2">
-        <v>11.669874</v>
+        <v>11.973143</v>
       </c>
       <c r="J36" s="2">
-        <v>11.945963000000001</v>
+        <v>11.887074</v>
       </c>
       <c r="K36" s="2">
-        <v>11.729956</v>
+        <v>11.893034</v>
       </c>
       <c r="L36" s="3">
-        <v>11.642932999999999</v>
+        <v>11.721849000000001</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -5809,37 +5810,37 @@
       </c>
       <c r="B37" s="11">
         <f t="shared" si="2"/>
-        <v>17.247914999999999</v>
+        <v>17.230988</v>
       </c>
       <c r="C37" s="2">
-        <v>17.379999000000002</v>
+        <v>17.556906000000001</v>
       </c>
       <c r="D37" s="2">
-        <v>17.680883000000001</v>
+        <v>17.756224</v>
       </c>
       <c r="E37" s="2">
-        <v>17.459869000000001</v>
+        <v>17.811060000000001</v>
       </c>
       <c r="F37" s="2">
-        <v>17.247914999999999</v>
+        <v>17.314910999999999</v>
       </c>
       <c r="G37" s="2">
-        <v>17.620802000000001</v>
+        <v>17.647981999999999</v>
       </c>
       <c r="H37" s="2">
-        <v>17.364025000000002</v>
+        <v>17.678975999999999</v>
       </c>
       <c r="I37" s="2">
-        <v>17.435074</v>
+        <v>17.243862</v>
       </c>
       <c r="J37" s="2">
-        <v>17.338037</v>
+        <v>17.410993999999999</v>
       </c>
       <c r="K37" s="2">
-        <v>17.270088000000001</v>
+        <v>17.230988</v>
       </c>
       <c r="L37" s="3">
-        <v>17.379999000000002</v>
+        <v>17.556906000000001</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -5849,37 +5850,37 @@
       </c>
       <c r="B38" s="11">
         <f t="shared" si="2"/>
-        <v>28.651952999999999</v>
+        <v>27.86994</v>
       </c>
       <c r="C38" s="2">
-        <v>28.889178999999999</v>
+        <v>28.940916000000001</v>
       </c>
       <c r="D38" s="2">
-        <v>28.879881000000001</v>
+        <v>28.656006000000001</v>
       </c>
       <c r="E38" s="2">
-        <v>28.824805999999999</v>
+        <v>28.594971000000001</v>
       </c>
       <c r="F38" s="2">
-        <v>28.748989000000002</v>
+        <v>28.747796999999998</v>
       </c>
       <c r="G38" s="2">
-        <v>28.856992999999999</v>
+        <v>28.738976000000001</v>
       </c>
       <c r="H38" s="2">
-        <v>28.906821999999998</v>
+        <v>28.825997999999998</v>
       </c>
       <c r="I38" s="2">
-        <v>28.651952999999999</v>
+        <v>29.009104000000001</v>
       </c>
       <c r="J38" s="2">
-        <v>28.951882999999999</v>
+        <v>27.86994</v>
       </c>
       <c r="K38" s="2">
-        <v>28.871058999999999</v>
+        <v>28.739929</v>
       </c>
       <c r="L38" s="3">
-        <v>28.889178999999999</v>
+        <v>28.940916000000001</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -5889,37 +5890,37 @@
       </c>
       <c r="B39" s="11">
         <f t="shared" si="2"/>
-        <v>50.590038</v>
+        <v>50.349950999999997</v>
       </c>
       <c r="C39" s="2">
-        <v>51.591158</v>
+        <v>51.578999000000003</v>
       </c>
       <c r="D39" s="2">
-        <v>51.713943</v>
+        <v>50.349950999999997</v>
       </c>
       <c r="E39" s="2">
-        <v>51.141976999999997</v>
+        <v>50.757885000000002</v>
       </c>
       <c r="F39" s="2">
-        <v>50.590038</v>
+        <v>51.772117999999999</v>
       </c>
       <c r="G39" s="2">
-        <v>51.563025000000003</v>
+        <v>51.390886000000002</v>
       </c>
       <c r="H39" s="2">
-        <v>51.297902999999998</v>
+        <v>51.386118000000003</v>
       </c>
       <c r="I39" s="2">
-        <v>51.029921000000002</v>
+        <v>51.832914000000002</v>
       </c>
       <c r="J39" s="2">
-        <v>51.854134000000002</v>
+        <v>50.393104999999998</v>
       </c>
       <c r="K39" s="2">
-        <v>51.271915</v>
+        <v>51.844119999999997</v>
       </c>
       <c r="L39" s="3">
-        <v>51.591158</v>
+        <v>51.578999000000003</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -5929,37 +5930,37 @@
       </c>
       <c r="B40" s="11">
         <f t="shared" si="2"/>
-        <v>95.351934</v>
+        <v>95.088959000000003</v>
       </c>
       <c r="C40" s="2">
-        <v>95.898866999999996</v>
+        <v>95.429896999999997</v>
       </c>
       <c r="D40" s="2">
-        <v>96.673964999999995</v>
+        <v>95.911026000000007</v>
       </c>
       <c r="E40" s="2">
-        <v>96.751928000000007</v>
+        <v>96.083878999999996</v>
       </c>
       <c r="F40" s="2">
-        <v>95.351934</v>
+        <v>95.607996</v>
       </c>
       <c r="G40" s="2">
-        <v>96.565961999999999</v>
+        <v>96.688032000000007</v>
       </c>
       <c r="H40" s="2">
-        <v>96.095084999999997</v>
+        <v>96.544027</v>
       </c>
       <c r="I40" s="2">
-        <v>96.745013999999998</v>
+        <v>96.430063000000004</v>
       </c>
       <c r="J40" s="2">
-        <v>95.545052999999996</v>
+        <v>95.088959000000003</v>
       </c>
       <c r="K40" s="2">
-        <v>96.040009999999995</v>
+        <v>96.726894000000001</v>
       </c>
       <c r="L40" s="3">
-        <v>95.898866999999996</v>
+        <v>95.429896999999997</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -5969,37 +5970,37 @@
       </c>
       <c r="B41" s="11">
         <f t="shared" si="2"/>
-        <v>184.36193499999999</v>
+        <v>199.95784800000001</v>
       </c>
       <c r="C41" s="2">
-        <v>185.72211300000001</v>
+        <v>199.99408700000001</v>
       </c>
       <c r="D41" s="2">
-        <v>186.24305699999999</v>
+        <v>200.51884699999999</v>
       </c>
       <c r="E41" s="2">
-        <v>185.89782700000001</v>
+        <v>199.96309299999999</v>
       </c>
       <c r="F41" s="2">
-        <v>184.36193499999999</v>
+        <v>200.52194600000001</v>
       </c>
       <c r="G41" s="2">
-        <v>186.508894</v>
+        <v>200.07109600000001</v>
       </c>
       <c r="H41" s="2">
-        <v>186.19895</v>
+        <v>200.18386799999999</v>
       </c>
       <c r="I41" s="2">
-        <v>186.07997900000001</v>
+        <v>200.134039</v>
       </c>
       <c r="J41" s="2">
-        <v>185.69994</v>
+        <v>199.95784800000001</v>
       </c>
       <c r="K41" s="2">
-        <v>186.15794199999999</v>
+        <v>200.154066</v>
       </c>
       <c r="L41" s="3">
-        <v>185.72211300000001</v>
+        <v>199.99408700000001</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -6009,37 +6010,37 @@
       </c>
       <c r="B42" s="11">
         <f t="shared" si="2"/>
-        <v>292.26994500000001</v>
+        <v>292.49501199999997</v>
       </c>
       <c r="C42" s="2">
-        <v>292.26994500000001</v>
+        <v>292.648077</v>
       </c>
       <c r="D42" s="2">
-        <v>293.183088</v>
+        <v>293.073893</v>
       </c>
       <c r="E42" s="2">
-        <v>307.34992</v>
+        <v>293.02001000000001</v>
       </c>
       <c r="F42" s="2">
-        <v>292.66595799999999</v>
+        <v>293.05315000000002</v>
       </c>
       <c r="G42" s="2">
-        <v>292.45209699999998</v>
+        <v>292.84191099999998</v>
       </c>
       <c r="H42" s="2">
-        <v>305.18102599999997</v>
+        <v>292.94681500000002</v>
       </c>
       <c r="I42" s="2">
-        <v>292.350054</v>
+        <v>292.49501199999997</v>
       </c>
       <c r="J42" s="2">
-        <v>292.91105299999998</v>
+        <v>292.93489499999998</v>
       </c>
       <c r="K42" s="2">
-        <v>292.90008499999999</v>
+        <v>292.52290699999998</v>
       </c>
       <c r="L42" s="3">
-        <v>292.26994500000001</v>
+        <v>292.648077</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -6049,37 +6050,37 @@
       </c>
       <c r="B43" s="11">
         <f t="shared" si="2"/>
-        <v>478.33299599999998</v>
+        <v>478.399992</v>
       </c>
       <c r="C43" s="2">
-        <v>478.68394899999998</v>
+        <v>478.786945</v>
       </c>
       <c r="D43" s="2">
-        <v>479.16913</v>
+        <v>479.67791599999998</v>
       </c>
       <c r="E43" s="2">
-        <v>478.65700700000002</v>
+        <v>478.76810999999998</v>
       </c>
       <c r="F43" s="2">
-        <v>478.49011400000001</v>
+        <v>479.19201900000002</v>
       </c>
       <c r="G43" s="2">
-        <v>478.68299500000001</v>
+        <v>478.83200599999998</v>
       </c>
       <c r="H43" s="2">
-        <v>478.95002399999998</v>
+        <v>479.50983000000002</v>
       </c>
       <c r="I43" s="2">
-        <v>478.33299599999998</v>
+        <v>478.399992</v>
       </c>
       <c r="J43" s="2">
-        <v>479.50696900000003</v>
+        <v>478.53803599999998</v>
       </c>
       <c r="K43" s="2">
-        <v>479.13193699999999</v>
+        <v>479.09116699999998</v>
       </c>
       <c r="L43" s="3">
-        <v>478.68394899999998</v>
+        <v>478.786945</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="19" thickBot="1" x14ac:dyDescent="0.3">
@@ -6089,42 +6090,42 @@
       </c>
       <c r="B44" s="12">
         <f t="shared" si="2"/>
-        <v>871.89102200000002</v>
+        <v>871.972084</v>
       </c>
       <c r="C44" s="5">
-        <v>871.89102200000002</v>
+        <v>872.90287000000001</v>
       </c>
       <c r="D44" s="5">
-        <v>873.03900699999997</v>
+        <v>873.55709100000001</v>
       </c>
       <c r="E44" s="5">
-        <v>872.19786599999998</v>
+        <v>873.11601599999995</v>
       </c>
       <c r="F44" s="5">
-        <v>872.66492800000003</v>
+        <v>873.32391700000005</v>
       </c>
       <c r="G44" s="5">
-        <v>872.02692000000002</v>
+        <v>872.63894100000005</v>
       </c>
       <c r="H44" s="5">
-        <v>872.37405799999999</v>
+        <v>873.46196199999997</v>
       </c>
       <c r="I44" s="5">
-        <v>872.62606600000004</v>
+        <v>872.19810500000006</v>
       </c>
       <c r="J44" s="5">
-        <v>873.21615199999997</v>
+        <v>871.972084</v>
       </c>
       <c r="K44" s="5">
-        <v>873.12102300000004</v>
+        <v>872.43199300000003</v>
       </c>
       <c r="L44" s="6">
-        <v>871.89102200000002</v>
+        <v>872.90287000000001</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="19" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="19" thickBot="1" x14ac:dyDescent="0.3">
@@ -6975,15 +6976,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:12" ht="19" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="19" thickBot="1" x14ac:dyDescent="0.3">
@@ -7030,37 +7031,37 @@
       </c>
       <c r="B3" s="11">
         <f>MIN(C3:L3)</f>
-        <v>2.0120140000000002</v>
+        <v>2.0208360000000001</v>
       </c>
       <c r="C3" s="2">
-        <v>2.0251269999999999</v>
+        <v>2.0561219999999998</v>
       </c>
       <c r="D3" s="2">
-        <v>2.0759110000000001</v>
+        <v>2.0329950000000001</v>
       </c>
       <c r="E3" s="2">
-        <v>2.0709040000000001</v>
+        <v>2.0461079999999998</v>
       </c>
       <c r="F3" s="2">
-        <v>2.1011829999999998</v>
+        <v>2.053976</v>
       </c>
       <c r="G3" s="2">
-        <v>2.054214</v>
+        <v>2.042055</v>
       </c>
       <c r="H3" s="2">
-        <v>2.0120140000000002</v>
+        <v>2.064943</v>
       </c>
       <c r="I3" s="2">
-        <v>2.0401479999999999</v>
+        <v>2.0220280000000002</v>
       </c>
       <c r="J3" s="2">
-        <v>2.0408629999999999</v>
+        <v>2.0208360000000001</v>
       </c>
       <c r="K3" s="2">
-        <v>2.0380020000000001</v>
+        <v>2.110004</v>
       </c>
       <c r="L3" s="3">
-        <v>2.0251269999999999</v>
+        <v>2.0561219999999998</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -7070,37 +7071,37 @@
       </c>
       <c r="B4" s="11">
         <f t="shared" ref="B4:B22" si="0">MIN(C4:L4)</f>
-        <v>2.0229819999999998</v>
+        <v>2.0380020000000001</v>
       </c>
       <c r="C4" s="2">
-        <v>2.0229819999999998</v>
+        <v>2.091885</v>
       </c>
       <c r="D4" s="2">
-        <v>2.264977</v>
+        <v>2.0651820000000001</v>
       </c>
       <c r="E4" s="2">
-        <v>2.0611290000000002</v>
+        <v>2.2871489999999999</v>
       </c>
       <c r="F4" s="2">
-        <v>2.0349029999999999</v>
+        <v>2.0718570000000001</v>
       </c>
       <c r="G4" s="2">
-        <v>2.0611290000000002</v>
+        <v>2.0580289999999999</v>
       </c>
       <c r="H4" s="2">
+        <v>2.0439620000000001</v>
+      </c>
+      <c r="I4" s="2">
+        <v>2.0470619999999999</v>
+      </c>
+      <c r="J4" s="2">
         <v>2.0380020000000001</v>
       </c>
-      <c r="I4" s="2">
-        <v>2.0608900000000001</v>
-      </c>
-      <c r="J4" s="2">
-        <v>2.0470619999999999</v>
-      </c>
       <c r="K4" s="2">
-        <v>2.0570759999999999</v>
+        <v>2.1240709999999998</v>
       </c>
       <c r="L4" s="3">
-        <v>2.0229819999999998</v>
+        <v>2.091885</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -7110,37 +7111,37 @@
       </c>
       <c r="B5" s="11">
         <f t="shared" si="0"/>
-        <v>3.2989980000000001</v>
+        <v>3.4677980000000002</v>
       </c>
       <c r="C5" s="2">
-        <v>3.397942</v>
+        <v>3.7031170000000002</v>
       </c>
       <c r="D5" s="2">
-        <v>3.7250519999999998</v>
+        <v>3.4730430000000001</v>
       </c>
       <c r="E5" s="2">
-        <v>3.5059450000000001</v>
+        <v>3.4677980000000002</v>
       </c>
       <c r="F5" s="2">
-        <v>3.2989980000000001</v>
+        <v>3.687859</v>
       </c>
       <c r="G5" s="2">
-        <v>3.7479399999999998</v>
+        <v>3.7629600000000001</v>
       </c>
       <c r="H5" s="2">
-        <v>3.8399700000000001</v>
+        <v>3.8700100000000002</v>
       </c>
       <c r="I5" s="2">
-        <v>3.8399700000000001</v>
+        <v>3.6571030000000002</v>
       </c>
       <c r="J5" s="2">
-        <v>3.3719540000000001</v>
+        <v>3.4968849999999998</v>
       </c>
       <c r="K5" s="2">
-        <v>3.7591459999999999</v>
+        <v>3.9920810000000002</v>
       </c>
       <c r="L5" s="3">
-        <v>3.397942</v>
+        <v>3.7031170000000002</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -7150,37 +7151,37 @@
       </c>
       <c r="B6" s="11">
         <f t="shared" si="0"/>
-        <v>3.4518239999999998</v>
+        <v>3.443956</v>
       </c>
       <c r="C6" s="2">
-        <v>3.659964</v>
+        <v>3.5119060000000002</v>
       </c>
       <c r="D6" s="2">
-        <v>3.5350320000000002</v>
+        <v>3.4999850000000001</v>
       </c>
       <c r="E6" s="2">
-        <v>3.4518239999999998</v>
+        <v>3.8149359999999999</v>
       </c>
       <c r="F6" s="2">
-        <v>3.5300250000000002</v>
+        <v>3.7178990000000001</v>
       </c>
       <c r="G6" s="2">
-        <v>3.5841460000000001</v>
+        <v>3.5858150000000002</v>
       </c>
       <c r="H6" s="2">
-        <v>4.0788650000000004</v>
+        <v>3.8909910000000001</v>
       </c>
       <c r="I6" s="2">
-        <v>3.5281180000000001</v>
+        <v>4.0209289999999998</v>
       </c>
       <c r="J6" s="2">
-        <v>3.5381320000000001</v>
+        <v>3.443956</v>
       </c>
       <c r="K6" s="2">
-        <v>3.5030839999999999</v>
+        <v>3.4828190000000001</v>
       </c>
       <c r="L6" s="3">
-        <v>3.659964</v>
+        <v>3.5119060000000002</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -7190,37 +7191,37 @@
       </c>
       <c r="B7" s="11">
         <f t="shared" si="0"/>
-        <v>3.3509730000000002</v>
+        <v>3.5159590000000001</v>
       </c>
       <c r="C7" s="2">
-        <v>3.9100649999999999</v>
+        <v>4.1170119999999999</v>
       </c>
       <c r="D7" s="2">
-        <v>3.571987</v>
+        <v>3.6230090000000001</v>
       </c>
       <c r="E7" s="2">
-        <v>3.8690570000000002</v>
+        <v>3.8080219999999998</v>
       </c>
       <c r="F7" s="2">
-        <v>3.5338400000000001</v>
+        <v>3.972054</v>
       </c>
       <c r="G7" s="2">
-        <v>3.6230090000000001</v>
+        <v>3.5159590000000001</v>
       </c>
       <c r="H7" s="2">
-        <v>3.617048</v>
+        <v>3.6280160000000001</v>
       </c>
       <c r="I7" s="2">
-        <v>3.5359859999999999</v>
+        <v>3.855944</v>
       </c>
       <c r="J7" s="2">
-        <v>3.582954</v>
+        <v>3.5619740000000002</v>
       </c>
       <c r="K7" s="2">
-        <v>3.3509730000000002</v>
+        <v>3.7090779999999999</v>
       </c>
       <c r="L7" s="3">
-        <v>3.9100649999999999</v>
+        <v>4.1170119999999999</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -7230,37 +7231,37 @@
       </c>
       <c r="B8" s="11">
         <f t="shared" si="0"/>
-        <v>3.4720900000000001</v>
+        <v>3.6351680000000002</v>
       </c>
       <c r="C8" s="2">
-        <v>3.9460660000000001</v>
+        <v>3.8039679999999998</v>
       </c>
       <c r="D8" s="2">
-        <v>3.8437839999999999</v>
+        <v>3.6351680000000002</v>
       </c>
       <c r="E8" s="2">
-        <v>4.0240289999999996</v>
+        <v>3.7291050000000001</v>
       </c>
       <c r="F8" s="2">
-        <v>3.8261409999999998</v>
+        <v>3.8900380000000001</v>
       </c>
       <c r="G8" s="2">
-        <v>3.6749839999999998</v>
+        <v>3.8859840000000001</v>
       </c>
       <c r="H8" s="2">
-        <v>3.7431719999999999</v>
+        <v>4.2870039999999996</v>
       </c>
       <c r="I8" s="2">
-        <v>3.6408900000000002</v>
+        <v>3.8509370000000001</v>
       </c>
       <c r="J8" s="2">
-        <v>3.4720900000000001</v>
+        <v>3.8089750000000002</v>
       </c>
       <c r="K8" s="2">
-        <v>3.6261079999999999</v>
+        <v>3.8528440000000002</v>
       </c>
       <c r="L8" s="3">
-        <v>3.9460660000000001</v>
+        <v>3.8039679999999998</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -7270,37 +7271,37 @@
       </c>
       <c r="B9" s="11">
         <f t="shared" si="0"/>
-        <v>3.5729410000000001</v>
+        <v>3.6661619999999999</v>
       </c>
       <c r="C9" s="2">
-        <v>3.8630960000000001</v>
+        <v>4.268885</v>
       </c>
       <c r="D9" s="2">
-        <v>3.7770269999999999</v>
+        <v>3.7851330000000001</v>
       </c>
       <c r="E9" s="2">
-        <v>3.7701129999999998</v>
+        <v>3.9110179999999999</v>
       </c>
       <c r="F9" s="2">
-        <v>3.7019250000000001</v>
+        <v>3.722191</v>
       </c>
       <c r="G9" s="2">
-        <v>4.0569309999999996</v>
+        <v>3.6661619999999999</v>
       </c>
       <c r="H9" s="2">
-        <v>4.3358800000000004</v>
+        <v>3.9467810000000001</v>
       </c>
       <c r="I9" s="2">
-        <v>4.0149689999999998</v>
+        <v>4.1728019999999999</v>
       </c>
       <c r="J9" s="2">
-        <v>3.5729410000000001</v>
+        <v>4.0071009999999996</v>
       </c>
       <c r="K9" s="2">
-        <v>3.6070350000000002</v>
+        <v>3.710985</v>
       </c>
       <c r="L9" s="3">
-        <v>3.8630960000000001</v>
+        <v>4.268885</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -7310,37 +7311,37 @@
       </c>
       <c r="B10" s="11">
         <f t="shared" si="0"/>
-        <v>3.9010050000000001</v>
+        <v>3.9479730000000002</v>
       </c>
       <c r="C10" s="2">
-        <v>4.1959289999999996</v>
+        <v>4.0230750000000004</v>
       </c>
       <c r="D10" s="2">
-        <v>4.5568939999999998</v>
+        <v>3.9479730000000002</v>
       </c>
       <c r="E10" s="2">
-        <v>4.123926</v>
+        <v>4.3089389999999996</v>
       </c>
       <c r="F10" s="2">
-        <v>4.0860180000000001</v>
+        <v>4.2531489999999996</v>
       </c>
       <c r="G10" s="2">
-        <v>4.1260719999999997</v>
+        <v>4.3790339999999999</v>
       </c>
       <c r="H10" s="2">
-        <v>4.541874</v>
+        <v>4.4550900000000002</v>
       </c>
       <c r="I10" s="2">
-        <v>3.9010050000000001</v>
+        <v>4.1871070000000001</v>
       </c>
       <c r="J10" s="2">
-        <v>4.1580199999999996</v>
+        <v>4.1391850000000003</v>
       </c>
       <c r="K10" s="2">
-        <v>3.952026</v>
+        <v>4.2989249999999997</v>
       </c>
       <c r="L10" s="3">
-        <v>4.1959289999999996</v>
+        <v>4.0230750000000004</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -7350,37 +7351,37 @@
       </c>
       <c r="B11" s="11">
         <f t="shared" si="0"/>
-        <v>4.4698719999999996</v>
+        <v>4.5120719999999999</v>
       </c>
       <c r="C11" s="2">
-        <v>4.6658520000000001</v>
+        <v>4.9488539999999999</v>
       </c>
       <c r="D11" s="2">
-        <v>4.8248769999999999</v>
+        <v>4.5120719999999999</v>
       </c>
       <c r="E11" s="2">
-        <v>4.694223</v>
+        <v>4.6670439999999997</v>
       </c>
       <c r="F11" s="2">
-        <v>5.0201419999999999</v>
+        <v>5.0561429999999996</v>
       </c>
       <c r="G11" s="2">
-        <v>5.0690169999999997</v>
+        <v>4.8949720000000001</v>
       </c>
       <c r="H11" s="2">
+        <v>4.8420430000000003</v>
+      </c>
+      <c r="I11" s="2">
         <v>4.9970150000000002</v>
       </c>
-      <c r="I11" s="2">
-        <v>4.4698719999999996</v>
-      </c>
       <c r="J11" s="2">
-        <v>4.6529769999999999</v>
+        <v>4.6620369999999998</v>
       </c>
       <c r="K11" s="2">
-        <v>4.5759679999999996</v>
+        <v>4.7609810000000001</v>
       </c>
       <c r="L11" s="3">
-        <v>4.6658520000000001</v>
+        <v>4.9488539999999999</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -7390,37 +7391,37 @@
       </c>
       <c r="B12" s="11">
         <f t="shared" si="0"/>
-        <v>5.4969789999999996</v>
+        <v>5.563974</v>
       </c>
       <c r="C12" s="2">
-        <v>5.6011680000000004</v>
+        <v>5.6850909999999999</v>
       </c>
       <c r="D12" s="2">
-        <v>5.7928559999999996</v>
+        <v>5.9180260000000002</v>
       </c>
       <c r="E12" s="2">
-        <v>5.8341029999999998</v>
+        <v>5.9280400000000002</v>
       </c>
       <c r="F12" s="2">
-        <v>5.558014</v>
+        <v>5.5739879999999999</v>
       </c>
       <c r="G12" s="2">
-        <v>5.7718749999999996</v>
+        <v>5.7370660000000004</v>
       </c>
       <c r="H12" s="2">
-        <v>5.6450370000000003</v>
+        <v>6.0789590000000002</v>
       </c>
       <c r="I12" s="2">
-        <v>5.7940480000000001</v>
+        <v>5.563974</v>
       </c>
       <c r="J12" s="2">
-        <v>5.4969789999999996</v>
+        <v>5.8610439999999997</v>
       </c>
       <c r="K12" s="2">
-        <v>5.563021</v>
+        <v>5.8310029999999999</v>
       </c>
       <c r="L12" s="3">
-        <v>5.6011680000000004</v>
+        <v>5.6850909999999999</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -7430,37 +7431,37 @@
       </c>
       <c r="B13" s="11">
         <f t="shared" si="0"/>
-        <v>7.896185</v>
+        <v>7.7760220000000002</v>
       </c>
       <c r="C13" s="2">
-        <v>8.1088539999999991</v>
+        <v>8.1617829999999998</v>
       </c>
       <c r="D13" s="2">
-        <v>8.1110000000000007</v>
+        <v>7.8032019999999997</v>
       </c>
       <c r="E13" s="2">
-        <v>7.896185</v>
+        <v>7.7760220000000002</v>
       </c>
       <c r="F13" s="2">
-        <v>8.1958769999999994</v>
+        <v>8.3658699999999993</v>
       </c>
       <c r="G13" s="2">
-        <v>8.0978870000000001</v>
+        <v>8.0130099999999995</v>
       </c>
       <c r="H13" s="2">
-        <v>8.1610680000000002</v>
+        <v>8.1050400000000007</v>
       </c>
       <c r="I13" s="2">
-        <v>7.9510209999999999</v>
+        <v>8.5229870000000005</v>
       </c>
       <c r="J13" s="2">
-        <v>8.2998279999999998</v>
+        <v>7.7810290000000002</v>
       </c>
       <c r="K13" s="2">
-        <v>8.1150529999999996</v>
+        <v>8.0709459999999993</v>
       </c>
       <c r="L13" s="3">
-        <v>8.1088539999999991</v>
+        <v>8.1617829999999998</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -7470,37 +7471,37 @@
       </c>
       <c r="B14" s="11">
         <f t="shared" si="0"/>
-        <v>11.609076999999999</v>
+        <v>11.476039999999999</v>
       </c>
       <c r="C14" s="2">
-        <v>11.642932999999999</v>
+        <v>11.721849000000001</v>
       </c>
       <c r="D14" s="2">
-        <v>11.848927</v>
+        <v>11.476039999999999</v>
       </c>
       <c r="E14" s="2">
-        <v>11.718988</v>
+        <v>11.632918999999999</v>
       </c>
       <c r="F14" s="2">
-        <v>11.609076999999999</v>
+        <v>11.938095000000001</v>
       </c>
       <c r="G14" s="2">
-        <v>11.630058</v>
+        <v>11.685133</v>
       </c>
       <c r="H14" s="2">
-        <v>11.799097</v>
+        <v>11.910914999999999</v>
       </c>
       <c r="I14" s="2">
-        <v>11.669874</v>
+        <v>11.973143</v>
       </c>
       <c r="J14" s="2">
-        <v>11.945963000000001</v>
+        <v>11.887074</v>
       </c>
       <c r="K14" s="2">
-        <v>11.729956</v>
+        <v>11.893034</v>
       </c>
       <c r="L14" s="3">
-        <v>11.642932999999999</v>
+        <v>11.721849000000001</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -7510,37 +7511,37 @@
       </c>
       <c r="B15" s="11">
         <f t="shared" si="0"/>
-        <v>17.247914999999999</v>
+        <v>17.230988</v>
       </c>
       <c r="C15" s="2">
-        <v>17.379999000000002</v>
+        <v>17.556906000000001</v>
       </c>
       <c r="D15" s="2">
-        <v>17.680883000000001</v>
+        <v>17.756224</v>
       </c>
       <c r="E15" s="2">
-        <v>17.459869000000001</v>
+        <v>17.811060000000001</v>
       </c>
       <c r="F15" s="2">
-        <v>17.247914999999999</v>
+        <v>17.314910999999999</v>
       </c>
       <c r="G15" s="2">
-        <v>17.620802000000001</v>
+        <v>17.647981999999999</v>
       </c>
       <c r="H15" s="2">
-        <v>17.364025000000002</v>
+        <v>17.678975999999999</v>
       </c>
       <c r="I15" s="2">
-        <v>17.435074</v>
+        <v>17.243862</v>
       </c>
       <c r="J15" s="2">
-        <v>17.338037</v>
+        <v>17.410993999999999</v>
       </c>
       <c r="K15" s="2">
-        <v>17.270088000000001</v>
+        <v>17.230988</v>
       </c>
       <c r="L15" s="3">
-        <v>17.379999000000002</v>
+        <v>17.556906000000001</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -7550,37 +7551,37 @@
       </c>
       <c r="B16" s="11">
         <f t="shared" si="0"/>
-        <v>28.651952999999999</v>
+        <v>27.86994</v>
       </c>
       <c r="C16" s="2">
-        <v>28.889178999999999</v>
+        <v>28.940916000000001</v>
       </c>
       <c r="D16" s="2">
-        <v>28.879881000000001</v>
+        <v>28.656006000000001</v>
       </c>
       <c r="E16" s="2">
-        <v>28.824805999999999</v>
+        <v>28.594971000000001</v>
       </c>
       <c r="F16" s="2">
-        <v>28.748989000000002</v>
+        <v>28.747796999999998</v>
       </c>
       <c r="G16" s="2">
-        <v>28.856992999999999</v>
+        <v>28.738976000000001</v>
       </c>
       <c r="H16" s="2">
-        <v>28.906821999999998</v>
+        <v>28.825997999999998</v>
       </c>
       <c r="I16" s="2">
-        <v>28.651952999999999</v>
+        <v>29.009104000000001</v>
       </c>
       <c r="J16" s="2">
-        <v>28.951882999999999</v>
+        <v>27.86994</v>
       </c>
       <c r="K16" s="2">
-        <v>28.871058999999999</v>
+        <v>28.739929</v>
       </c>
       <c r="L16" s="3">
-        <v>28.889178999999999</v>
+        <v>28.940916000000001</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -7590,37 +7591,37 @@
       </c>
       <c r="B17" s="11">
         <f t="shared" si="0"/>
-        <v>50.590038</v>
+        <v>50.349950999999997</v>
       </c>
       <c r="C17" s="2">
-        <v>51.591158</v>
+        <v>51.578999000000003</v>
       </c>
       <c r="D17" s="2">
-        <v>51.713943</v>
+        <v>50.349950999999997</v>
       </c>
       <c r="E17" s="2">
-        <v>51.141976999999997</v>
+        <v>50.757885000000002</v>
       </c>
       <c r="F17" s="2">
-        <v>50.590038</v>
+        <v>51.772117999999999</v>
       </c>
       <c r="G17" s="2">
-        <v>51.563025000000003</v>
+        <v>51.390886000000002</v>
       </c>
       <c r="H17" s="2">
-        <v>51.297902999999998</v>
+        <v>51.386118000000003</v>
       </c>
       <c r="I17" s="2">
-        <v>51.029921000000002</v>
+        <v>51.832914000000002</v>
       </c>
       <c r="J17" s="2">
-        <v>51.854134000000002</v>
+        <v>50.393104999999998</v>
       </c>
       <c r="K17" s="2">
-        <v>51.271915</v>
+        <v>51.844119999999997</v>
       </c>
       <c r="L17" s="3">
-        <v>51.591158</v>
+        <v>51.578999000000003</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -7630,37 +7631,37 @@
       </c>
       <c r="B18" s="11">
         <f t="shared" si="0"/>
-        <v>95.351934</v>
+        <v>95.088959000000003</v>
       </c>
       <c r="C18" s="2">
-        <v>95.898866999999996</v>
+        <v>95.429896999999997</v>
       </c>
       <c r="D18" s="2">
-        <v>96.673964999999995</v>
+        <v>95.911026000000007</v>
       </c>
       <c r="E18" s="2">
-        <v>96.751928000000007</v>
+        <v>96.083878999999996</v>
       </c>
       <c r="F18" s="2">
-        <v>95.351934</v>
+        <v>95.607996</v>
       </c>
       <c r="G18" s="2">
-        <v>96.565961999999999</v>
+        <v>96.688032000000007</v>
       </c>
       <c r="H18" s="2">
-        <v>96.095084999999997</v>
+        <v>96.544027</v>
       </c>
       <c r="I18" s="2">
-        <v>96.745013999999998</v>
+        <v>96.430063000000004</v>
       </c>
       <c r="J18" s="2">
-        <v>95.545052999999996</v>
+        <v>95.088959000000003</v>
       </c>
       <c r="K18" s="2">
-        <v>96.040009999999995</v>
+        <v>96.726894000000001</v>
       </c>
       <c r="L18" s="3">
-        <v>95.898866999999996</v>
+        <v>95.429896999999997</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -7670,37 +7671,37 @@
       </c>
       <c r="B19" s="11">
         <f t="shared" si="0"/>
-        <v>184.36193499999999</v>
+        <v>199.95784800000001</v>
       </c>
       <c r="C19" s="2">
-        <v>185.72211300000001</v>
+        <v>199.99408700000001</v>
       </c>
       <c r="D19" s="2">
-        <v>186.24305699999999</v>
+        <v>200.51884699999999</v>
       </c>
       <c r="E19" s="2">
-        <v>185.89782700000001</v>
+        <v>199.96309299999999</v>
       </c>
       <c r="F19" s="2">
-        <v>184.36193499999999</v>
+        <v>200.52194600000001</v>
       </c>
       <c r="G19" s="2">
-        <v>186.508894</v>
+        <v>200.07109600000001</v>
       </c>
       <c r="H19" s="2">
-        <v>186.19895</v>
+        <v>200.18386799999999</v>
       </c>
       <c r="I19" s="2">
-        <v>186.07997900000001</v>
+        <v>200.134039</v>
       </c>
       <c r="J19" s="2">
-        <v>185.69994</v>
+        <v>199.95784800000001</v>
       </c>
       <c r="K19" s="2">
-        <v>186.15794199999999</v>
+        <v>200.154066</v>
       </c>
       <c r="L19" s="3">
-        <v>185.72211300000001</v>
+        <v>199.99408700000001</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -7710,37 +7711,37 @@
       </c>
       <c r="B20" s="11">
         <f t="shared" si="0"/>
-        <v>292.26994500000001</v>
+        <v>292.49501199999997</v>
       </c>
       <c r="C20" s="2">
-        <v>292.26994500000001</v>
+        <v>292.648077</v>
       </c>
       <c r="D20" s="2">
-        <v>293.183088</v>
+        <v>293.073893</v>
       </c>
       <c r="E20" s="2">
-        <v>307.34992</v>
+        <v>293.02001000000001</v>
       </c>
       <c r="F20" s="2">
-        <v>292.66595799999999</v>
+        <v>293.05315000000002</v>
       </c>
       <c r="G20" s="2">
-        <v>292.45209699999998</v>
+        <v>292.84191099999998</v>
       </c>
       <c r="H20" s="2">
-        <v>305.18102599999997</v>
+        <v>292.94681500000002</v>
       </c>
       <c r="I20" s="2">
-        <v>292.350054</v>
+        <v>292.49501199999997</v>
       </c>
       <c r="J20" s="2">
-        <v>292.91105299999998</v>
+        <v>292.93489499999998</v>
       </c>
       <c r="K20" s="2">
-        <v>292.90008499999999</v>
+        <v>292.52290699999998</v>
       </c>
       <c r="L20" s="3">
-        <v>292.26994500000001</v>
+        <v>292.648077</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -7750,37 +7751,37 @@
       </c>
       <c r="B21" s="11">
         <f t="shared" si="0"/>
-        <v>478.33299599999998</v>
+        <v>478.399992</v>
       </c>
       <c r="C21" s="2">
-        <v>478.68394899999998</v>
+        <v>478.786945</v>
       </c>
       <c r="D21" s="2">
-        <v>479.16913</v>
+        <v>479.67791599999998</v>
       </c>
       <c r="E21" s="2">
-        <v>478.65700700000002</v>
+        <v>478.76810999999998</v>
       </c>
       <c r="F21" s="2">
-        <v>478.49011400000001</v>
+        <v>479.19201900000002</v>
       </c>
       <c r="G21" s="2">
-        <v>478.68299500000001</v>
+        <v>478.83200599999998</v>
       </c>
       <c r="H21" s="2">
-        <v>478.95002399999998</v>
+        <v>479.50983000000002</v>
       </c>
       <c r="I21" s="2">
-        <v>478.33299599999998</v>
+        <v>478.399992</v>
       </c>
       <c r="J21" s="2">
-        <v>479.50696900000003</v>
+        <v>478.53803599999998</v>
       </c>
       <c r="K21" s="2">
-        <v>479.13193699999999</v>
+        <v>479.09116699999998</v>
       </c>
       <c r="L21" s="3">
-        <v>478.68394899999998</v>
+        <v>478.786945</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="19" thickBot="1" x14ac:dyDescent="0.3">
@@ -7790,42 +7791,42 @@
       </c>
       <c r="B22" s="12">
         <f t="shared" si="0"/>
-        <v>871.89102200000002</v>
+        <v>871.972084</v>
       </c>
       <c r="C22" s="5">
-        <v>871.89102200000002</v>
+        <v>872.90287000000001</v>
       </c>
       <c r="D22" s="5">
-        <v>873.03900699999997</v>
+        <v>873.55709100000001</v>
       </c>
       <c r="E22" s="5">
-        <v>872.19786599999998</v>
+        <v>873.11601599999995</v>
       </c>
       <c r="F22" s="5">
-        <v>872.66492800000003</v>
+        <v>873.32391700000005</v>
       </c>
       <c r="G22" s="5">
-        <v>872.02692000000002</v>
+        <v>872.63894100000005</v>
       </c>
       <c r="H22" s="5">
-        <v>872.37405799999999</v>
+        <v>873.46196199999997</v>
       </c>
       <c r="I22" s="5">
-        <v>872.62606600000004</v>
+        <v>872.19810500000006</v>
       </c>
       <c r="J22" s="5">
-        <v>873.21615199999997</v>
+        <v>871.972084</v>
       </c>
       <c r="K22" s="5">
-        <v>873.12102300000004</v>
+        <v>872.43199300000003</v>
       </c>
       <c r="L22" s="6">
-        <v>871.89102200000002</v>
+        <v>872.90287000000001</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="19" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="19" thickBot="1" x14ac:dyDescent="0.3">
@@ -8684,7 +8685,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="19" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="19" thickBot="1" x14ac:dyDescent="0.3">
@@ -9526,7 +9527,7 @@
     </row>
     <row r="25" spans="1:12" ht="19" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="19" thickBot="1" x14ac:dyDescent="0.3">

--- a/pingpong/pingpong.xlsx
+++ b/pingpong/pingpong.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="23700" yWindow="4140" windowWidth="39680" windowHeight="17440" activeTab="1"/>
+    <workbookView xWindow="11520" yWindow="4140" windowWidth="39680" windowHeight="17440"/>
   </bookViews>
   <sheets>
     <sheet name="TCA" sheetId="1" r:id="rId1"/>
@@ -128,8 +128,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MV2_GPUDIRECT_LIMIT=262144</t>
-    <phoneticPr fontId="1"/>
+    <t>MV2_GPUDIRECT_LIMIT=524288</t>
   </si>
 </sst>
 </file>
@@ -666,64 +665,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>2.0208360000000001</c:v>
+                  <c:v>2.2718910000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0380020000000001</c:v>
+                  <c:v>2.2780900000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.4677980000000002</c:v>
+                  <c:v>3.3578869999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.443956</c:v>
+                  <c:v>3.4999850000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.5159590000000001</c:v>
+                  <c:v>3.3621789999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.6351680000000002</c:v>
+                  <c:v>3.4699439999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.6661619999999999</c:v>
+                  <c:v>3.6630630000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.9479730000000002</c:v>
+                  <c:v>4.0361880000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.5120719999999999</c:v>
+                  <c:v>4.5778749999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.563974</c:v>
+                  <c:v>5.5730339999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>7.7760220000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.476039999999999</c:v>
+                  <c:v>11.445999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17.230988</c:v>
+                  <c:v>17.199038999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>27.86994</c:v>
+                  <c:v>28.445004999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>50.349950999999997</c:v>
+                  <c:v>50.302028999999997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>95.088959000000003</c:v>
+                  <c:v>95.841885000000005</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>199.95784800000001</c:v>
+                  <c:v>184.48996500000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>292.49501199999997</c:v>
+                  <c:v>291.89586600000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>478.399992</c:v>
+                  <c:v>478.07908099999997</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>871.972084</c:v>
+                  <c:v>871.24800700000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -841,64 +840,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>2.2308829999999999</c:v>
+                  <c:v>2.5570390000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2170540000000001</c:v>
+                  <c:v>2.5770659999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.3449400000000002</c:v>
+                  <c:v>4.1530129999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.9970870000000001</c:v>
+                  <c:v>4.1241649999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0709970000000002</c:v>
+                  <c:v>4.1871070000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.3129920000000004</c:v>
+                  <c:v>4.2920109999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.4019219999999999</c:v>
+                  <c:v>4.5411590000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.2280430000000004</c:v>
+                  <c:v>5.3110119999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.5460209999999996</c:v>
+                  <c:v>6.494999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.0379710000000006</c:v>
+                  <c:v>8.9209080000000007</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14.672041</c:v>
+                  <c:v>14.677047999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>46.700001</c:v>
+                  <c:v>46.594143000000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>49.597979000000002</c:v>
+                  <c:v>49.566983999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>64.966916999999995</c:v>
+                  <c:v>64.885855000000006</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>95.782042000000004</c:v>
+                  <c:v>95.501900000000006</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>157.37891200000001</c:v>
+                  <c:v>157.09710100000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>204.21004300000001</c:v>
+                  <c:v>203.612089</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>298.393011</c:v>
+                  <c:v>296.96393</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>486.27710300000001</c:v>
+                  <c:v>484.58004</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>886.933088</c:v>
+                  <c:v>883.67509800000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1335,64 +1334,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>2.0208360000000001</c:v>
+                  <c:v>2.2718910000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0380020000000001</c:v>
+                  <c:v>2.2780900000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.4677980000000002</c:v>
+                  <c:v>3.3578869999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.443956</c:v>
+                  <c:v>3.4999850000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.5159590000000001</c:v>
+                  <c:v>3.3621789999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.6351680000000002</c:v>
+                  <c:v>3.4699439999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.6661619999999999</c:v>
+                  <c:v>3.6630630000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.9479730000000002</c:v>
+                  <c:v>4.0361880000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.5120719999999999</c:v>
+                  <c:v>4.5778749999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.563974</c:v>
+                  <c:v>5.5730339999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>7.7760220000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.476039999999999</c:v>
+                  <c:v>11.445999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17.230988</c:v>
+                  <c:v>17.199038999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>27.86994</c:v>
+                  <c:v>28.445004999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>50.349950999999997</c:v>
+                  <c:v>50.302028999999997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>95.088959000000003</c:v>
+                  <c:v>95.841885000000005</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>199.95784800000001</c:v>
+                  <c:v>184.48996500000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>292.49501199999997</c:v>
+                  <c:v>291.89586600000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>478.399992</c:v>
+                  <c:v>478.07908099999997</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>871.972084</c:v>
+                  <c:v>871.24800700000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1510,64 +1509,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>2.01416</c:v>
+                  <c:v>2.2749899999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0239349999999998</c:v>
+                  <c:v>2.298117</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.3490660000000001</c:v>
+                  <c:v>3.4780500000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.3068659999999999</c:v>
+                  <c:v>3.4441950000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.3319000000000001</c:v>
+                  <c:v>3.4899710000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.4370419999999999</c:v>
+                  <c:v>3.5738949999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.7078859999999998</c:v>
+                  <c:v>3.6859510000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.8869379999999998</c:v>
+                  <c:v>4.063129</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.5769209999999996</c:v>
+                  <c:v>4.6579839999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.520105</c:v>
+                  <c:v>5.724907</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.7381130000000002</c:v>
+                  <c:v>7.8380109999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24.068117000000001</c:v>
+                  <c:v>24.049043999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>29.503107</c:v>
+                  <c:v>29.474974</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>40.513992000000002</c:v>
+                  <c:v>40.468930999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>62.679051999999999</c:v>
+                  <c:v>62.553882999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>106.976032</c:v>
+                  <c:v>106.892109</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>199.85103599999999</c:v>
+                  <c:v>199.928999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>292.449951</c:v>
+                  <c:v>292.70696600000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>478.17397099999999</c:v>
+                  <c:v>478.230953</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>870.80884000000003</c:v>
+                  <c:v>870.51010099999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1939,64 +1938,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>2.2308829999999999</c:v>
+                  <c:v>2.5570390000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2170540000000001</c:v>
+                  <c:v>2.5770659999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.3449400000000002</c:v>
+                  <c:v>4.1530129999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.9970870000000001</c:v>
+                  <c:v>4.1241649999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0709970000000002</c:v>
+                  <c:v>4.1871070000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.3129920000000004</c:v>
+                  <c:v>4.2920109999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.4019219999999999</c:v>
+                  <c:v>4.5411590000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.2280430000000004</c:v>
+                  <c:v>5.3110119999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.5460209999999996</c:v>
+                  <c:v>6.494999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.0379710000000006</c:v>
+                  <c:v>8.9209080000000007</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14.672041</c:v>
+                  <c:v>14.677047999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>46.700001</c:v>
+                  <c:v>46.594143000000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>49.597979000000002</c:v>
+                  <c:v>49.566983999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>64.966916999999995</c:v>
+                  <c:v>64.885855000000006</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>95.782042000000004</c:v>
+                  <c:v>95.501900000000006</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>157.37891200000001</c:v>
+                  <c:v>157.09710100000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>204.21004300000001</c:v>
+                  <c:v>203.612089</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>298.393011</c:v>
+                  <c:v>296.96393</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>486.27710300000001</c:v>
+                  <c:v>484.58004</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>886.933088</c:v>
+                  <c:v>883.67509800000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2114,64 +2113,64 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>2.2211069999999999</c:v>
+                  <c:v>2.5529860000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2850039999999998</c:v>
+                  <c:v>2.5589469999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.2769909999999998</c:v>
+                  <c:v>4.1918749999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0569309999999996</c:v>
+                  <c:v>4.0330890000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0051940000000004</c:v>
+                  <c:v>4.0190219999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1391850000000003</c:v>
+                  <c:v>4.2049880000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.3249129999999996</c:v>
+                  <c:v>4.4820310000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.1288600000000004</c:v>
+                  <c:v>5.2421090000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.446123</c:v>
+                  <c:v>6.3481329999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.1850760000000005</c:v>
+                  <c:v>8.8951589999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14.697075</c:v>
+                  <c:v>14.684915999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>75.664043000000007</c:v>
+                  <c:v>75.479984000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>130.821943</c:v>
+                  <c:v>130.84197</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>241.37187</c:v>
+                  <c:v>241.145849</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>462.24999400000002</c:v>
+                  <c:v>461.87496199999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>903.90801399999998</c:v>
+                  <c:v>902.70996100000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>203.572035</c:v>
+                  <c:v>203.88698600000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>296.88596699999999</c:v>
+                  <c:v>297.354221</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>484.46393</c:v>
+                  <c:v>484.78102699999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>881.79612199999997</c:v>
+                  <c:v>882.72810000000004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4438,8 +4437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -5330,37 +5329,37 @@
       </c>
       <c r="B25" s="11">
         <f>MIN(C25:L25)</f>
-        <v>2.0208360000000001</v>
+        <v>2.2718910000000001</v>
       </c>
       <c r="C25" s="2">
-        <v>2.0561219999999998</v>
+        <v>2.275944</v>
       </c>
       <c r="D25" s="2">
-        <v>2.0329950000000001</v>
+        <v>2.3221970000000001</v>
       </c>
       <c r="E25" s="2">
-        <v>2.0461079999999998</v>
+        <v>2.3190979999999999</v>
       </c>
       <c r="F25" s="2">
-        <v>2.053976</v>
+        <v>2.328157</v>
       </c>
       <c r="G25" s="2">
-        <v>2.042055</v>
+        <v>2.3698809999999999</v>
       </c>
       <c r="H25" s="2">
-        <v>2.064943</v>
+        <v>2.310991</v>
       </c>
       <c r="I25" s="2">
-        <v>2.0220280000000002</v>
+        <v>2.3729800000000001</v>
       </c>
       <c r="J25" s="2">
-        <v>2.0208360000000001</v>
+        <v>2.3231510000000002</v>
       </c>
       <c r="K25" s="2">
-        <v>2.110004</v>
+        <v>2.2718910000000001</v>
       </c>
       <c r="L25" s="3">
-        <v>2.0561219999999998</v>
+        <v>2.275944</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -5370,37 +5369,37 @@
       </c>
       <c r="B26" s="11">
         <f t="shared" ref="B26:B44" si="2">MIN(C26:L26)</f>
-        <v>2.0380020000000001</v>
+        <v>2.2780900000000002</v>
       </c>
       <c r="C26" s="2">
-        <v>2.091885</v>
+        <v>2.2871489999999999</v>
       </c>
       <c r="D26" s="2">
-        <v>2.0651820000000001</v>
+        <v>2.280951</v>
       </c>
       <c r="E26" s="2">
+        <v>2.3958680000000001</v>
+      </c>
+      <c r="F26" s="2">
+        <v>2.2780900000000002</v>
+      </c>
+      <c r="G26" s="2">
+        <v>2.5649069999999998</v>
+      </c>
+      <c r="H26" s="2">
+        <v>2.372026</v>
+      </c>
+      <c r="I26" s="2">
+        <v>2.4631020000000001</v>
+      </c>
+      <c r="J26" s="2">
+        <v>2.2950170000000001</v>
+      </c>
+      <c r="K26" s="2">
+        <v>2.343893</v>
+      </c>
+      <c r="L26" s="3">
         <v>2.2871489999999999</v>
-      </c>
-      <c r="F26" s="2">
-        <v>2.0718570000000001</v>
-      </c>
-      <c r="G26" s="2">
-        <v>2.0580289999999999</v>
-      </c>
-      <c r="H26" s="2">
-        <v>2.0439620000000001</v>
-      </c>
-      <c r="I26" s="2">
-        <v>2.0470619999999999</v>
-      </c>
-      <c r="J26" s="2">
-        <v>2.0380020000000001</v>
-      </c>
-      <c r="K26" s="2">
-        <v>2.1240709999999998</v>
-      </c>
-      <c r="L26" s="3">
-        <v>2.091885</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -5410,37 +5409,37 @@
       </c>
       <c r="B27" s="11">
         <f t="shared" si="2"/>
-        <v>3.4677980000000002</v>
+        <v>3.3578869999999998</v>
       </c>
       <c r="C27" s="2">
-        <v>3.7031170000000002</v>
+        <v>3.3578869999999998</v>
       </c>
       <c r="D27" s="2">
-        <v>3.4730430000000001</v>
+        <v>3.5500530000000001</v>
       </c>
       <c r="E27" s="2">
-        <v>3.4677980000000002</v>
+        <v>3.6180020000000002</v>
       </c>
       <c r="F27" s="2">
-        <v>3.687859</v>
+        <v>3.388166</v>
       </c>
       <c r="G27" s="2">
-        <v>3.7629600000000001</v>
+        <v>3.5278800000000001</v>
       </c>
       <c r="H27" s="2">
-        <v>3.8700100000000002</v>
+        <v>3.5150049999999999</v>
       </c>
       <c r="I27" s="2">
-        <v>3.6571030000000002</v>
+        <v>3.5710329999999999</v>
       </c>
       <c r="J27" s="2">
-        <v>3.4968849999999998</v>
+        <v>3.6039349999999999</v>
       </c>
       <c r="K27" s="2">
-        <v>3.9920810000000002</v>
+        <v>3.5068990000000002</v>
       </c>
       <c r="L27" s="3">
-        <v>3.7031170000000002</v>
+        <v>3.3578869999999998</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -5450,37 +5449,37 @@
       </c>
       <c r="B28" s="11">
         <f t="shared" si="2"/>
-        <v>3.443956</v>
+        <v>3.4999850000000001</v>
       </c>
       <c r="C28" s="2">
-        <v>3.5119060000000002</v>
+        <v>3.5250189999999999</v>
       </c>
       <c r="D28" s="2">
+        <v>3.6141869999999998</v>
+      </c>
+      <c r="E28" s="2">
+        <v>3.7069320000000001</v>
+      </c>
+      <c r="F28" s="2">
         <v>3.4999850000000001</v>
       </c>
-      <c r="E28" s="2">
-        <v>3.8149359999999999</v>
-      </c>
-      <c r="F28" s="2">
-        <v>3.7178990000000001</v>
-      </c>
       <c r="G28" s="2">
-        <v>3.5858150000000002</v>
+        <v>3.5882000000000001</v>
       </c>
       <c r="H28" s="2">
-        <v>3.8909910000000001</v>
+        <v>3.5259719999999999</v>
       </c>
       <c r="I28" s="2">
-        <v>4.0209289999999998</v>
+        <v>3.5748479999999998</v>
       </c>
       <c r="J28" s="2">
-        <v>3.443956</v>
+        <v>3.659964</v>
       </c>
       <c r="K28" s="2">
-        <v>3.4828190000000001</v>
+        <v>3.5009380000000001</v>
       </c>
       <c r="L28" s="3">
-        <v>3.5119060000000002</v>
+        <v>3.5250189999999999</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -5490,37 +5489,37 @@
       </c>
       <c r="B29" s="11">
         <f t="shared" si="2"/>
-        <v>3.5159590000000001</v>
+        <v>3.3621789999999998</v>
       </c>
       <c r="C29" s="2">
-        <v>4.1170119999999999</v>
+        <v>3.3621789999999998</v>
       </c>
       <c r="D29" s="2">
-        <v>3.6230090000000001</v>
+        <v>3.5800930000000002</v>
       </c>
       <c r="E29" s="2">
-        <v>3.8080219999999998</v>
+        <v>3.6070350000000002</v>
       </c>
       <c r="F29" s="2">
-        <v>3.972054</v>
+        <v>3.4351349999999998</v>
       </c>
       <c r="G29" s="2">
-        <v>3.5159590000000001</v>
+        <v>3.632069</v>
       </c>
       <c r="H29" s="2">
-        <v>3.6280160000000001</v>
+        <v>3.5650729999999999</v>
       </c>
       <c r="I29" s="2">
-        <v>3.855944</v>
+        <v>3.5660270000000001</v>
       </c>
       <c r="J29" s="2">
-        <v>3.5619740000000002</v>
+        <v>3.5910609999999998</v>
       </c>
       <c r="K29" s="2">
-        <v>3.7090779999999999</v>
+        <v>3.816128</v>
       </c>
       <c r="L29" s="3">
-        <v>4.1170119999999999</v>
+        <v>3.3621789999999998</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -5530,37 +5529,37 @@
       </c>
       <c r="B30" s="11">
         <f t="shared" si="2"/>
-        <v>3.6351680000000002</v>
+        <v>3.4699439999999999</v>
       </c>
       <c r="C30" s="2">
-        <v>3.8039679999999998</v>
+        <v>3.4699439999999999</v>
       </c>
       <c r="D30" s="2">
-        <v>3.6351680000000002</v>
+        <v>3.7250519999999998</v>
       </c>
       <c r="E30" s="2">
-        <v>3.7291050000000001</v>
+        <v>3.5860539999999999</v>
       </c>
       <c r="F30" s="2">
-        <v>3.8900380000000001</v>
+        <v>3.5321709999999999</v>
       </c>
       <c r="G30" s="2">
-        <v>3.8859840000000001</v>
+        <v>3.654957</v>
       </c>
       <c r="H30" s="2">
-        <v>4.2870039999999996</v>
+        <v>3.7310120000000002</v>
       </c>
       <c r="I30" s="2">
-        <v>3.8509370000000001</v>
+        <v>3.6768909999999999</v>
       </c>
       <c r="J30" s="2">
-        <v>3.8089750000000002</v>
+        <v>3.7529469999999998</v>
       </c>
       <c r="K30" s="2">
-        <v>3.8528440000000002</v>
+        <v>3.7138460000000002</v>
       </c>
       <c r="L30" s="3">
-        <v>3.8039679999999998</v>
+        <v>3.4699439999999999</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -5570,37 +5569,37 @@
       </c>
       <c r="B31" s="11">
         <f t="shared" si="2"/>
-        <v>3.6661619999999999</v>
+        <v>3.6630630000000002</v>
       </c>
       <c r="C31" s="2">
-        <v>4.268885</v>
+        <v>3.7269589999999999</v>
       </c>
       <c r="D31" s="2">
-        <v>3.7851330000000001</v>
+        <v>3.9289000000000001</v>
       </c>
       <c r="E31" s="2">
-        <v>3.9110179999999999</v>
+        <v>3.8919450000000002</v>
       </c>
       <c r="F31" s="2">
-        <v>3.722191</v>
+        <v>3.6630630000000002</v>
       </c>
       <c r="G31" s="2">
-        <v>3.6661619999999999</v>
+        <v>3.7369729999999999</v>
       </c>
       <c r="H31" s="2">
-        <v>3.9467810000000001</v>
+        <v>3.805876</v>
       </c>
       <c r="I31" s="2">
-        <v>4.1728019999999999</v>
+        <v>3.7219519999999999</v>
       </c>
       <c r="J31" s="2">
-        <v>4.0071009999999996</v>
+        <v>3.8630960000000001</v>
       </c>
       <c r="K31" s="2">
-        <v>3.710985</v>
+        <v>3.8599969999999999</v>
       </c>
       <c r="L31" s="3">
-        <v>4.268885</v>
+        <v>3.7269589999999999</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -5610,37 +5609,37 @@
       </c>
       <c r="B32" s="11">
         <f t="shared" si="2"/>
-        <v>3.9479730000000002</v>
+        <v>4.0361880000000001</v>
       </c>
       <c r="C32" s="2">
-        <v>4.0230750000000004</v>
+        <v>4.0690900000000001</v>
       </c>
       <c r="D32" s="2">
-        <v>3.9479730000000002</v>
+        <v>4.269838</v>
       </c>
       <c r="E32" s="2">
-        <v>4.3089389999999996</v>
+        <v>4.218102</v>
       </c>
       <c r="F32" s="2">
-        <v>4.2531489999999996</v>
+        <v>4.1580199999999996</v>
       </c>
       <c r="G32" s="2">
-        <v>4.3790339999999999</v>
+        <v>4.1041369999999997</v>
       </c>
       <c r="H32" s="2">
-        <v>4.4550900000000002</v>
+        <v>4.1439529999999998</v>
       </c>
       <c r="I32" s="2">
-        <v>4.1871070000000001</v>
+        <v>4.1041369999999997</v>
       </c>
       <c r="J32" s="2">
-        <v>4.1391850000000003</v>
+        <v>4.0361880000000001</v>
       </c>
       <c r="K32" s="2">
-        <v>4.2989249999999997</v>
+        <v>4.0788650000000004</v>
       </c>
       <c r="L32" s="3">
-        <v>4.0230750000000004</v>
+        <v>4.0690900000000001</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -5650,37 +5649,37 @@
       </c>
       <c r="B33" s="11">
         <f t="shared" si="2"/>
-        <v>4.5120719999999999</v>
+        <v>4.5778749999999997</v>
       </c>
       <c r="C33" s="2">
-        <v>4.9488539999999999</v>
+        <v>4.6780109999999997</v>
       </c>
       <c r="D33" s="2">
-        <v>4.5120719999999999</v>
+        <v>4.9319269999999999</v>
       </c>
       <c r="E33" s="2">
-        <v>4.6670439999999997</v>
+        <v>4.6899319999999998</v>
       </c>
       <c r="F33" s="2">
-        <v>5.0561429999999996</v>
+        <v>4.5778749999999997</v>
       </c>
       <c r="G33" s="2">
-        <v>4.8949720000000001</v>
+        <v>4.7850609999999998</v>
       </c>
       <c r="H33" s="2">
-        <v>4.8420430000000003</v>
+        <v>4.6181679999999998</v>
       </c>
       <c r="I33" s="2">
-        <v>4.9970150000000002</v>
+        <v>4.6701430000000004</v>
       </c>
       <c r="J33" s="2">
-        <v>4.6620369999999998</v>
+        <v>4.8699380000000003</v>
       </c>
       <c r="K33" s="2">
-        <v>4.7609810000000001</v>
+        <v>4.9979690000000003</v>
       </c>
       <c r="L33" s="3">
-        <v>4.9488539999999999</v>
+        <v>4.6780109999999997</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -5690,37 +5689,37 @@
       </c>
       <c r="B34" s="11">
         <f t="shared" si="2"/>
-        <v>5.563974</v>
+        <v>5.5730339999999998</v>
       </c>
       <c r="C34" s="2">
-        <v>5.6850909999999999</v>
+        <v>5.7749750000000004</v>
       </c>
       <c r="D34" s="2">
-        <v>5.9180260000000002</v>
+        <v>5.659103</v>
       </c>
       <c r="E34" s="2">
-        <v>5.9280400000000002</v>
+        <v>5.9108729999999996</v>
       </c>
       <c r="F34" s="2">
-        <v>5.5739879999999999</v>
+        <v>5.6490900000000002</v>
       </c>
       <c r="G34" s="2">
-        <v>5.7370660000000004</v>
+        <v>5.5899619999999999</v>
       </c>
       <c r="H34" s="2">
-        <v>6.0789590000000002</v>
+        <v>5.9449670000000001</v>
       </c>
       <c r="I34" s="2">
-        <v>5.563974</v>
+        <v>5.8870319999999996</v>
       </c>
       <c r="J34" s="2">
-        <v>5.8610439999999997</v>
+        <v>5.5730339999999998</v>
       </c>
       <c r="K34" s="2">
-        <v>5.8310029999999999</v>
+        <v>5.7599539999999996</v>
       </c>
       <c r="L34" s="3">
-        <v>5.6850909999999999</v>
+        <v>5.7749750000000004</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -5733,34 +5732,34 @@
         <v>7.7760220000000002</v>
       </c>
       <c r="C35" s="2">
-        <v>8.1617829999999998</v>
+        <v>8.2790850000000002</v>
       </c>
       <c r="D35" s="2">
-        <v>7.8032019999999997</v>
+        <v>8.2738399999999999</v>
       </c>
       <c r="E35" s="2">
+        <v>7.8260899999999998</v>
+      </c>
+      <c r="F35" s="2">
+        <v>8.1160069999999997</v>
+      </c>
+      <c r="G35" s="2">
+        <v>8.2581039999999994</v>
+      </c>
+      <c r="H35" s="2">
+        <v>7.8151229999999998</v>
+      </c>
+      <c r="I35" s="2">
         <v>7.7760220000000002</v>
       </c>
-      <c r="F35" s="2">
-        <v>8.3658699999999993</v>
-      </c>
-      <c r="G35" s="2">
-        <v>8.0130099999999995</v>
-      </c>
-      <c r="H35" s="2">
-        <v>8.1050400000000007</v>
-      </c>
-      <c r="I35" s="2">
-        <v>8.5229870000000005</v>
-      </c>
       <c r="J35" s="2">
-        <v>7.7810290000000002</v>
+        <v>8.3351140000000008</v>
       </c>
       <c r="K35" s="2">
-        <v>8.0709459999999993</v>
+        <v>8.0399510000000003</v>
       </c>
       <c r="L35" s="3">
-        <v>8.1617829999999998</v>
+        <v>8.2790850000000002</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -5770,37 +5769,37 @@
       </c>
       <c r="B36" s="11">
         <f t="shared" si="2"/>
-        <v>11.476039999999999</v>
+        <v>11.445999</v>
       </c>
       <c r="C36" s="2">
-        <v>11.721849000000001</v>
+        <v>11.824131</v>
       </c>
       <c r="D36" s="2">
-        <v>11.476039999999999</v>
+        <v>12.001037999999999</v>
       </c>
       <c r="E36" s="2">
-        <v>11.632918999999999</v>
+        <v>11.661053000000001</v>
       </c>
       <c r="F36" s="2">
-        <v>11.938095000000001</v>
+        <v>11.713028</v>
       </c>
       <c r="G36" s="2">
-        <v>11.685133</v>
+        <v>12.111902000000001</v>
       </c>
       <c r="H36" s="2">
-        <v>11.910914999999999</v>
+        <v>11.445999</v>
       </c>
       <c r="I36" s="2">
-        <v>11.973143</v>
+        <v>11.765003</v>
       </c>
       <c r="J36" s="2">
-        <v>11.887074</v>
+        <v>11.896133000000001</v>
       </c>
       <c r="K36" s="2">
-        <v>11.893034</v>
+        <v>11.818171</v>
       </c>
       <c r="L36" s="3">
-        <v>11.721849000000001</v>
+        <v>11.824131</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -5810,37 +5809,37 @@
       </c>
       <c r="B37" s="11">
         <f t="shared" si="2"/>
-        <v>17.230988</v>
+        <v>17.199038999999999</v>
       </c>
       <c r="C37" s="2">
-        <v>17.556906000000001</v>
+        <v>17.199038999999999</v>
       </c>
       <c r="D37" s="2">
-        <v>17.756224</v>
+        <v>17.325163</v>
       </c>
       <c r="E37" s="2">
-        <v>17.811060000000001</v>
+        <v>17.627953999999999</v>
       </c>
       <c r="F37" s="2">
-        <v>17.314910999999999</v>
+        <v>17.374039</v>
       </c>
       <c r="G37" s="2">
-        <v>17.647981999999999</v>
+        <v>17.452954999999999</v>
       </c>
       <c r="H37" s="2">
-        <v>17.678975999999999</v>
+        <v>17.637968000000001</v>
       </c>
       <c r="I37" s="2">
-        <v>17.243862</v>
+        <v>17.746925000000001</v>
       </c>
       <c r="J37" s="2">
-        <v>17.410993999999999</v>
+        <v>17.256975000000001</v>
       </c>
       <c r="K37" s="2">
-        <v>17.230988</v>
+        <v>17.609119</v>
       </c>
       <c r="L37" s="3">
-        <v>17.556906000000001</v>
+        <v>17.199038999999999</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -5850,37 +5849,37 @@
       </c>
       <c r="B38" s="11">
         <f t="shared" si="2"/>
-        <v>27.86994</v>
+        <v>28.445004999999998</v>
       </c>
       <c r="C38" s="2">
-        <v>28.940916000000001</v>
+        <v>28.825044999999999</v>
       </c>
       <c r="D38" s="2">
-        <v>28.656006000000001</v>
+        <v>28.926134000000001</v>
       </c>
       <c r="E38" s="2">
-        <v>28.594971000000001</v>
+        <v>28.678179</v>
       </c>
       <c r="F38" s="2">
-        <v>28.747796999999998</v>
+        <v>28.951167999999999</v>
       </c>
       <c r="G38" s="2">
-        <v>28.738976000000001</v>
+        <v>29.119015000000001</v>
       </c>
       <c r="H38" s="2">
-        <v>28.825997999999998</v>
+        <v>28.445004999999998</v>
       </c>
       <c r="I38" s="2">
-        <v>29.009104000000001</v>
+        <v>28.609991000000001</v>
       </c>
       <c r="J38" s="2">
-        <v>27.86994</v>
+        <v>28.861999999999998</v>
       </c>
       <c r="K38" s="2">
-        <v>28.739929</v>
+        <v>28.650044999999999</v>
       </c>
       <c r="L38" s="3">
-        <v>28.940916000000001</v>
+        <v>28.825044999999999</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -5890,37 +5889,37 @@
       </c>
       <c r="B39" s="11">
         <f t="shared" si="2"/>
-        <v>50.349950999999997</v>
+        <v>50.302028999999997</v>
       </c>
       <c r="C39" s="2">
-        <v>51.578999000000003</v>
+        <v>51.399946</v>
       </c>
       <c r="D39" s="2">
-        <v>50.349950999999997</v>
+        <v>51.562071000000003</v>
       </c>
       <c r="E39" s="2">
-        <v>50.757885000000002</v>
+        <v>50.583838999999998</v>
       </c>
       <c r="F39" s="2">
-        <v>51.772117999999999</v>
+        <v>51.509856999999997</v>
       </c>
       <c r="G39" s="2">
-        <v>51.390886000000002</v>
+        <v>51.836013999999999</v>
       </c>
       <c r="H39" s="2">
-        <v>51.386118000000003</v>
+        <v>50.302028999999997</v>
       </c>
       <c r="I39" s="2">
-        <v>51.832914000000002</v>
+        <v>50.807952999999998</v>
       </c>
       <c r="J39" s="2">
-        <v>50.393104999999998</v>
+        <v>51.527023</v>
       </c>
       <c r="K39" s="2">
-        <v>51.844119999999997</v>
+        <v>50.802945999999999</v>
       </c>
       <c r="L39" s="3">
-        <v>51.578999000000003</v>
+        <v>51.399946</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -5930,37 +5929,37 @@
       </c>
       <c r="B40" s="11">
         <f t="shared" si="2"/>
-        <v>95.088959000000003</v>
+        <v>95.841885000000005</v>
       </c>
       <c r="C40" s="2">
-        <v>95.429896999999997</v>
+        <v>95.847130000000007</v>
       </c>
       <c r="D40" s="2">
-        <v>95.911026000000007</v>
+        <v>95.907211000000004</v>
       </c>
       <c r="E40" s="2">
-        <v>96.083878999999996</v>
+        <v>96.239805000000004</v>
       </c>
       <c r="F40" s="2">
-        <v>95.607996</v>
+        <v>96.745013999999998</v>
       </c>
       <c r="G40" s="2">
-        <v>96.688032000000007</v>
+        <v>96.891165000000001</v>
       </c>
       <c r="H40" s="2">
-        <v>96.544027</v>
+        <v>96.646786000000006</v>
       </c>
       <c r="I40" s="2">
-        <v>96.430063000000004</v>
+        <v>97.111940000000004</v>
       </c>
       <c r="J40" s="2">
-        <v>95.088959000000003</v>
+        <v>95.841885000000005</v>
       </c>
       <c r="K40" s="2">
-        <v>96.726894000000001</v>
+        <v>96.603870000000001</v>
       </c>
       <c r="L40" s="3">
-        <v>95.429896999999997</v>
+        <v>95.847130000000007</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -5970,37 +5969,37 @@
       </c>
       <c r="B41" s="11">
         <f t="shared" si="2"/>
-        <v>199.95784800000001</v>
+        <v>184.48996500000001</v>
       </c>
       <c r="C41" s="2">
-        <v>199.99408700000001</v>
+        <v>185.832977</v>
       </c>
       <c r="D41" s="2">
-        <v>200.51884699999999</v>
+        <v>185.34302700000001</v>
       </c>
       <c r="E41" s="2">
-        <v>199.96309299999999</v>
+        <v>184.48996500000001</v>
       </c>
       <c r="F41" s="2">
-        <v>200.52194600000001</v>
+        <v>186.10692</v>
       </c>
       <c r="G41" s="2">
-        <v>200.07109600000001</v>
+        <v>186.78212199999999</v>
       </c>
       <c r="H41" s="2">
-        <v>200.18386799999999</v>
+        <v>184.83805699999999</v>
       </c>
       <c r="I41" s="2">
-        <v>200.134039</v>
+        <v>185.736895</v>
       </c>
       <c r="J41" s="2">
-        <v>199.95784800000001</v>
+        <v>185.61291700000001</v>
       </c>
       <c r="K41" s="2">
-        <v>200.154066</v>
+        <v>186.00392299999999</v>
       </c>
       <c r="L41" s="3">
-        <v>199.99408700000001</v>
+        <v>185.832977</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -6010,37 +6009,37 @@
       </c>
       <c r="B42" s="11">
         <f t="shared" si="2"/>
-        <v>292.49501199999997</v>
+        <v>291.89586600000001</v>
       </c>
       <c r="C42" s="2">
-        <v>292.648077</v>
+        <v>292.69695300000001</v>
       </c>
       <c r="D42" s="2">
-        <v>293.073893</v>
+        <v>293.48802599999999</v>
       </c>
       <c r="E42" s="2">
-        <v>293.02001000000001</v>
+        <v>293.27392600000002</v>
       </c>
       <c r="F42" s="2">
-        <v>293.05315000000002</v>
+        <v>293.25509099999999</v>
       </c>
       <c r="G42" s="2">
-        <v>292.84191099999998</v>
+        <v>293.78509500000001</v>
       </c>
       <c r="H42" s="2">
-        <v>292.94681500000002</v>
+        <v>291.89586600000001</v>
       </c>
       <c r="I42" s="2">
-        <v>292.49501199999997</v>
+        <v>293.75600800000001</v>
       </c>
       <c r="J42" s="2">
-        <v>292.93489499999998</v>
+        <v>292.889118</v>
       </c>
       <c r="K42" s="2">
-        <v>292.52290699999998</v>
+        <v>292.904854</v>
       </c>
       <c r="L42" s="3">
-        <v>292.648077</v>
+        <v>292.69695300000001</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -6050,37 +6049,37 @@
       </c>
       <c r="B43" s="11">
         <f t="shared" si="2"/>
-        <v>478.399992</v>
+        <v>478.07908099999997</v>
       </c>
       <c r="C43" s="2">
-        <v>478.786945</v>
+        <v>479.19607200000002</v>
       </c>
       <c r="D43" s="2">
-        <v>479.67791599999998</v>
+        <v>480.175972</v>
       </c>
       <c r="E43" s="2">
-        <v>478.76810999999998</v>
+        <v>484.67207000000002</v>
       </c>
       <c r="F43" s="2">
-        <v>479.19201900000002</v>
+        <v>480.17287299999998</v>
       </c>
       <c r="G43" s="2">
-        <v>478.83200599999998</v>
+        <v>480.907917</v>
       </c>
       <c r="H43" s="2">
-        <v>479.50983000000002</v>
+        <v>478.07908099999997</v>
       </c>
       <c r="I43" s="2">
-        <v>478.399992</v>
+        <v>480.50689699999998</v>
       </c>
       <c r="J43" s="2">
-        <v>478.53803599999998</v>
+        <v>479.71510899999998</v>
       </c>
       <c r="K43" s="2">
-        <v>479.09116699999998</v>
+        <v>480.078936</v>
       </c>
       <c r="L43" s="3">
-        <v>478.786945</v>
+        <v>479.19607200000002</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="19" thickBot="1" x14ac:dyDescent="0.3">
@@ -6090,37 +6089,37 @@
       </c>
       <c r="B44" s="12">
         <f t="shared" si="2"/>
-        <v>871.972084</v>
+        <v>871.24800700000003</v>
       </c>
       <c r="C44" s="5">
-        <v>872.90287000000001</v>
+        <v>873.99601900000005</v>
       </c>
       <c r="D44" s="5">
-        <v>873.55709100000001</v>
+        <v>874.33886500000006</v>
       </c>
       <c r="E44" s="5">
-        <v>873.11601599999995</v>
+        <v>874.80902700000001</v>
       </c>
       <c r="F44" s="5">
-        <v>873.32391700000005</v>
+        <v>875.11706400000003</v>
       </c>
       <c r="G44" s="5">
-        <v>872.63894100000005</v>
+        <v>875.98896000000002</v>
       </c>
       <c r="H44" s="5">
-        <v>873.46196199999997</v>
+        <v>871.24800700000003</v>
       </c>
       <c r="I44" s="5">
-        <v>872.19810500000006</v>
+        <v>874.97997299999997</v>
       </c>
       <c r="J44" s="5">
-        <v>871.972084</v>
+        <v>872.66087500000003</v>
       </c>
       <c r="K44" s="5">
-        <v>872.43199300000003</v>
+        <v>874.73607100000004</v>
       </c>
       <c r="L44" s="6">
-        <v>872.90287000000001</v>
+        <v>873.99601900000005</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="19" thickBot="1" x14ac:dyDescent="0.3">
@@ -6172,37 +6171,37 @@
       </c>
       <c r="B48" s="11">
         <f>MIN(C48:L48)</f>
-        <v>2.2308829999999999</v>
+        <v>2.5570390000000001</v>
       </c>
       <c r="C48" s="2">
-        <v>2.337933</v>
+        <v>2.9530530000000002</v>
       </c>
       <c r="D48" s="2">
-        <v>2.2499560000000001</v>
+        <v>2.6299950000000001</v>
       </c>
       <c r="E48" s="2">
-        <v>2.2308829999999999</v>
+        <v>2.5990009999999999</v>
       </c>
       <c r="F48" s="2">
-        <v>2.3868079999999998</v>
+        <v>2.6760100000000002</v>
       </c>
       <c r="G48" s="2">
-        <v>2.3221970000000001</v>
+        <v>2.5649069999999998</v>
       </c>
       <c r="H48" s="2">
-        <v>2.3250579999999998</v>
+        <v>2.7408600000000001</v>
       </c>
       <c r="I48" s="2">
-        <v>2.264977</v>
+        <v>2.6748180000000001</v>
       </c>
       <c r="J48" s="2">
-        <v>2.2890570000000001</v>
+        <v>2.5570390000000001</v>
       </c>
       <c r="K48" s="2">
-        <v>2.378225</v>
+        <v>2.6268959999999999</v>
       </c>
       <c r="L48" s="3">
-        <v>2.337933</v>
+        <v>2.9530530000000002</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
@@ -6212,37 +6211,37 @@
       </c>
       <c r="B49" s="11">
         <f t="shared" ref="B49:B67" si="4">MIN(C49:L49)</f>
-        <v>2.2170540000000001</v>
+        <v>2.5770659999999999</v>
       </c>
       <c r="C49" s="2">
-        <v>2.3489</v>
+        <v>2.622843</v>
       </c>
       <c r="D49" s="2">
-        <v>2.225876</v>
+        <v>2.7360920000000002</v>
       </c>
       <c r="E49" s="2">
-        <v>2.2170540000000001</v>
+        <v>2.8960699999999999</v>
       </c>
       <c r="F49" s="2">
-        <v>2.4650099999999999</v>
+        <v>2.728939</v>
       </c>
       <c r="G49" s="2">
-        <v>2.3910999999999998</v>
+        <v>2.6090149999999999</v>
       </c>
       <c r="H49" s="2">
-        <v>2.326012</v>
+        <v>2.6819709999999999</v>
       </c>
       <c r="I49" s="2">
-        <v>2.338171</v>
+        <v>2.9089450000000001</v>
       </c>
       <c r="J49" s="2">
-        <v>2.4189949999999998</v>
+        <v>2.5770659999999999</v>
       </c>
       <c r="K49" s="2">
-        <v>2.3357869999999998</v>
+        <v>2.7379989999999998</v>
       </c>
       <c r="L49" s="3">
-        <v>2.3489</v>
+        <v>2.622843</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
@@ -6252,37 +6251,37 @@
       </c>
       <c r="B50" s="11">
         <f t="shared" si="4"/>
-        <v>4.3449400000000002</v>
+        <v>4.1530129999999996</v>
       </c>
       <c r="C50" s="2">
-        <v>4.7719480000000001</v>
+        <v>4.3668750000000003</v>
       </c>
       <c r="D50" s="2">
-        <v>4.5540330000000004</v>
+        <v>4.1780470000000003</v>
       </c>
       <c r="E50" s="2">
-        <v>4.5099260000000001</v>
+        <v>4.2829509999999997</v>
       </c>
       <c r="F50" s="2">
-        <v>4.6718120000000001</v>
+        <v>4.4369699999999996</v>
       </c>
       <c r="G50" s="2">
-        <v>4.6050550000000001</v>
+        <v>4.1530129999999996</v>
       </c>
       <c r="H50" s="2">
-        <v>4.7509670000000002</v>
+        <v>4.6358110000000003</v>
       </c>
       <c r="I50" s="2">
-        <v>4.3449400000000002</v>
+        <v>4.3761729999999996</v>
       </c>
       <c r="J50" s="2">
-        <v>4.637003</v>
+        <v>4.4081210000000004</v>
       </c>
       <c r="K50" s="2">
-        <v>4.7819609999999999</v>
+        <v>4.4438839999999997</v>
       </c>
       <c r="L50" s="3">
-        <v>4.7719480000000001</v>
+        <v>4.3668750000000003</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
@@ -6292,37 +6291,37 @@
       </c>
       <c r="B51" s="11">
         <f t="shared" si="4"/>
-        <v>3.9970870000000001</v>
+        <v>4.1241649999999996</v>
       </c>
       <c r="C51" s="2">
-        <v>4.4269559999999997</v>
+        <v>4.3148989999999996</v>
       </c>
       <c r="D51" s="2">
-        <v>4.3540000000000001</v>
+        <v>4.4260029999999997</v>
       </c>
       <c r="E51" s="2">
-        <v>4.5061109999999998</v>
+        <v>4.3578150000000004</v>
       </c>
       <c r="F51" s="2">
-        <v>4.6517850000000003</v>
+        <v>4.3411249999999999</v>
       </c>
       <c r="G51" s="2">
-        <v>4.3671129999999998</v>
+        <v>4.1241649999999996</v>
       </c>
       <c r="H51" s="2">
-        <v>4.1449069999999999</v>
+        <v>4.47011</v>
       </c>
       <c r="I51" s="2">
-        <v>3.9970870000000001</v>
+        <v>4.2350289999999999</v>
       </c>
       <c r="J51" s="2">
-        <v>4.1148660000000001</v>
+        <v>4.1329859999999998</v>
       </c>
       <c r="K51" s="2">
-        <v>4.7731399999999997</v>
+        <v>4.4338699999999998</v>
       </c>
       <c r="L51" s="3">
-        <v>4.4269559999999997</v>
+        <v>4.3148989999999996</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
@@ -6332,37 +6331,37 @@
       </c>
       <c r="B52" s="11">
         <f t="shared" si="4"/>
-        <v>4.0709970000000002</v>
+        <v>4.1871070000000001</v>
       </c>
       <c r="C52" s="2">
-        <v>4.1511060000000004</v>
+        <v>4.3458940000000004</v>
       </c>
       <c r="D52" s="2">
-        <v>4.3148989999999996</v>
+        <v>4.3010710000000003</v>
       </c>
       <c r="E52" s="2">
-        <v>4.5239929999999999</v>
+        <v>4.3399330000000003</v>
       </c>
       <c r="F52" s="2">
-        <v>4.8019889999999998</v>
+        <v>4.6389100000000001</v>
       </c>
       <c r="G52" s="2">
-        <v>4.7140120000000003</v>
+        <v>4.1871070000000001</v>
       </c>
       <c r="H52" s="2">
-        <v>4.4541360000000001</v>
+        <v>4.5568939999999998</v>
       </c>
       <c r="I52" s="2">
-        <v>4.0841099999999999</v>
+        <v>4.4400690000000003</v>
       </c>
       <c r="J52" s="2">
-        <v>4.0709970000000002</v>
+        <v>4.3430330000000001</v>
       </c>
       <c r="K52" s="2">
-        <v>4.5259</v>
+        <v>4.2750839999999997</v>
       </c>
       <c r="L52" s="3">
-        <v>4.1511060000000004</v>
+        <v>4.3458940000000004</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
@@ -6372,37 +6371,37 @@
       </c>
       <c r="B53" s="11">
         <f t="shared" si="4"/>
-        <v>4.3129920000000004</v>
+        <v>4.2920109999999996</v>
       </c>
       <c r="C53" s="2">
-        <v>4.329205</v>
+        <v>4.4350620000000003</v>
       </c>
       <c r="D53" s="2">
-        <v>4.7349930000000002</v>
+        <v>4.4620040000000003</v>
       </c>
       <c r="E53" s="2">
-        <v>4.3129920000000004</v>
+        <v>4.7028059999999998</v>
       </c>
       <c r="F53" s="2">
-        <v>4.7800539999999998</v>
+        <v>4.503012</v>
       </c>
       <c r="G53" s="2">
-        <v>4.7729020000000002</v>
+        <v>4.2920109999999996</v>
       </c>
       <c r="H53" s="2">
-        <v>4.6179290000000002</v>
+        <v>4.5218470000000002</v>
       </c>
       <c r="I53" s="2">
-        <v>4.4050219999999998</v>
+        <v>4.5018200000000004</v>
       </c>
       <c r="J53" s="2">
-        <v>4.777908</v>
+        <v>4.3571</v>
       </c>
       <c r="K53" s="2">
-        <v>4.9681660000000001</v>
+        <v>4.3690199999999999</v>
       </c>
       <c r="L53" s="3">
-        <v>4.329205</v>
+        <v>4.4350620000000003</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
@@ -6412,37 +6411,37 @@
       </c>
       <c r="B54" s="11">
         <f t="shared" si="4"/>
-        <v>4.4019219999999999</v>
+        <v>4.5411590000000004</v>
       </c>
       <c r="C54" s="2">
-        <v>4.5568939999999998</v>
+        <v>4.8091410000000003</v>
       </c>
       <c r="D54" s="2">
-        <v>4.6670439999999997</v>
+        <v>4.6770569999999996</v>
       </c>
       <c r="E54" s="2">
-        <v>4.6498780000000002</v>
+        <v>4.5518879999999999</v>
       </c>
       <c r="F54" s="2">
-        <v>4.7428610000000004</v>
+        <v>4.7669410000000001</v>
       </c>
       <c r="G54" s="2">
-        <v>4.8069949999999997</v>
+        <v>4.5411590000000004</v>
       </c>
       <c r="H54" s="2">
-        <v>4.4770240000000001</v>
+        <v>4.6861170000000003</v>
       </c>
       <c r="I54" s="2">
-        <v>4.4169429999999998</v>
+        <v>4.5719149999999997</v>
       </c>
       <c r="J54" s="2">
-        <v>4.4019219999999999</v>
+        <v>4.8398969999999997</v>
       </c>
       <c r="K54" s="2">
-        <v>4.9121379999999997</v>
+        <v>4.5781140000000002</v>
       </c>
       <c r="L54" s="3">
-        <v>4.5568939999999998</v>
+        <v>4.8091410000000003</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
@@ -6452,37 +6451,37 @@
       </c>
       <c r="B55" s="11">
         <f t="shared" si="4"/>
-        <v>5.2280430000000004</v>
+        <v>5.3110119999999998</v>
       </c>
       <c r="C55" s="2">
-        <v>5.6529049999999996</v>
+        <v>5.3110119999999998</v>
       </c>
       <c r="D55" s="2">
-        <v>5.5110450000000002</v>
+        <v>5.4838659999999999</v>
       </c>
       <c r="E55" s="2">
-        <v>5.6519510000000004</v>
+        <v>5.3210259999999998</v>
       </c>
       <c r="F55" s="2">
-        <v>5.7029719999999999</v>
+        <v>5.6500430000000001</v>
       </c>
       <c r="G55" s="2">
-        <v>5.4650309999999998</v>
+        <v>5.4211619999999998</v>
       </c>
       <c r="H55" s="2">
-        <v>5.3639409999999996</v>
+        <v>5.5830479999999998</v>
       </c>
       <c r="I55" s="2">
-        <v>5.2280430000000004</v>
+        <v>5.4049490000000002</v>
       </c>
       <c r="J55" s="2">
-        <v>5.2340030000000004</v>
+        <v>5.5789949999999999</v>
       </c>
       <c r="K55" s="2">
-        <v>5.4190160000000001</v>
+        <v>5.3827759999999998</v>
       </c>
       <c r="L55" s="3">
-        <v>5.6529049999999996</v>
+        <v>5.3110119999999998</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
@@ -6492,37 +6491,37 @@
       </c>
       <c r="B56" s="11">
         <f t="shared" si="4"/>
-        <v>6.5460209999999996</v>
+        <v>6.494999</v>
       </c>
       <c r="C56" s="2">
-        <v>6.6831110000000002</v>
+        <v>6.8440440000000002</v>
       </c>
       <c r="D56" s="2">
-        <v>6.746054</v>
+        <v>6.998062</v>
       </c>
       <c r="E56" s="2">
-        <v>6.8349840000000004</v>
+        <v>6.7648890000000002</v>
       </c>
       <c r="F56" s="2">
-        <v>6.9451330000000002</v>
+        <v>6.8230630000000003</v>
       </c>
       <c r="G56" s="2">
-        <v>7.019997</v>
+        <v>6.8409440000000004</v>
       </c>
       <c r="H56" s="2">
-        <v>6.5460209999999996</v>
+        <v>6.7260270000000002</v>
       </c>
       <c r="I56" s="2">
-        <v>6.6440109999999999</v>
+        <v>6.7307949999999996</v>
       </c>
       <c r="J56" s="2">
-        <v>6.585121</v>
+        <v>6.494999</v>
       </c>
       <c r="K56" s="2">
-        <v>6.7441459999999998</v>
+        <v>6.7958829999999999</v>
       </c>
       <c r="L56" s="3">
-        <v>6.6831110000000002</v>
+        <v>6.8440440000000002</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
@@ -6532,37 +6531,37 @@
       </c>
       <c r="B57" s="11">
         <f t="shared" si="4"/>
-        <v>9.0379710000000006</v>
+        <v>8.9209080000000007</v>
       </c>
       <c r="C57" s="2">
-        <v>9.6111299999999993</v>
+        <v>9.4499589999999998</v>
       </c>
       <c r="D57" s="2">
-        <v>9.4540120000000005</v>
+        <v>8.9209080000000007</v>
       </c>
       <c r="E57" s="2">
-        <v>9.1450209999999998</v>
+        <v>9.2558860000000003</v>
       </c>
       <c r="F57" s="2">
-        <v>9.2880730000000007</v>
+        <v>9.2811579999999996</v>
       </c>
       <c r="G57" s="2">
-        <v>9.3431470000000001</v>
+        <v>9.1090199999999992</v>
       </c>
       <c r="H57" s="2">
-        <v>9.5748899999999999</v>
+        <v>9.5319749999999992</v>
       </c>
       <c r="I57" s="2">
-        <v>9.0379710000000006</v>
+        <v>9.2849730000000008</v>
       </c>
       <c r="J57" s="2">
-        <v>9.5160009999999993</v>
+        <v>9.2918869999999991</v>
       </c>
       <c r="K57" s="2">
-        <v>9.3338490000000007</v>
+        <v>9.4580649999999995</v>
       </c>
       <c r="L57" s="3">
-        <v>9.6111299999999993</v>
+        <v>9.4499589999999998</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
@@ -6572,37 +6571,37 @@
       </c>
       <c r="B58" s="11">
         <f t="shared" si="4"/>
-        <v>14.672041</v>
+        <v>14.677047999999999</v>
       </c>
       <c r="C58" s="2">
-        <v>14.770030999999999</v>
+        <v>14.768124</v>
       </c>
       <c r="D58" s="2">
-        <v>14.672041</v>
+        <v>14.677047999999999</v>
       </c>
       <c r="E58" s="2">
-        <v>14.801978999999999</v>
+        <v>14.781952</v>
       </c>
       <c r="F58" s="2">
-        <v>14.711857</v>
+        <v>14.715909999999999</v>
       </c>
       <c r="G58" s="2">
-        <v>14.724970000000001</v>
+        <v>14.693021999999999</v>
       </c>
       <c r="H58" s="2">
-        <v>14.840840999999999</v>
+        <v>14.83798</v>
       </c>
       <c r="I58" s="2">
-        <v>14.732122</v>
+        <v>14.757872000000001</v>
       </c>
       <c r="J58" s="2">
-        <v>14.769076999999999</v>
+        <v>14.738083</v>
       </c>
       <c r="K58" s="2">
-        <v>14.775990999999999</v>
+        <v>14.719963</v>
       </c>
       <c r="L58" s="3">
-        <v>14.770030999999999</v>
+        <v>14.768124</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
@@ -6612,37 +6611,37 @@
       </c>
       <c r="B59" s="11">
         <f t="shared" si="4"/>
-        <v>46.700001</v>
+        <v>46.594143000000003</v>
       </c>
       <c r="C59" s="2">
-        <v>46.819924999999998</v>
+        <v>46.904086999999997</v>
       </c>
       <c r="D59" s="2">
-        <v>46.994208999999998</v>
+        <v>46.729087999999997</v>
       </c>
       <c r="E59" s="2">
-        <v>46.782969999999999</v>
+        <v>47.281027000000002</v>
       </c>
       <c r="F59" s="2">
-        <v>46.771048999999998</v>
+        <v>46.981811999999998</v>
       </c>
       <c r="G59" s="2">
-        <v>46.854973000000001</v>
+        <v>46.594143000000003</v>
       </c>
       <c r="H59" s="2">
-        <v>46.973944000000003</v>
+        <v>47.017097</v>
       </c>
       <c r="I59" s="2">
-        <v>46.711922000000001</v>
+        <v>46.972036000000003</v>
       </c>
       <c r="J59" s="2">
-        <v>46.700001</v>
+        <v>47.106980999999998</v>
       </c>
       <c r="K59" s="2">
-        <v>46.709060999999998</v>
+        <v>46.773910999999998</v>
       </c>
       <c r="L59" s="3">
-        <v>46.819924999999998</v>
+        <v>46.904086999999997</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -6652,37 +6651,37 @@
       </c>
       <c r="B60" s="11">
         <f t="shared" si="4"/>
-        <v>49.597979000000002</v>
+        <v>49.566983999999998</v>
       </c>
       <c r="C60" s="2">
-        <v>49.845934</v>
+        <v>49.84498</v>
       </c>
       <c r="D60" s="2">
-        <v>50.075054000000002</v>
+        <v>49.708128000000002</v>
       </c>
       <c r="E60" s="2">
-        <v>49.823045999999998</v>
+        <v>50.125836999999997</v>
       </c>
       <c r="F60" s="2">
-        <v>49.968958000000001</v>
+        <v>49.974203000000003</v>
       </c>
       <c r="G60" s="2">
-        <v>49.962997000000001</v>
+        <v>49.566983999999998</v>
       </c>
       <c r="H60" s="2">
-        <v>50.853968000000002</v>
+        <v>49.962043999999999</v>
       </c>
       <c r="I60" s="2">
-        <v>49.597979000000002</v>
+        <v>49.856186000000001</v>
       </c>
       <c r="J60" s="2">
-        <v>49.638987</v>
+        <v>50.018071999999997</v>
       </c>
       <c r="K60" s="2">
-        <v>49.635171999999997</v>
+        <v>49.886941999999998</v>
       </c>
       <c r="L60" s="3">
-        <v>49.845934</v>
+        <v>49.84498</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
@@ -6692,37 +6691,37 @@
       </c>
       <c r="B61" s="11">
         <f t="shared" si="4"/>
-        <v>64.966916999999995</v>
+        <v>64.885855000000006</v>
       </c>
       <c r="C61" s="2">
-        <v>65.190077000000002</v>
+        <v>65.072059999999993</v>
       </c>
       <c r="D61" s="2">
-        <v>65.537930000000003</v>
+        <v>65.088033999999993</v>
       </c>
       <c r="E61" s="2">
-        <v>65.049171000000001</v>
+        <v>65.461873999999995</v>
       </c>
       <c r="F61" s="2">
-        <v>65.184116000000003</v>
+        <v>65.404892000000004</v>
       </c>
       <c r="G61" s="2">
-        <v>65.327883</v>
+        <v>64.885855000000006</v>
       </c>
       <c r="H61" s="2">
-        <v>65.196037000000004</v>
+        <v>65.526961999999997</v>
       </c>
       <c r="I61" s="2">
-        <v>64.966916999999995</v>
+        <v>65.335035000000005</v>
       </c>
       <c r="J61" s="2">
-        <v>65.040111999999993</v>
+        <v>65.411090999999999</v>
       </c>
       <c r="K61" s="2">
+        <v>65.284013999999999</v>
+      </c>
+      <c r="L61" s="3">
         <v>65.072059999999993</v>
-      </c>
-      <c r="L61" s="3">
-        <v>65.190077000000002</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
@@ -6732,37 +6731,37 @@
       </c>
       <c r="B62" s="11">
         <f t="shared" si="4"/>
-        <v>95.782042000000004</v>
+        <v>95.501900000000006</v>
       </c>
       <c r="C62" s="2">
-        <v>96.009016000000003</v>
+        <v>95.946073999999996</v>
       </c>
       <c r="D62" s="2">
-        <v>96.173047999999994</v>
+        <v>95.880032</v>
       </c>
       <c r="E62" s="2">
-        <v>96.024035999999995</v>
+        <v>96.211910000000003</v>
       </c>
       <c r="F62" s="2">
-        <v>96.022844000000006</v>
+        <v>97.254037999999994</v>
       </c>
       <c r="G62" s="2">
-        <v>96.054077000000007</v>
+        <v>95.501900000000006</v>
       </c>
       <c r="H62" s="2">
-        <v>95.782042000000004</v>
+        <v>96.141099999999994</v>
       </c>
       <c r="I62" s="2">
-        <v>95.783949000000007</v>
+        <v>96.018075999999994</v>
       </c>
       <c r="J62" s="2">
-        <v>95.824003000000005</v>
+        <v>96.052885000000003</v>
       </c>
       <c r="K62" s="2">
-        <v>95.813035999999997</v>
+        <v>95.932961000000006</v>
       </c>
       <c r="L62" s="3">
-        <v>96.009016000000003</v>
+        <v>95.946073999999996</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
@@ -6772,37 +6771,37 @@
       </c>
       <c r="B63" s="11">
         <f t="shared" si="4"/>
-        <v>157.37891200000001</v>
+        <v>157.09710100000001</v>
       </c>
       <c r="C63" s="2">
-        <v>157.45902100000001</v>
+        <v>157.43994699999999</v>
       </c>
       <c r="D63" s="2">
-        <v>157.78994599999999</v>
+        <v>157.31811500000001</v>
       </c>
       <c r="E63" s="2">
-        <v>157.515049</v>
+        <v>157.72295</v>
       </c>
       <c r="F63" s="2">
-        <v>157.406092</v>
+        <v>157.430172</v>
       </c>
       <c r="G63" s="2">
-        <v>157.62519800000001</v>
+        <v>157.09710100000001</v>
       </c>
       <c r="H63" s="2">
-        <v>157.37891200000001</v>
+        <v>157.74488400000001</v>
       </c>
       <c r="I63" s="2">
-        <v>157.41205199999999</v>
+        <v>157.79686000000001</v>
       </c>
       <c r="J63" s="2">
-        <v>157.46402699999999</v>
+        <v>157.562971</v>
       </c>
       <c r="K63" s="2">
-        <v>157.42301900000001</v>
+        <v>157.591105</v>
       </c>
       <c r="L63" s="3">
-        <v>157.45902100000001</v>
+        <v>157.43994699999999</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
@@ -6812,37 +6811,37 @@
       </c>
       <c r="B64" s="11">
         <f t="shared" si="4"/>
-        <v>204.21004300000001</v>
+        <v>203.612089</v>
       </c>
       <c r="C64" s="2">
-        <v>204.498053</v>
+        <v>204.29491999999999</v>
       </c>
       <c r="D64" s="2">
-        <v>204.69594000000001</v>
+        <v>204.02002300000001</v>
       </c>
       <c r="E64" s="2">
-        <v>204.28013799999999</v>
+        <v>204.288006</v>
       </c>
       <c r="F64" s="2">
-        <v>204.288006</v>
+        <v>204.21195</v>
       </c>
       <c r="G64" s="2">
-        <v>205.74307400000001</v>
+        <v>203.612089</v>
       </c>
       <c r="H64" s="2">
-        <v>204.32400699999999</v>
+        <v>204.60796400000001</v>
       </c>
       <c r="I64" s="2">
-        <v>204.25701100000001</v>
+        <v>204.45513700000001</v>
       </c>
       <c r="J64" s="2">
-        <v>204.27799200000001</v>
+        <v>204.329014</v>
       </c>
       <c r="K64" s="2">
-        <v>204.21004300000001</v>
+        <v>204.46801199999999</v>
       </c>
       <c r="L64" s="3">
-        <v>204.498053</v>
+        <v>204.29491999999999</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
@@ -6852,37 +6851,37 @@
       </c>
       <c r="B65" s="11">
         <f t="shared" si="4"/>
-        <v>298.393011</v>
+        <v>296.96393</v>
       </c>
       <c r="C65" s="2">
-        <v>299.05104599999999</v>
+        <v>298.26808</v>
       </c>
       <c r="D65" s="2">
-        <v>298.92492299999998</v>
+        <v>297.34778399999999</v>
       </c>
       <c r="E65" s="2">
-        <v>298.56109600000002</v>
+        <v>298.18296400000003</v>
       </c>
       <c r="F65" s="2">
-        <v>299.51095600000002</v>
+        <v>297.82509800000003</v>
       </c>
       <c r="G65" s="2">
-        <v>298.68602800000002</v>
+        <v>296.96393</v>
       </c>
       <c r="H65" s="2">
-        <v>298.51102800000001</v>
+        <v>298.30312700000002</v>
       </c>
       <c r="I65" s="2">
-        <v>298.393011</v>
+        <v>297.75190400000002</v>
       </c>
       <c r="J65" s="2">
-        <v>298.50602099999998</v>
+        <v>298.01416399999999</v>
       </c>
       <c r="K65" s="2">
-        <v>298.58207700000003</v>
+        <v>297.70994200000001</v>
       </c>
       <c r="L65" s="3">
-        <v>299.05104599999999</v>
+        <v>298.26808</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
@@ -6892,37 +6891,37 @@
       </c>
       <c r="B66" s="11">
         <f t="shared" si="4"/>
-        <v>486.27710300000001</v>
+        <v>484.58004</v>
       </c>
       <c r="C66" s="2">
-        <v>486.91797300000002</v>
+        <v>486.55605300000002</v>
       </c>
       <c r="D66" s="2">
-        <v>487.36381499999999</v>
+        <v>485.72087299999998</v>
       </c>
       <c r="E66" s="2">
-        <v>487.445831</v>
+        <v>485.82696900000002</v>
       </c>
       <c r="F66" s="2">
-        <v>486.27710300000001</v>
+        <v>485.13793900000002</v>
       </c>
       <c r="G66" s="2">
-        <v>487.12992700000001</v>
+        <v>484.58004</v>
       </c>
       <c r="H66" s="2">
-        <v>487.31088599999998</v>
+        <v>487.14995399999998</v>
       </c>
       <c r="I66" s="2">
-        <v>487.16592800000001</v>
+        <v>485.42690299999998</v>
       </c>
       <c r="J66" s="2">
-        <v>486.86981200000002</v>
+        <v>485.83292999999998</v>
       </c>
       <c r="K66" s="2">
-        <v>487.41984400000001</v>
+        <v>485.597849</v>
       </c>
       <c r="L66" s="3">
-        <v>486.91797300000002</v>
+        <v>486.55605300000002</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="19" thickBot="1" x14ac:dyDescent="0.3">
@@ -6932,37 +6931,37 @@
       </c>
       <c r="B67" s="12">
         <f t="shared" si="4"/>
-        <v>886.933088</v>
+        <v>883.67509800000005</v>
       </c>
       <c r="C67" s="5">
-        <v>886.96909000000005</v>
+        <v>886.10696800000005</v>
       </c>
       <c r="D67" s="5">
-        <v>887.48812699999996</v>
+        <v>884.36293599999999</v>
       </c>
       <c r="E67" s="5">
-        <v>887.28904699999998</v>
+        <v>884.99999000000003</v>
       </c>
       <c r="F67" s="5">
-        <v>886.933088</v>
+        <v>885.70094099999994</v>
       </c>
       <c r="G67" s="5">
-        <v>887.53199600000005</v>
+        <v>883.67509800000005</v>
       </c>
       <c r="H67" s="5">
-        <v>887.62593300000003</v>
+        <v>886.61289199999999</v>
       </c>
       <c r="I67" s="5">
-        <v>887.20583899999997</v>
+        <v>884.43398500000001</v>
       </c>
       <c r="J67" s="5">
-        <v>887.49599499999999</v>
+        <v>885.55598299999997</v>
       </c>
       <c r="K67" s="5">
-        <v>887.04800599999999</v>
+        <v>884.18698300000005</v>
       </c>
       <c r="L67" s="6">
-        <v>886.96909000000005</v>
+        <v>886.10696800000005</v>
       </c>
     </row>
   </sheetData>
@@ -6976,8 +6975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -7031,37 +7030,37 @@
       </c>
       <c r="B3" s="11">
         <f>MIN(C3:L3)</f>
-        <v>2.0208360000000001</v>
+        <v>2.2718910000000001</v>
       </c>
       <c r="C3" s="2">
-        <v>2.0561219999999998</v>
+        <v>2.275944</v>
       </c>
       <c r="D3" s="2">
-        <v>2.0329950000000001</v>
+        <v>2.3221970000000001</v>
       </c>
       <c r="E3" s="2">
-        <v>2.0461079999999998</v>
+        <v>2.3190979999999999</v>
       </c>
       <c r="F3" s="2">
-        <v>2.053976</v>
+        <v>2.328157</v>
       </c>
       <c r="G3" s="2">
-        <v>2.042055</v>
+        <v>2.3698809999999999</v>
       </c>
       <c r="H3" s="2">
-        <v>2.064943</v>
+        <v>2.310991</v>
       </c>
       <c r="I3" s="2">
-        <v>2.0220280000000002</v>
+        <v>2.3729800000000001</v>
       </c>
       <c r="J3" s="2">
-        <v>2.0208360000000001</v>
+        <v>2.3231510000000002</v>
       </c>
       <c r="K3" s="2">
-        <v>2.110004</v>
+        <v>2.2718910000000001</v>
       </c>
       <c r="L3" s="3">
-        <v>2.0561219999999998</v>
+        <v>2.275944</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -7071,37 +7070,37 @@
       </c>
       <c r="B4" s="11">
         <f t="shared" ref="B4:B22" si="0">MIN(C4:L4)</f>
-        <v>2.0380020000000001</v>
+        <v>2.2780900000000002</v>
       </c>
       <c r="C4" s="2">
-        <v>2.091885</v>
+        <v>2.2871489999999999</v>
       </c>
       <c r="D4" s="2">
-        <v>2.0651820000000001</v>
+        <v>2.280951</v>
       </c>
       <c r="E4" s="2">
+        <v>2.3958680000000001</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2.2780900000000002</v>
+      </c>
+      <c r="G4" s="2">
+        <v>2.5649069999999998</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2.372026</v>
+      </c>
+      <c r="I4" s="2">
+        <v>2.4631020000000001</v>
+      </c>
+      <c r="J4" s="2">
+        <v>2.2950170000000001</v>
+      </c>
+      <c r="K4" s="2">
+        <v>2.343893</v>
+      </c>
+      <c r="L4" s="3">
         <v>2.2871489999999999</v>
-      </c>
-      <c r="F4" s="2">
-        <v>2.0718570000000001</v>
-      </c>
-      <c r="G4" s="2">
-        <v>2.0580289999999999</v>
-      </c>
-      <c r="H4" s="2">
-        <v>2.0439620000000001</v>
-      </c>
-      <c r="I4" s="2">
-        <v>2.0470619999999999</v>
-      </c>
-      <c r="J4" s="2">
-        <v>2.0380020000000001</v>
-      </c>
-      <c r="K4" s="2">
-        <v>2.1240709999999998</v>
-      </c>
-      <c r="L4" s="3">
-        <v>2.091885</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -7111,37 +7110,37 @@
       </c>
       <c r="B5" s="11">
         <f t="shared" si="0"/>
-        <v>3.4677980000000002</v>
+        <v>3.3578869999999998</v>
       </c>
       <c r="C5" s="2">
-        <v>3.7031170000000002</v>
+        <v>3.3578869999999998</v>
       </c>
       <c r="D5" s="2">
-        <v>3.4730430000000001</v>
+        <v>3.5500530000000001</v>
       </c>
       <c r="E5" s="2">
-        <v>3.4677980000000002</v>
+        <v>3.6180020000000002</v>
       </c>
       <c r="F5" s="2">
-        <v>3.687859</v>
+        <v>3.388166</v>
       </c>
       <c r="G5" s="2">
-        <v>3.7629600000000001</v>
+        <v>3.5278800000000001</v>
       </c>
       <c r="H5" s="2">
-        <v>3.8700100000000002</v>
+        <v>3.5150049999999999</v>
       </c>
       <c r="I5" s="2">
-        <v>3.6571030000000002</v>
+        <v>3.5710329999999999</v>
       </c>
       <c r="J5" s="2">
-        <v>3.4968849999999998</v>
+        <v>3.6039349999999999</v>
       </c>
       <c r="K5" s="2">
-        <v>3.9920810000000002</v>
+        <v>3.5068990000000002</v>
       </c>
       <c r="L5" s="3">
-        <v>3.7031170000000002</v>
+        <v>3.3578869999999998</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -7151,37 +7150,37 @@
       </c>
       <c r="B6" s="11">
         <f t="shared" si="0"/>
-        <v>3.443956</v>
+        <v>3.4999850000000001</v>
       </c>
       <c r="C6" s="2">
-        <v>3.5119060000000002</v>
+        <v>3.5250189999999999</v>
       </c>
       <c r="D6" s="2">
+        <v>3.6141869999999998</v>
+      </c>
+      <c r="E6" s="2">
+        <v>3.7069320000000001</v>
+      </c>
+      <c r="F6" s="2">
         <v>3.4999850000000001</v>
       </c>
-      <c r="E6" s="2">
-        <v>3.8149359999999999</v>
-      </c>
-      <c r="F6" s="2">
-        <v>3.7178990000000001</v>
-      </c>
       <c r="G6" s="2">
-        <v>3.5858150000000002</v>
+        <v>3.5882000000000001</v>
       </c>
       <c r="H6" s="2">
-        <v>3.8909910000000001</v>
+        <v>3.5259719999999999</v>
       </c>
       <c r="I6" s="2">
-        <v>4.0209289999999998</v>
+        <v>3.5748479999999998</v>
       </c>
       <c r="J6" s="2">
-        <v>3.443956</v>
+        <v>3.659964</v>
       </c>
       <c r="K6" s="2">
-        <v>3.4828190000000001</v>
+        <v>3.5009380000000001</v>
       </c>
       <c r="L6" s="3">
-        <v>3.5119060000000002</v>
+        <v>3.5250189999999999</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -7191,37 +7190,37 @@
       </c>
       <c r="B7" s="11">
         <f t="shared" si="0"/>
-        <v>3.5159590000000001</v>
+        <v>3.3621789999999998</v>
       </c>
       <c r="C7" s="2">
-        <v>4.1170119999999999</v>
+        <v>3.3621789999999998</v>
       </c>
       <c r="D7" s="2">
-        <v>3.6230090000000001</v>
+        <v>3.5800930000000002</v>
       </c>
       <c r="E7" s="2">
-        <v>3.8080219999999998</v>
+        <v>3.6070350000000002</v>
       </c>
       <c r="F7" s="2">
-        <v>3.972054</v>
+        <v>3.4351349999999998</v>
       </c>
       <c r="G7" s="2">
-        <v>3.5159590000000001</v>
+        <v>3.632069</v>
       </c>
       <c r="H7" s="2">
-        <v>3.6280160000000001</v>
+        <v>3.5650729999999999</v>
       </c>
       <c r="I7" s="2">
-        <v>3.855944</v>
+        <v>3.5660270000000001</v>
       </c>
       <c r="J7" s="2">
-        <v>3.5619740000000002</v>
+        <v>3.5910609999999998</v>
       </c>
       <c r="K7" s="2">
-        <v>3.7090779999999999</v>
+        <v>3.816128</v>
       </c>
       <c r="L7" s="3">
-        <v>4.1170119999999999</v>
+        <v>3.3621789999999998</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -7231,37 +7230,37 @@
       </c>
       <c r="B8" s="11">
         <f t="shared" si="0"/>
-        <v>3.6351680000000002</v>
+        <v>3.4699439999999999</v>
       </c>
       <c r="C8" s="2">
-        <v>3.8039679999999998</v>
+        <v>3.4699439999999999</v>
       </c>
       <c r="D8" s="2">
-        <v>3.6351680000000002</v>
+        <v>3.7250519999999998</v>
       </c>
       <c r="E8" s="2">
-        <v>3.7291050000000001</v>
+        <v>3.5860539999999999</v>
       </c>
       <c r="F8" s="2">
-        <v>3.8900380000000001</v>
+        <v>3.5321709999999999</v>
       </c>
       <c r="G8" s="2">
-        <v>3.8859840000000001</v>
+        <v>3.654957</v>
       </c>
       <c r="H8" s="2">
-        <v>4.2870039999999996</v>
+        <v>3.7310120000000002</v>
       </c>
       <c r="I8" s="2">
-        <v>3.8509370000000001</v>
+        <v>3.6768909999999999</v>
       </c>
       <c r="J8" s="2">
-        <v>3.8089750000000002</v>
+        <v>3.7529469999999998</v>
       </c>
       <c r="K8" s="2">
-        <v>3.8528440000000002</v>
+        <v>3.7138460000000002</v>
       </c>
       <c r="L8" s="3">
-        <v>3.8039679999999998</v>
+        <v>3.4699439999999999</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -7271,37 +7270,37 @@
       </c>
       <c r="B9" s="11">
         <f t="shared" si="0"/>
-        <v>3.6661619999999999</v>
+        <v>3.6630630000000002</v>
       </c>
       <c r="C9" s="2">
-        <v>4.268885</v>
+        <v>3.7269589999999999</v>
       </c>
       <c r="D9" s="2">
-        <v>3.7851330000000001</v>
+        <v>3.9289000000000001</v>
       </c>
       <c r="E9" s="2">
-        <v>3.9110179999999999</v>
+        <v>3.8919450000000002</v>
       </c>
       <c r="F9" s="2">
-        <v>3.722191</v>
+        <v>3.6630630000000002</v>
       </c>
       <c r="G9" s="2">
-        <v>3.6661619999999999</v>
+        <v>3.7369729999999999</v>
       </c>
       <c r="H9" s="2">
-        <v>3.9467810000000001</v>
+        <v>3.805876</v>
       </c>
       <c r="I9" s="2">
-        <v>4.1728019999999999</v>
+        <v>3.7219519999999999</v>
       </c>
       <c r="J9" s="2">
-        <v>4.0071009999999996</v>
+        <v>3.8630960000000001</v>
       </c>
       <c r="K9" s="2">
-        <v>3.710985</v>
+        <v>3.8599969999999999</v>
       </c>
       <c r="L9" s="3">
-        <v>4.268885</v>
+        <v>3.7269589999999999</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -7311,37 +7310,37 @@
       </c>
       <c r="B10" s="11">
         <f t="shared" si="0"/>
-        <v>3.9479730000000002</v>
+        <v>4.0361880000000001</v>
       </c>
       <c r="C10" s="2">
-        <v>4.0230750000000004</v>
+        <v>4.0690900000000001</v>
       </c>
       <c r="D10" s="2">
-        <v>3.9479730000000002</v>
+        <v>4.269838</v>
       </c>
       <c r="E10" s="2">
-        <v>4.3089389999999996</v>
+        <v>4.218102</v>
       </c>
       <c r="F10" s="2">
-        <v>4.2531489999999996</v>
+        <v>4.1580199999999996</v>
       </c>
       <c r="G10" s="2">
-        <v>4.3790339999999999</v>
+        <v>4.1041369999999997</v>
       </c>
       <c r="H10" s="2">
-        <v>4.4550900000000002</v>
+        <v>4.1439529999999998</v>
       </c>
       <c r="I10" s="2">
-        <v>4.1871070000000001</v>
+        <v>4.1041369999999997</v>
       </c>
       <c r="J10" s="2">
-        <v>4.1391850000000003</v>
+        <v>4.0361880000000001</v>
       </c>
       <c r="K10" s="2">
-        <v>4.2989249999999997</v>
+        <v>4.0788650000000004</v>
       </c>
       <c r="L10" s="3">
-        <v>4.0230750000000004</v>
+        <v>4.0690900000000001</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -7351,37 +7350,37 @@
       </c>
       <c r="B11" s="11">
         <f t="shared" si="0"/>
-        <v>4.5120719999999999</v>
+        <v>4.5778749999999997</v>
       </c>
       <c r="C11" s="2">
-        <v>4.9488539999999999</v>
+        <v>4.6780109999999997</v>
       </c>
       <c r="D11" s="2">
-        <v>4.5120719999999999</v>
+        <v>4.9319269999999999</v>
       </c>
       <c r="E11" s="2">
-        <v>4.6670439999999997</v>
+        <v>4.6899319999999998</v>
       </c>
       <c r="F11" s="2">
-        <v>5.0561429999999996</v>
+        <v>4.5778749999999997</v>
       </c>
       <c r="G11" s="2">
-        <v>4.8949720000000001</v>
+        <v>4.7850609999999998</v>
       </c>
       <c r="H11" s="2">
-        <v>4.8420430000000003</v>
+        <v>4.6181679999999998</v>
       </c>
       <c r="I11" s="2">
-        <v>4.9970150000000002</v>
+        <v>4.6701430000000004</v>
       </c>
       <c r="J11" s="2">
-        <v>4.6620369999999998</v>
+        <v>4.8699380000000003</v>
       </c>
       <c r="K11" s="2">
-        <v>4.7609810000000001</v>
+        <v>4.9979690000000003</v>
       </c>
       <c r="L11" s="3">
-        <v>4.9488539999999999</v>
+        <v>4.6780109999999997</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -7391,37 +7390,37 @@
       </c>
       <c r="B12" s="11">
         <f t="shared" si="0"/>
-        <v>5.563974</v>
+        <v>5.5730339999999998</v>
       </c>
       <c r="C12" s="2">
-        <v>5.6850909999999999</v>
+        <v>5.7749750000000004</v>
       </c>
       <c r="D12" s="2">
-        <v>5.9180260000000002</v>
+        <v>5.659103</v>
       </c>
       <c r="E12" s="2">
-        <v>5.9280400000000002</v>
+        <v>5.9108729999999996</v>
       </c>
       <c r="F12" s="2">
-        <v>5.5739879999999999</v>
+        <v>5.6490900000000002</v>
       </c>
       <c r="G12" s="2">
-        <v>5.7370660000000004</v>
+        <v>5.5899619999999999</v>
       </c>
       <c r="H12" s="2">
-        <v>6.0789590000000002</v>
+        <v>5.9449670000000001</v>
       </c>
       <c r="I12" s="2">
-        <v>5.563974</v>
+        <v>5.8870319999999996</v>
       </c>
       <c r="J12" s="2">
-        <v>5.8610439999999997</v>
+        <v>5.5730339999999998</v>
       </c>
       <c r="K12" s="2">
-        <v>5.8310029999999999</v>
+        <v>5.7599539999999996</v>
       </c>
       <c r="L12" s="3">
-        <v>5.6850909999999999</v>
+        <v>5.7749750000000004</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -7434,34 +7433,34 @@
         <v>7.7760220000000002</v>
       </c>
       <c r="C13" s="2">
-        <v>8.1617829999999998</v>
+        <v>8.2790850000000002</v>
       </c>
       <c r="D13" s="2">
-        <v>7.8032019999999997</v>
+        <v>8.2738399999999999</v>
       </c>
       <c r="E13" s="2">
+        <v>7.8260899999999998</v>
+      </c>
+      <c r="F13" s="2">
+        <v>8.1160069999999997</v>
+      </c>
+      <c r="G13" s="2">
+        <v>8.2581039999999994</v>
+      </c>
+      <c r="H13" s="2">
+        <v>7.8151229999999998</v>
+      </c>
+      <c r="I13" s="2">
         <v>7.7760220000000002</v>
       </c>
-      <c r="F13" s="2">
-        <v>8.3658699999999993</v>
-      </c>
-      <c r="G13" s="2">
-        <v>8.0130099999999995</v>
-      </c>
-      <c r="H13" s="2">
-        <v>8.1050400000000007</v>
-      </c>
-      <c r="I13" s="2">
-        <v>8.5229870000000005</v>
-      </c>
       <c r="J13" s="2">
-        <v>7.7810290000000002</v>
+        <v>8.3351140000000008</v>
       </c>
       <c r="K13" s="2">
-        <v>8.0709459999999993</v>
+        <v>8.0399510000000003</v>
       </c>
       <c r="L13" s="3">
-        <v>8.1617829999999998</v>
+        <v>8.2790850000000002</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -7471,37 +7470,37 @@
       </c>
       <c r="B14" s="11">
         <f t="shared" si="0"/>
-        <v>11.476039999999999</v>
+        <v>11.445999</v>
       </c>
       <c r="C14" s="2">
-        <v>11.721849000000001</v>
+        <v>11.824131</v>
       </c>
       <c r="D14" s="2">
-        <v>11.476039999999999</v>
+        <v>12.001037999999999</v>
       </c>
       <c r="E14" s="2">
-        <v>11.632918999999999</v>
+        <v>11.661053000000001</v>
       </c>
       <c r="F14" s="2">
-        <v>11.938095000000001</v>
+        <v>11.713028</v>
       </c>
       <c r="G14" s="2">
-        <v>11.685133</v>
+        <v>12.111902000000001</v>
       </c>
       <c r="H14" s="2">
-        <v>11.910914999999999</v>
+        <v>11.445999</v>
       </c>
       <c r="I14" s="2">
-        <v>11.973143</v>
+        <v>11.765003</v>
       </c>
       <c r="J14" s="2">
-        <v>11.887074</v>
+        <v>11.896133000000001</v>
       </c>
       <c r="K14" s="2">
-        <v>11.893034</v>
+        <v>11.818171</v>
       </c>
       <c r="L14" s="3">
-        <v>11.721849000000001</v>
+        <v>11.824131</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -7511,37 +7510,37 @@
       </c>
       <c r="B15" s="11">
         <f t="shared" si="0"/>
-        <v>17.230988</v>
+        <v>17.199038999999999</v>
       </c>
       <c r="C15" s="2">
-        <v>17.556906000000001</v>
+        <v>17.199038999999999</v>
       </c>
       <c r="D15" s="2">
-        <v>17.756224</v>
+        <v>17.325163</v>
       </c>
       <c r="E15" s="2">
-        <v>17.811060000000001</v>
+        <v>17.627953999999999</v>
       </c>
       <c r="F15" s="2">
-        <v>17.314910999999999</v>
+        <v>17.374039</v>
       </c>
       <c r="G15" s="2">
-        <v>17.647981999999999</v>
+        <v>17.452954999999999</v>
       </c>
       <c r="H15" s="2">
-        <v>17.678975999999999</v>
+        <v>17.637968000000001</v>
       </c>
       <c r="I15" s="2">
-        <v>17.243862</v>
+        <v>17.746925000000001</v>
       </c>
       <c r="J15" s="2">
-        <v>17.410993999999999</v>
+        <v>17.256975000000001</v>
       </c>
       <c r="K15" s="2">
-        <v>17.230988</v>
+        <v>17.609119</v>
       </c>
       <c r="L15" s="3">
-        <v>17.556906000000001</v>
+        <v>17.199038999999999</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -7551,37 +7550,37 @@
       </c>
       <c r="B16" s="11">
         <f t="shared" si="0"/>
-        <v>27.86994</v>
+        <v>28.445004999999998</v>
       </c>
       <c r="C16" s="2">
-        <v>28.940916000000001</v>
+        <v>28.825044999999999</v>
       </c>
       <c r="D16" s="2">
-        <v>28.656006000000001</v>
+        <v>28.926134000000001</v>
       </c>
       <c r="E16" s="2">
-        <v>28.594971000000001</v>
+        <v>28.678179</v>
       </c>
       <c r="F16" s="2">
-        <v>28.747796999999998</v>
+        <v>28.951167999999999</v>
       </c>
       <c r="G16" s="2">
-        <v>28.738976000000001</v>
+        <v>29.119015000000001</v>
       </c>
       <c r="H16" s="2">
-        <v>28.825997999999998</v>
+        <v>28.445004999999998</v>
       </c>
       <c r="I16" s="2">
-        <v>29.009104000000001</v>
+        <v>28.609991000000001</v>
       </c>
       <c r="J16" s="2">
-        <v>27.86994</v>
+        <v>28.861999999999998</v>
       </c>
       <c r="K16" s="2">
-        <v>28.739929</v>
+        <v>28.650044999999999</v>
       </c>
       <c r="L16" s="3">
-        <v>28.940916000000001</v>
+        <v>28.825044999999999</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -7591,37 +7590,37 @@
       </c>
       <c r="B17" s="11">
         <f t="shared" si="0"/>
-        <v>50.349950999999997</v>
+        <v>50.302028999999997</v>
       </c>
       <c r="C17" s="2">
-        <v>51.578999000000003</v>
+        <v>51.399946</v>
       </c>
       <c r="D17" s="2">
-        <v>50.349950999999997</v>
+        <v>51.562071000000003</v>
       </c>
       <c r="E17" s="2">
-        <v>50.757885000000002</v>
+        <v>50.583838999999998</v>
       </c>
       <c r="F17" s="2">
-        <v>51.772117999999999</v>
+        <v>51.509856999999997</v>
       </c>
       <c r="G17" s="2">
-        <v>51.390886000000002</v>
+        <v>51.836013999999999</v>
       </c>
       <c r="H17" s="2">
-        <v>51.386118000000003</v>
+        <v>50.302028999999997</v>
       </c>
       <c r="I17" s="2">
-        <v>51.832914000000002</v>
+        <v>50.807952999999998</v>
       </c>
       <c r="J17" s="2">
-        <v>50.393104999999998</v>
+        <v>51.527023</v>
       </c>
       <c r="K17" s="2">
-        <v>51.844119999999997</v>
+        <v>50.802945999999999</v>
       </c>
       <c r="L17" s="3">
-        <v>51.578999000000003</v>
+        <v>51.399946</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -7631,37 +7630,37 @@
       </c>
       <c r="B18" s="11">
         <f t="shared" si="0"/>
-        <v>95.088959000000003</v>
+        <v>95.841885000000005</v>
       </c>
       <c r="C18" s="2">
-        <v>95.429896999999997</v>
+        <v>95.847130000000007</v>
       </c>
       <c r="D18" s="2">
-        <v>95.911026000000007</v>
+        <v>95.907211000000004</v>
       </c>
       <c r="E18" s="2">
-        <v>96.083878999999996</v>
+        <v>96.239805000000004</v>
       </c>
       <c r="F18" s="2">
-        <v>95.607996</v>
+        <v>96.745013999999998</v>
       </c>
       <c r="G18" s="2">
-        <v>96.688032000000007</v>
+        <v>96.891165000000001</v>
       </c>
       <c r="H18" s="2">
-        <v>96.544027</v>
+        <v>96.646786000000006</v>
       </c>
       <c r="I18" s="2">
-        <v>96.430063000000004</v>
+        <v>97.111940000000004</v>
       </c>
       <c r="J18" s="2">
-        <v>95.088959000000003</v>
+        <v>95.841885000000005</v>
       </c>
       <c r="K18" s="2">
-        <v>96.726894000000001</v>
+        <v>96.603870000000001</v>
       </c>
       <c r="L18" s="3">
-        <v>95.429896999999997</v>
+        <v>95.847130000000007</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -7671,37 +7670,37 @@
       </c>
       <c r="B19" s="11">
         <f t="shared" si="0"/>
-        <v>199.95784800000001</v>
+        <v>184.48996500000001</v>
       </c>
       <c r="C19" s="2">
-        <v>199.99408700000001</v>
+        <v>185.832977</v>
       </c>
       <c r="D19" s="2">
-        <v>200.51884699999999</v>
+        <v>185.34302700000001</v>
       </c>
       <c r="E19" s="2">
-        <v>199.96309299999999</v>
+        <v>184.48996500000001</v>
       </c>
       <c r="F19" s="2">
-        <v>200.52194600000001</v>
+        <v>186.10692</v>
       </c>
       <c r="G19" s="2">
-        <v>200.07109600000001</v>
+        <v>186.78212199999999</v>
       </c>
       <c r="H19" s="2">
-        <v>200.18386799999999</v>
+        <v>184.83805699999999</v>
       </c>
       <c r="I19" s="2">
-        <v>200.134039</v>
+        <v>185.736895</v>
       </c>
       <c r="J19" s="2">
-        <v>199.95784800000001</v>
+        <v>185.61291700000001</v>
       </c>
       <c r="K19" s="2">
-        <v>200.154066</v>
+        <v>186.00392299999999</v>
       </c>
       <c r="L19" s="3">
-        <v>199.99408700000001</v>
+        <v>185.832977</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -7711,37 +7710,37 @@
       </c>
       <c r="B20" s="11">
         <f t="shared" si="0"/>
-        <v>292.49501199999997</v>
+        <v>291.89586600000001</v>
       </c>
       <c r="C20" s="2">
-        <v>292.648077</v>
+        <v>292.69695300000001</v>
       </c>
       <c r="D20" s="2">
-        <v>293.073893</v>
+        <v>293.48802599999999</v>
       </c>
       <c r="E20" s="2">
-        <v>293.02001000000001</v>
+        <v>293.27392600000002</v>
       </c>
       <c r="F20" s="2">
-        <v>293.05315000000002</v>
+        <v>293.25509099999999</v>
       </c>
       <c r="G20" s="2">
-        <v>292.84191099999998</v>
+        <v>293.78509500000001</v>
       </c>
       <c r="H20" s="2">
-        <v>292.94681500000002</v>
+        <v>291.89586600000001</v>
       </c>
       <c r="I20" s="2">
-        <v>292.49501199999997</v>
+        <v>293.75600800000001</v>
       </c>
       <c r="J20" s="2">
-        <v>292.93489499999998</v>
+        <v>292.889118</v>
       </c>
       <c r="K20" s="2">
-        <v>292.52290699999998</v>
+        <v>292.904854</v>
       </c>
       <c r="L20" s="3">
-        <v>292.648077</v>
+        <v>292.69695300000001</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -7751,37 +7750,37 @@
       </c>
       <c r="B21" s="11">
         <f t="shared" si="0"/>
-        <v>478.399992</v>
+        <v>478.07908099999997</v>
       </c>
       <c r="C21" s="2">
-        <v>478.786945</v>
+        <v>479.19607200000002</v>
       </c>
       <c r="D21" s="2">
-        <v>479.67791599999998</v>
+        <v>480.175972</v>
       </c>
       <c r="E21" s="2">
-        <v>478.76810999999998</v>
+        <v>484.67207000000002</v>
       </c>
       <c r="F21" s="2">
-        <v>479.19201900000002</v>
+        <v>480.17287299999998</v>
       </c>
       <c r="G21" s="2">
-        <v>478.83200599999998</v>
+        <v>480.907917</v>
       </c>
       <c r="H21" s="2">
-        <v>479.50983000000002</v>
+        <v>478.07908099999997</v>
       </c>
       <c r="I21" s="2">
-        <v>478.399992</v>
+        <v>480.50689699999998</v>
       </c>
       <c r="J21" s="2">
-        <v>478.53803599999998</v>
+        <v>479.71510899999998</v>
       </c>
       <c r="K21" s="2">
-        <v>479.09116699999998</v>
+        <v>480.078936</v>
       </c>
       <c r="L21" s="3">
-        <v>478.786945</v>
+        <v>479.19607200000002</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="19" thickBot="1" x14ac:dyDescent="0.3">
@@ -7791,37 +7790,37 @@
       </c>
       <c r="B22" s="12">
         <f t="shared" si="0"/>
-        <v>871.972084</v>
+        <v>871.24800700000003</v>
       </c>
       <c r="C22" s="5">
-        <v>872.90287000000001</v>
+        <v>873.99601900000005</v>
       </c>
       <c r="D22" s="5">
-        <v>873.55709100000001</v>
+        <v>874.33886500000006</v>
       </c>
       <c r="E22" s="5">
-        <v>873.11601599999995</v>
+        <v>874.80902700000001</v>
       </c>
       <c r="F22" s="5">
-        <v>873.32391700000005</v>
+        <v>875.11706400000003</v>
       </c>
       <c r="G22" s="5">
-        <v>872.63894100000005</v>
+        <v>875.98896000000002</v>
       </c>
       <c r="H22" s="5">
-        <v>873.46196199999997</v>
+        <v>871.24800700000003</v>
       </c>
       <c r="I22" s="5">
-        <v>872.19810500000006</v>
+        <v>874.97997299999997</v>
       </c>
       <c r="J22" s="5">
-        <v>871.972084</v>
+        <v>872.66087500000003</v>
       </c>
       <c r="K22" s="5">
-        <v>872.43199300000003</v>
+        <v>874.73607100000004</v>
       </c>
       <c r="L22" s="6">
-        <v>872.90287000000001</v>
+        <v>873.99601900000005</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="19" thickBot="1" x14ac:dyDescent="0.3">
@@ -7873,37 +7872,37 @@
       </c>
       <c r="B27" s="11">
         <f>MIN(C27:L27)</f>
-        <v>2.01416</v>
+        <v>2.2749899999999998</v>
       </c>
       <c r="C27" s="2">
-        <v>2.0170210000000002</v>
+        <v>2.3701189999999999</v>
       </c>
       <c r="D27" s="2">
-        <v>2.0270350000000001</v>
+        <v>2.3348330000000002</v>
       </c>
       <c r="E27" s="2">
-        <v>2.2859569999999998</v>
+        <v>2.2749899999999998</v>
       </c>
       <c r="F27" s="2">
-        <v>2.0358559999999999</v>
+        <v>2.3069380000000002</v>
       </c>
       <c r="G27" s="2">
-        <v>2.0830630000000001</v>
+        <v>2.3241040000000002</v>
       </c>
       <c r="H27" s="2">
-        <v>2.01416</v>
+        <v>2.3021699999999998</v>
       </c>
       <c r="I27" s="2">
-        <v>2.0439620000000001</v>
+        <v>2.599955</v>
       </c>
       <c r="J27" s="2">
-        <v>2.0911689999999998</v>
+        <v>2.6581290000000002</v>
       </c>
       <c r="K27" s="2">
-        <v>2.0558830000000001</v>
+        <v>2.511978</v>
       </c>
       <c r="L27" s="3">
-        <v>2.0170210000000002</v>
+        <v>2.3701189999999999</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -7913,37 +7912,37 @@
       </c>
       <c r="B28" s="11">
         <f t="shared" ref="B28:B46" si="2">MIN(C28:L28)</f>
-        <v>2.0239349999999998</v>
+        <v>2.298117</v>
       </c>
       <c r="C28" s="2">
-        <v>2.0937920000000001</v>
+        <v>2.3629669999999998</v>
       </c>
       <c r="D28" s="2">
-        <v>2.315998</v>
+        <v>2.298117</v>
       </c>
       <c r="E28" s="2">
-        <v>2.0661350000000001</v>
+        <v>2.3531909999999998</v>
       </c>
       <c r="F28" s="2">
-        <v>2.0849700000000002</v>
+        <v>2.444029</v>
       </c>
       <c r="G28" s="2">
-        <v>2.1059510000000001</v>
+        <v>2.326012</v>
       </c>
       <c r="H28" s="2">
-        <v>2.0720960000000002</v>
+        <v>2.3241040000000002</v>
       </c>
       <c r="I28" s="2">
-        <v>2.0239349999999998</v>
+        <v>2.343893</v>
       </c>
       <c r="J28" s="2">
-        <v>2.1080969999999999</v>
+        <v>2.3231510000000002</v>
       </c>
       <c r="K28" s="2">
-        <v>2.0740029999999998</v>
+        <v>2.3410319999999998</v>
       </c>
       <c r="L28" s="3">
-        <v>2.0937920000000001</v>
+        <v>2.3629669999999998</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -7953,37 +7952,37 @@
       </c>
       <c r="B29" s="11">
         <f t="shared" si="2"/>
-        <v>3.3490660000000001</v>
+        <v>3.4780500000000001</v>
       </c>
       <c r="C29" s="2">
-        <v>3.9029120000000002</v>
+        <v>3.5920139999999998</v>
       </c>
       <c r="D29" s="2">
-        <v>4.0318969999999998</v>
+        <v>3.5898690000000002</v>
       </c>
       <c r="E29" s="2">
-        <v>3.6718850000000001</v>
+        <v>3.5459999999999998</v>
       </c>
       <c r="F29" s="2">
-        <v>4.0380950000000002</v>
+        <v>3.64995</v>
       </c>
       <c r="G29" s="2">
-        <v>3.470898</v>
+        <v>3.4909249999999998</v>
       </c>
       <c r="H29" s="2">
-        <v>4.1379929999999998</v>
+        <v>3.6399360000000001</v>
       </c>
       <c r="I29" s="2">
-        <v>3.3490660000000001</v>
+        <v>3.6349300000000002</v>
       </c>
       <c r="J29" s="2">
-        <v>3.7248130000000002</v>
+        <v>3.5231110000000001</v>
       </c>
       <c r="K29" s="2">
-        <v>3.6768909999999999</v>
+        <v>3.4780500000000001</v>
       </c>
       <c r="L29" s="3">
-        <v>3.9029120000000002</v>
+        <v>3.5920139999999998</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -7993,37 +7992,37 @@
       </c>
       <c r="B30" s="11">
         <f t="shared" si="2"/>
-        <v>3.3068659999999999</v>
+        <v>3.4441950000000001</v>
       </c>
       <c r="C30" s="2">
-        <v>3.3068659999999999</v>
+        <v>3.4899710000000002</v>
       </c>
       <c r="D30" s="2">
-        <v>3.816843</v>
+        <v>3.7181380000000002</v>
       </c>
       <c r="E30" s="2">
-        <v>3.8678650000000001</v>
+        <v>3.4441950000000001</v>
       </c>
       <c r="F30" s="2">
-        <v>3.906012</v>
+        <v>3.582954</v>
       </c>
       <c r="G30" s="2">
-        <v>3.4449100000000001</v>
+        <v>3.6931039999999999</v>
       </c>
       <c r="H30" s="2">
-        <v>3.8900380000000001</v>
+        <v>3.7209989999999999</v>
       </c>
       <c r="I30" s="2">
-        <v>3.3679009999999998</v>
+        <v>3.6809440000000002</v>
       </c>
       <c r="J30" s="2">
-        <v>3.798962</v>
+        <v>3.5300250000000002</v>
       </c>
       <c r="K30" s="2">
-        <v>3.6799909999999998</v>
+        <v>3.4542079999999999</v>
       </c>
       <c r="L30" s="3">
-        <v>3.3068659999999999</v>
+        <v>3.4899710000000002</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -8033,37 +8032,37 @@
       </c>
       <c r="B31" s="11">
         <f t="shared" si="2"/>
-        <v>3.3319000000000001</v>
+        <v>3.4899710000000002</v>
       </c>
       <c r="C31" s="2">
-        <v>3.8747790000000002</v>
+        <v>3.8418770000000002</v>
       </c>
       <c r="D31" s="2">
-        <v>3.9179330000000001</v>
+        <v>3.5901070000000002</v>
       </c>
       <c r="E31" s="2">
-        <v>3.7391190000000001</v>
+        <v>3.5510060000000001</v>
       </c>
       <c r="F31" s="2">
-        <v>3.9908890000000001</v>
+        <v>3.7629600000000001</v>
       </c>
       <c r="G31" s="2">
-        <v>3.8468840000000002</v>
+        <v>3.6418439999999999</v>
       </c>
       <c r="H31" s="2">
-        <v>3.67713</v>
+        <v>3.68309</v>
       </c>
       <c r="I31" s="2">
-        <v>3.3319000000000001</v>
+        <v>3.6978719999999998</v>
       </c>
       <c r="J31" s="2">
-        <v>3.816128</v>
+        <v>3.6129950000000002</v>
       </c>
       <c r="K31" s="2">
-        <v>3.6680700000000002</v>
+        <v>3.4899710000000002</v>
       </c>
       <c r="L31" s="3">
-        <v>3.8747790000000002</v>
+        <v>3.8418770000000002</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -8073,37 +8072,37 @@
       </c>
       <c r="B32" s="11">
         <f t="shared" si="2"/>
-        <v>3.4370419999999999</v>
+        <v>3.5738949999999998</v>
       </c>
       <c r="C32" s="2">
-        <v>3.6389830000000001</v>
+        <v>3.638029</v>
       </c>
       <c r="D32" s="2">
-        <v>4.0640830000000001</v>
+        <v>3.8330549999999999</v>
       </c>
       <c r="E32" s="2">
-        <v>3.5700799999999999</v>
+        <v>3.7510400000000002</v>
       </c>
       <c r="F32" s="2">
-        <v>3.67713</v>
+        <v>3.7071700000000001</v>
       </c>
       <c r="G32" s="2">
-        <v>3.7891859999999999</v>
+        <v>3.6280160000000001</v>
       </c>
       <c r="H32" s="2">
-        <v>3.7250519999999998</v>
+        <v>3.6768909999999999</v>
       </c>
       <c r="I32" s="2">
-        <v>3.4370419999999999</v>
+        <v>3.7751199999999998</v>
       </c>
       <c r="J32" s="2">
-        <v>3.8080219999999998</v>
+        <v>3.5738949999999998</v>
       </c>
       <c r="K32" s="2">
-        <v>3.5679340000000002</v>
+        <v>3.5939220000000001</v>
       </c>
       <c r="L32" s="3">
-        <v>3.6389830000000001</v>
+        <v>3.638029</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -8113,37 +8112,37 @@
       </c>
       <c r="B33" s="11">
         <f t="shared" si="2"/>
-        <v>3.7078859999999998</v>
+        <v>3.6859510000000002</v>
       </c>
       <c r="C33" s="2">
-        <v>3.8142200000000002</v>
+        <v>3.8409230000000001</v>
       </c>
       <c r="D33" s="2">
-        <v>3.8352010000000001</v>
+        <v>3.8499829999999999</v>
       </c>
       <c r="E33" s="2">
-        <v>4.1260719999999997</v>
+        <v>3.6859510000000002</v>
       </c>
       <c r="F33" s="2">
-        <v>4.080057</v>
+        <v>3.872871</v>
       </c>
       <c r="G33" s="2">
-        <v>3.773212</v>
+        <v>3.921986</v>
       </c>
       <c r="H33" s="2">
-        <v>4.2259690000000001</v>
+        <v>3.8900380000000001</v>
       </c>
       <c r="I33" s="2">
-        <v>3.9050579999999999</v>
+        <v>3.921986</v>
       </c>
       <c r="J33" s="2">
-        <v>3.7801269999999998</v>
+        <v>3.9908890000000001</v>
       </c>
       <c r="K33" s="2">
-        <v>3.7078859999999998</v>
+        <v>3.7021639999999998</v>
       </c>
       <c r="L33" s="3">
-        <v>3.8142200000000002</v>
+        <v>3.8409230000000001</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -8153,37 +8152,37 @@
       </c>
       <c r="B34" s="11">
         <f t="shared" si="2"/>
-        <v>3.8869379999999998</v>
+        <v>4.063129</v>
       </c>
       <c r="C34" s="2">
-        <v>4.2891500000000002</v>
+        <v>4.1379929999999998</v>
       </c>
       <c r="D34" s="2">
-        <v>4.4879910000000001</v>
+        <v>4.1449069999999999</v>
       </c>
       <c r="E34" s="2">
-        <v>4.0328499999999998</v>
+        <v>4.0719510000000003</v>
       </c>
       <c r="F34" s="2">
-        <v>4.4000149999999998</v>
+        <v>4.2450429999999999</v>
       </c>
       <c r="G34" s="2">
-        <v>4.3230060000000003</v>
+        <v>4.1999820000000003</v>
       </c>
       <c r="H34" s="2">
-        <v>4.2061809999999999</v>
+        <v>4.1790010000000004</v>
       </c>
       <c r="I34" s="2">
-        <v>3.8869379999999998</v>
+        <v>4.201174</v>
       </c>
       <c r="J34" s="2">
-        <v>4.2448040000000002</v>
+        <v>4.067183</v>
       </c>
       <c r="K34" s="2">
-        <v>4.1310789999999997</v>
+        <v>4.063129</v>
       </c>
       <c r="L34" s="3">
-        <v>4.2891500000000002</v>
+        <v>4.1379929999999998</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -8193,37 +8192,37 @@
       </c>
       <c r="B35" s="11">
         <f t="shared" si="2"/>
-        <v>4.5769209999999996</v>
+        <v>4.6579839999999999</v>
       </c>
       <c r="C35" s="2">
-        <v>4.669905</v>
+        <v>4.6579839999999999</v>
       </c>
       <c r="D35" s="2">
-        <v>4.770041</v>
+        <v>4.8680310000000002</v>
       </c>
       <c r="E35" s="2">
-        <v>4.9769880000000004</v>
+        <v>4.7931670000000004</v>
       </c>
       <c r="F35" s="2">
-        <v>4.8348899999999997</v>
+        <v>4.888058</v>
       </c>
       <c r="G35" s="2">
-        <v>4.889011</v>
+        <v>4.9140449999999998</v>
       </c>
       <c r="H35" s="2">
-        <v>4.8818590000000004</v>
+        <v>4.7872070000000004</v>
       </c>
       <c r="I35" s="2">
-        <v>4.5769209999999996</v>
+        <v>4.782915</v>
       </c>
       <c r="J35" s="2">
-        <v>4.9040319999999999</v>
+        <v>4.687786</v>
       </c>
       <c r="K35" s="2">
-        <v>4.7750469999999998</v>
+        <v>4.6679969999999997</v>
       </c>
       <c r="L35" s="3">
-        <v>4.669905</v>
+        <v>4.6579839999999999</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -8233,37 +8232,37 @@
       </c>
       <c r="B36" s="11">
         <f t="shared" si="2"/>
-        <v>5.520105</v>
+        <v>5.724907</v>
       </c>
       <c r="C36" s="2">
-        <v>6.061077</v>
+        <v>6.0458179999999997</v>
       </c>
       <c r="D36" s="2">
-        <v>5.8841710000000003</v>
+        <v>5.7880880000000001</v>
       </c>
       <c r="E36" s="2">
-        <v>5.676031</v>
+        <v>5.7458879999999999</v>
       </c>
       <c r="F36" s="2">
-        <v>5.7489869999999996</v>
+        <v>6.0009959999999998</v>
       </c>
       <c r="G36" s="2">
-        <v>6.0639380000000003</v>
+        <v>5.7580470000000004</v>
       </c>
       <c r="H36" s="2">
-        <v>6.0529710000000003</v>
+        <v>5.7320589999999996</v>
       </c>
       <c r="I36" s="2">
-        <v>5.6118969999999999</v>
+        <v>5.7940480000000001</v>
       </c>
       <c r="J36" s="2">
-        <v>5.7539939999999996</v>
+        <v>5.852938</v>
       </c>
       <c r="K36" s="2">
-        <v>5.520105</v>
+        <v>5.724907</v>
       </c>
       <c r="L36" s="3">
-        <v>6.061077</v>
+        <v>6.0458179999999997</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -8273,37 +8272,37 @@
       </c>
       <c r="B37" s="11">
         <f t="shared" si="2"/>
-        <v>7.7381130000000002</v>
+        <v>7.8380109999999998</v>
       </c>
       <c r="C37" s="2">
-        <v>7.7381130000000002</v>
+        <v>7.9309940000000001</v>
       </c>
       <c r="D37" s="2">
-        <v>7.7888970000000004</v>
+        <v>8.1691739999999999</v>
       </c>
       <c r="E37" s="2">
-        <v>8.0630780000000009</v>
+        <v>8.0151559999999993</v>
       </c>
       <c r="F37" s="2">
-        <v>8.0859660000000009</v>
+        <v>7.8380109999999998</v>
       </c>
       <c r="G37" s="2">
-        <v>7.9739089999999999</v>
+        <v>8.0921649999999996</v>
       </c>
       <c r="H37" s="2">
-        <v>8.1911090000000009</v>
+        <v>8.0029959999999996</v>
       </c>
       <c r="I37" s="2">
-        <v>8.1620220000000003</v>
+        <v>8.0070499999999996</v>
       </c>
       <c r="J37" s="2">
-        <v>8.0049039999999998</v>
+        <v>8.0461500000000008</v>
       </c>
       <c r="K37" s="2">
-        <v>8.2759859999999996</v>
+        <v>8.0289839999999995</v>
       </c>
       <c r="L37" s="3">
-        <v>7.7381130000000002</v>
+        <v>7.9309940000000001</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -8313,37 +8312,37 @@
       </c>
       <c r="B38" s="11">
         <f t="shared" si="2"/>
-        <v>24.068117000000001</v>
+        <v>24.049043999999999</v>
       </c>
       <c r="C38" s="2">
-        <v>24.086952</v>
+        <v>24.111986000000002</v>
       </c>
       <c r="D38" s="2">
-        <v>24.151087</v>
+        <v>24.204015999999999</v>
       </c>
       <c r="E38" s="2">
-        <v>24.068117000000001</v>
+        <v>24.102211</v>
       </c>
       <c r="F38" s="2">
-        <v>24.255991000000002</v>
+        <v>24.245024000000001</v>
       </c>
       <c r="G38" s="2">
-        <v>24.224996999999998</v>
+        <v>24.049043999999999</v>
       </c>
       <c r="H38" s="2">
-        <v>24.32394</v>
+        <v>24.237155999999999</v>
       </c>
       <c r="I38" s="2">
-        <v>24.101973000000001</v>
+        <v>24.168968</v>
       </c>
       <c r="J38" s="2">
-        <v>24.078130999999999</v>
+        <v>24.345874999999999</v>
       </c>
       <c r="K38" s="2">
-        <v>24.108170999999999</v>
+        <v>24.104834</v>
       </c>
       <c r="L38" s="3">
-        <v>24.086952</v>
+        <v>24.111986000000002</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -8353,37 +8352,37 @@
       </c>
       <c r="B39" s="11">
         <f t="shared" si="2"/>
-        <v>29.503107</v>
+        <v>29.474974</v>
       </c>
       <c r="C39" s="2">
-        <v>29.516935</v>
+        <v>29.541969000000002</v>
       </c>
       <c r="D39" s="2">
-        <v>29.551983</v>
+        <v>29.655933000000001</v>
       </c>
       <c r="E39" s="2">
-        <v>29.503107</v>
+        <v>29.567957</v>
       </c>
       <c r="F39" s="2">
-        <v>29.588937999999999</v>
+        <v>29.604911999999999</v>
       </c>
       <c r="G39" s="2">
-        <v>29.654979999999998</v>
+        <v>29.474974</v>
       </c>
       <c r="H39" s="2">
-        <v>29.548168</v>
+        <v>29.559135000000001</v>
       </c>
       <c r="I39" s="2">
-        <v>29.551029</v>
+        <v>29.67</v>
       </c>
       <c r="J39" s="2">
-        <v>29.577017000000001</v>
+        <v>29.680966999999999</v>
       </c>
       <c r="K39" s="2">
-        <v>29.580116</v>
+        <v>29.627085000000001</v>
       </c>
       <c r="L39" s="3">
-        <v>29.516935</v>
+        <v>29.541969000000002</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -8393,37 +8392,37 @@
       </c>
       <c r="B40" s="11">
         <f t="shared" si="2"/>
-        <v>40.513992000000002</v>
+        <v>40.468930999999998</v>
       </c>
       <c r="C40" s="2">
-        <v>40.587902</v>
+        <v>40.817022000000001</v>
       </c>
       <c r="D40" s="2">
-        <v>40.513992000000002</v>
+        <v>40.624141999999999</v>
       </c>
       <c r="E40" s="2">
-        <v>40.615082000000001</v>
+        <v>40.519953000000001</v>
       </c>
       <c r="F40" s="2">
-        <v>40.726185000000001</v>
+        <v>40.494919000000003</v>
       </c>
       <c r="G40" s="2">
-        <v>40.602922</v>
+        <v>40.468930999999998</v>
       </c>
       <c r="H40" s="2">
-        <v>40.596007999999998</v>
+        <v>40.647984000000001</v>
       </c>
       <c r="I40" s="2">
-        <v>40.647984000000001</v>
+        <v>40.510893000000003</v>
       </c>
       <c r="J40" s="2">
-        <v>40.701866000000003</v>
+        <v>40.776014000000004</v>
       </c>
       <c r="K40" s="2">
-        <v>40.636063</v>
+        <v>40.724038999999998</v>
       </c>
       <c r="L40" s="3">
-        <v>40.587902</v>
+        <v>40.817022000000001</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -8433,37 +8432,37 @@
       </c>
       <c r="B41" s="11">
         <f t="shared" si="2"/>
-        <v>62.679051999999999</v>
+        <v>62.553882999999999</v>
       </c>
       <c r="C41" s="2">
-        <v>62.76679</v>
+        <v>62.658786999999997</v>
       </c>
       <c r="D41" s="2">
-        <v>62.735081000000001</v>
+        <v>62.737941999999997</v>
       </c>
       <c r="E41" s="2">
-        <v>62.680005999999999</v>
+        <v>62.745094000000002</v>
       </c>
       <c r="F41" s="2">
-        <v>62.679051999999999</v>
+        <v>62.761068000000002</v>
       </c>
       <c r="G41" s="2">
-        <v>62.741995000000003</v>
+        <v>62.553882999999999</v>
       </c>
       <c r="H41" s="2">
-        <v>62.842131000000002</v>
+        <v>62.727927999999999</v>
       </c>
       <c r="I41" s="2">
-        <v>62.716960999999998</v>
+        <v>62.699795000000002</v>
       </c>
       <c r="J41" s="2">
-        <v>62.762022000000002</v>
+        <v>62.816142999999997</v>
       </c>
       <c r="K41" s="2">
-        <v>62.726021000000003</v>
+        <v>62.780141999999998</v>
       </c>
       <c r="L41" s="3">
-        <v>62.76679</v>
+        <v>62.658786999999997</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -8473,37 +8472,37 @@
       </c>
       <c r="B42" s="11">
         <f t="shared" si="2"/>
-        <v>106.976032</v>
+        <v>106.892109</v>
       </c>
       <c r="C42" s="2">
-        <v>107.094049</v>
+        <v>107.04898799999999</v>
       </c>
       <c r="D42" s="2">
-        <v>107.04302800000001</v>
+        <v>107.069969</v>
       </c>
       <c r="E42" s="2">
-        <v>106.976032</v>
+        <v>106.986046</v>
       </c>
       <c r="F42" s="2">
-        <v>107.004881</v>
+        <v>106.986046</v>
       </c>
       <c r="G42" s="2">
-        <v>107.117891</v>
+        <v>106.892109</v>
       </c>
       <c r="H42" s="2">
-        <v>107.019901</v>
+        <v>107.304096</v>
       </c>
       <c r="I42" s="2">
-        <v>107.03897499999999</v>
+        <v>106.940031</v>
       </c>
       <c r="J42" s="2">
-        <v>107.12885900000001</v>
+        <v>107.147932</v>
       </c>
       <c r="K42" s="2">
-        <v>107.017994</v>
+        <v>107.263088</v>
       </c>
       <c r="L42" s="3">
-        <v>107.094049</v>
+        <v>107.04898799999999</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -8513,37 +8512,37 @@
       </c>
       <c r="B43" s="11">
         <f t="shared" si="2"/>
-        <v>199.85103599999999</v>
+        <v>199.928999</v>
       </c>
       <c r="C43" s="2">
-        <v>199.921131</v>
+        <v>200.04796999999999</v>
       </c>
       <c r="D43" s="2">
-        <v>200.10805099999999</v>
+        <v>200.15191999999999</v>
       </c>
       <c r="E43" s="2">
-        <v>199.932098</v>
+        <v>200.00600800000001</v>
       </c>
       <c r="F43" s="2">
-        <v>200.116873</v>
+        <v>199.928999</v>
       </c>
       <c r="G43" s="2">
-        <v>200.05106900000001</v>
+        <v>200.18291500000001</v>
       </c>
       <c r="H43" s="2">
-        <v>199.95594</v>
+        <v>200.42204899999999</v>
       </c>
       <c r="I43" s="2">
-        <v>200.343132</v>
+        <v>199.96190100000001</v>
       </c>
       <c r="J43" s="2">
-        <v>200.52099200000001</v>
+        <v>200.25706299999999</v>
       </c>
       <c r="K43" s="2">
-        <v>199.85103599999999</v>
+        <v>200.10781299999999</v>
       </c>
       <c r="L43" s="3">
-        <v>199.921131</v>
+        <v>200.04796999999999</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -8553,37 +8552,37 @@
       </c>
       <c r="B44" s="11">
         <f t="shared" si="2"/>
-        <v>292.449951</v>
+        <v>292.70696600000002</v>
       </c>
       <c r="C44" s="2">
-        <v>292.80686400000002</v>
+        <v>292.711973</v>
       </c>
       <c r="D44" s="2">
-        <v>292.876959</v>
+        <v>292.82689099999999</v>
       </c>
       <c r="E44" s="2">
-        <v>292.781115</v>
+        <v>292.70696600000002</v>
       </c>
       <c r="F44" s="2">
-        <v>292.84596399999998</v>
+        <v>292.93298700000003</v>
       </c>
       <c r="G44" s="2">
-        <v>292.89889299999999</v>
+        <v>292.76800200000002</v>
       </c>
       <c r="H44" s="2">
-        <v>292.49882700000001</v>
+        <v>293.43605000000002</v>
       </c>
       <c r="I44" s="2">
-        <v>293.26105100000001</v>
+        <v>292.72699399999999</v>
       </c>
       <c r="J44" s="2">
-        <v>293.18618800000002</v>
+        <v>292.95802099999997</v>
       </c>
       <c r="K44" s="2">
-        <v>292.449951</v>
+        <v>293.18499600000001</v>
       </c>
       <c r="L44" s="3">
-        <v>292.80686400000002</v>
+        <v>292.711973</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -8593,37 +8592,37 @@
       </c>
       <c r="B45" s="11">
         <f t="shared" si="2"/>
-        <v>478.17397099999999</v>
+        <v>478.230953</v>
       </c>
       <c r="C45" s="2">
-        <v>478.38306399999999</v>
+        <v>478.37114300000002</v>
       </c>
       <c r="D45" s="2">
-        <v>478.76691799999998</v>
+        <v>478.27506099999999</v>
       </c>
       <c r="E45" s="2">
-        <v>478.66487499999999</v>
+        <v>478.230953</v>
       </c>
       <c r="F45" s="2">
-        <v>478.353024</v>
+        <v>478.40189900000001</v>
       </c>
       <c r="G45" s="2">
-        <v>479.00509799999998</v>
+        <v>478.304148</v>
       </c>
       <c r="H45" s="2">
-        <v>478.22499299999998</v>
+        <v>480.28612099999998</v>
       </c>
       <c r="I45" s="2">
-        <v>479.80094000000003</v>
+        <v>478.68800199999998</v>
       </c>
       <c r="J45" s="2">
-        <v>479.49385599999999</v>
+        <v>478.78193900000002</v>
       </c>
       <c r="K45" s="2">
-        <v>478.17397099999999</v>
+        <v>479.52890400000001</v>
       </c>
       <c r="L45" s="3">
-        <v>478.38306399999999</v>
+        <v>478.37114300000002</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="19" thickBot="1" x14ac:dyDescent="0.3">
@@ -8633,37 +8632,37 @@
       </c>
       <c r="B46" s="12">
         <f t="shared" si="2"/>
-        <v>870.80884000000003</v>
+        <v>870.51010099999996</v>
       </c>
       <c r="C46" s="5">
-        <v>872.21694000000002</v>
+        <v>872.11895000000004</v>
       </c>
       <c r="D46" s="5">
-        <v>872.47300099999995</v>
+        <v>871.50716799999998</v>
       </c>
       <c r="E46" s="5">
-        <v>872.24698100000001</v>
+        <v>871.02699299999995</v>
       </c>
       <c r="F46" s="5">
-        <v>873.80194700000004</v>
+        <v>870.51010099999996</v>
       </c>
       <c r="G46" s="5">
-        <v>872.95198400000004</v>
+        <v>871.887922</v>
       </c>
       <c r="H46" s="5">
-        <v>870.80884000000003</v>
+        <v>874.35793899999999</v>
       </c>
       <c r="I46" s="5">
-        <v>873.98314500000004</v>
+        <v>871.73700299999996</v>
       </c>
       <c r="J46" s="5">
-        <v>873.36802499999999</v>
+        <v>871.55199100000004</v>
       </c>
       <c r="K46" s="5">
-        <v>871.12879799999996</v>
+        <v>873.16203099999996</v>
       </c>
       <c r="L46" s="6">
-        <v>872.21694000000002</v>
+        <v>872.11895000000004</v>
       </c>
     </row>
   </sheetData>
@@ -8678,7 +8677,7 @@
   <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B22"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -8732,37 +8731,37 @@
       </c>
       <c r="B3" s="11">
         <f>MIN(C3:L3)</f>
-        <v>2.2308829999999999</v>
+        <v>2.5570390000000001</v>
       </c>
       <c r="C3" s="2">
-        <v>2.337933</v>
+        <v>2.9530530000000002</v>
       </c>
       <c r="D3" s="2">
-        <v>2.2499560000000001</v>
+        <v>2.6299950000000001</v>
       </c>
       <c r="E3" s="2">
-        <v>2.2308829999999999</v>
+        <v>2.5990009999999999</v>
       </c>
       <c r="F3" s="2">
-        <v>2.3868079999999998</v>
+        <v>2.6760100000000002</v>
       </c>
       <c r="G3" s="2">
-        <v>2.3221970000000001</v>
+        <v>2.5649069999999998</v>
       </c>
       <c r="H3" s="2">
-        <v>2.3250579999999998</v>
+        <v>2.7408600000000001</v>
       </c>
       <c r="I3" s="2">
-        <v>2.264977</v>
+        <v>2.6748180000000001</v>
       </c>
       <c r="J3" s="2">
-        <v>2.2890570000000001</v>
+        <v>2.5570390000000001</v>
       </c>
       <c r="K3" s="2">
-        <v>2.378225</v>
+        <v>2.6268959999999999</v>
       </c>
       <c r="L3" s="3">
-        <v>2.337933</v>
+        <v>2.9530530000000002</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -8772,37 +8771,37 @@
       </c>
       <c r="B4" s="11">
         <f t="shared" ref="B4:B22" si="0">MIN(C4:L4)</f>
-        <v>2.2170540000000001</v>
+        <v>2.5770659999999999</v>
       </c>
       <c r="C4" s="2">
-        <v>2.3489</v>
+        <v>2.622843</v>
       </c>
       <c r="D4" s="2">
-        <v>2.225876</v>
+        <v>2.7360920000000002</v>
       </c>
       <c r="E4" s="2">
-        <v>2.2170540000000001</v>
+        <v>2.8960699999999999</v>
       </c>
       <c r="F4" s="2">
-        <v>2.4650099999999999</v>
+        <v>2.728939</v>
       </c>
       <c r="G4" s="2">
-        <v>2.3910999999999998</v>
+        <v>2.6090149999999999</v>
       </c>
       <c r="H4" s="2">
-        <v>2.326012</v>
+        <v>2.6819709999999999</v>
       </c>
       <c r="I4" s="2">
-        <v>2.338171</v>
+        <v>2.9089450000000001</v>
       </c>
       <c r="J4" s="2">
-        <v>2.4189949999999998</v>
+        <v>2.5770659999999999</v>
       </c>
       <c r="K4" s="2">
-        <v>2.3357869999999998</v>
+        <v>2.7379989999999998</v>
       </c>
       <c r="L4" s="3">
-        <v>2.3489</v>
+        <v>2.622843</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -8812,37 +8811,37 @@
       </c>
       <c r="B5" s="11">
         <f t="shared" si="0"/>
-        <v>4.3449400000000002</v>
+        <v>4.1530129999999996</v>
       </c>
       <c r="C5" s="2">
-        <v>4.7719480000000001</v>
+        <v>4.3668750000000003</v>
       </c>
       <c r="D5" s="2">
-        <v>4.5540330000000004</v>
+        <v>4.1780470000000003</v>
       </c>
       <c r="E5" s="2">
-        <v>4.5099260000000001</v>
+        <v>4.2829509999999997</v>
       </c>
       <c r="F5" s="2">
-        <v>4.6718120000000001</v>
+        <v>4.4369699999999996</v>
       </c>
       <c r="G5" s="2">
-        <v>4.6050550000000001</v>
+        <v>4.1530129999999996</v>
       </c>
       <c r="H5" s="2">
-        <v>4.7509670000000002</v>
+        <v>4.6358110000000003</v>
       </c>
       <c r="I5" s="2">
-        <v>4.3449400000000002</v>
+        <v>4.3761729999999996</v>
       </c>
       <c r="J5" s="2">
-        <v>4.637003</v>
+        <v>4.4081210000000004</v>
       </c>
       <c r="K5" s="2">
-        <v>4.7819609999999999</v>
+        <v>4.4438839999999997</v>
       </c>
       <c r="L5" s="3">
-        <v>4.7719480000000001</v>
+        <v>4.3668750000000003</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -8852,37 +8851,37 @@
       </c>
       <c r="B6" s="11">
         <f t="shared" si="0"/>
-        <v>3.9970870000000001</v>
+        <v>4.1241649999999996</v>
       </c>
       <c r="C6" s="2">
-        <v>4.4269559999999997</v>
+        <v>4.3148989999999996</v>
       </c>
       <c r="D6" s="2">
-        <v>4.3540000000000001</v>
+        <v>4.4260029999999997</v>
       </c>
       <c r="E6" s="2">
-        <v>4.5061109999999998</v>
+        <v>4.3578150000000004</v>
       </c>
       <c r="F6" s="2">
-        <v>4.6517850000000003</v>
+        <v>4.3411249999999999</v>
       </c>
       <c r="G6" s="2">
-        <v>4.3671129999999998</v>
+        <v>4.1241649999999996</v>
       </c>
       <c r="H6" s="2">
-        <v>4.1449069999999999</v>
+        <v>4.47011</v>
       </c>
       <c r="I6" s="2">
-        <v>3.9970870000000001</v>
+        <v>4.2350289999999999</v>
       </c>
       <c r="J6" s="2">
-        <v>4.1148660000000001</v>
+        <v>4.1329859999999998</v>
       </c>
       <c r="K6" s="2">
-        <v>4.7731399999999997</v>
+        <v>4.4338699999999998</v>
       </c>
       <c r="L6" s="3">
-        <v>4.4269559999999997</v>
+        <v>4.3148989999999996</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -8892,37 +8891,37 @@
       </c>
       <c r="B7" s="11">
         <f t="shared" si="0"/>
-        <v>4.0709970000000002</v>
+        <v>4.1871070000000001</v>
       </c>
       <c r="C7" s="2">
-        <v>4.1511060000000004</v>
+        <v>4.3458940000000004</v>
       </c>
       <c r="D7" s="2">
-        <v>4.3148989999999996</v>
+        <v>4.3010710000000003</v>
       </c>
       <c r="E7" s="2">
-        <v>4.5239929999999999</v>
+        <v>4.3399330000000003</v>
       </c>
       <c r="F7" s="2">
-        <v>4.8019889999999998</v>
+        <v>4.6389100000000001</v>
       </c>
       <c r="G7" s="2">
-        <v>4.7140120000000003</v>
+        <v>4.1871070000000001</v>
       </c>
       <c r="H7" s="2">
-        <v>4.4541360000000001</v>
+        <v>4.5568939999999998</v>
       </c>
       <c r="I7" s="2">
-        <v>4.0841099999999999</v>
+        <v>4.4400690000000003</v>
       </c>
       <c r="J7" s="2">
-        <v>4.0709970000000002</v>
+        <v>4.3430330000000001</v>
       </c>
       <c r="K7" s="2">
-        <v>4.5259</v>
+        <v>4.2750839999999997</v>
       </c>
       <c r="L7" s="3">
-        <v>4.1511060000000004</v>
+        <v>4.3458940000000004</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -8932,37 +8931,37 @@
       </c>
       <c r="B8" s="11">
         <f t="shared" si="0"/>
-        <v>4.3129920000000004</v>
+        <v>4.2920109999999996</v>
       </c>
       <c r="C8" s="2">
-        <v>4.329205</v>
+        <v>4.4350620000000003</v>
       </c>
       <c r="D8" s="2">
-        <v>4.7349930000000002</v>
+        <v>4.4620040000000003</v>
       </c>
       <c r="E8" s="2">
-        <v>4.3129920000000004</v>
+        <v>4.7028059999999998</v>
       </c>
       <c r="F8" s="2">
-        <v>4.7800539999999998</v>
+        <v>4.503012</v>
       </c>
       <c r="G8" s="2">
-        <v>4.7729020000000002</v>
+        <v>4.2920109999999996</v>
       </c>
       <c r="H8" s="2">
-        <v>4.6179290000000002</v>
+        <v>4.5218470000000002</v>
       </c>
       <c r="I8" s="2">
-        <v>4.4050219999999998</v>
+        <v>4.5018200000000004</v>
       </c>
       <c r="J8" s="2">
-        <v>4.777908</v>
+        <v>4.3571</v>
       </c>
       <c r="K8" s="2">
-        <v>4.9681660000000001</v>
+        <v>4.3690199999999999</v>
       </c>
       <c r="L8" s="3">
-        <v>4.329205</v>
+        <v>4.4350620000000003</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -8972,37 +8971,37 @@
       </c>
       <c r="B9" s="11">
         <f t="shared" si="0"/>
-        <v>4.4019219999999999</v>
+        <v>4.5411590000000004</v>
       </c>
       <c r="C9" s="2">
-        <v>4.5568939999999998</v>
+        <v>4.8091410000000003</v>
       </c>
       <c r="D9" s="2">
-        <v>4.6670439999999997</v>
+        <v>4.6770569999999996</v>
       </c>
       <c r="E9" s="2">
-        <v>4.6498780000000002</v>
+        <v>4.5518879999999999</v>
       </c>
       <c r="F9" s="2">
-        <v>4.7428610000000004</v>
+        <v>4.7669410000000001</v>
       </c>
       <c r="G9" s="2">
-        <v>4.8069949999999997</v>
+        <v>4.5411590000000004</v>
       </c>
       <c r="H9" s="2">
-        <v>4.4770240000000001</v>
+        <v>4.6861170000000003</v>
       </c>
       <c r="I9" s="2">
-        <v>4.4169429999999998</v>
+        <v>4.5719149999999997</v>
       </c>
       <c r="J9" s="2">
-        <v>4.4019219999999999</v>
+        <v>4.8398969999999997</v>
       </c>
       <c r="K9" s="2">
-        <v>4.9121379999999997</v>
+        <v>4.5781140000000002</v>
       </c>
       <c r="L9" s="3">
-        <v>4.5568939999999998</v>
+        <v>4.8091410000000003</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -9012,37 +9011,37 @@
       </c>
       <c r="B10" s="11">
         <f t="shared" si="0"/>
-        <v>5.2280430000000004</v>
+        <v>5.3110119999999998</v>
       </c>
       <c r="C10" s="2">
-        <v>5.6529049999999996</v>
+        <v>5.3110119999999998</v>
       </c>
       <c r="D10" s="2">
-        <v>5.5110450000000002</v>
+        <v>5.4838659999999999</v>
       </c>
       <c r="E10" s="2">
-        <v>5.6519510000000004</v>
+        <v>5.3210259999999998</v>
       </c>
       <c r="F10" s="2">
-        <v>5.7029719999999999</v>
+        <v>5.6500430000000001</v>
       </c>
       <c r="G10" s="2">
-        <v>5.4650309999999998</v>
+        <v>5.4211619999999998</v>
       </c>
       <c r="H10" s="2">
-        <v>5.3639409999999996</v>
+        <v>5.5830479999999998</v>
       </c>
       <c r="I10" s="2">
-        <v>5.2280430000000004</v>
+        <v>5.4049490000000002</v>
       </c>
       <c r="J10" s="2">
-        <v>5.2340030000000004</v>
+        <v>5.5789949999999999</v>
       </c>
       <c r="K10" s="2">
-        <v>5.4190160000000001</v>
+        <v>5.3827759999999998</v>
       </c>
       <c r="L10" s="3">
-        <v>5.6529049999999996</v>
+        <v>5.3110119999999998</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -9052,37 +9051,37 @@
       </c>
       <c r="B11" s="11">
         <f t="shared" si="0"/>
-        <v>6.5460209999999996</v>
+        <v>6.494999</v>
       </c>
       <c r="C11" s="2">
-        <v>6.6831110000000002</v>
+        <v>6.8440440000000002</v>
       </c>
       <c r="D11" s="2">
-        <v>6.746054</v>
+        <v>6.998062</v>
       </c>
       <c r="E11" s="2">
-        <v>6.8349840000000004</v>
+        <v>6.7648890000000002</v>
       </c>
       <c r="F11" s="2">
-        <v>6.9451330000000002</v>
+        <v>6.8230630000000003</v>
       </c>
       <c r="G11" s="2">
-        <v>7.019997</v>
+        <v>6.8409440000000004</v>
       </c>
       <c r="H11" s="2">
-        <v>6.5460209999999996</v>
+        <v>6.7260270000000002</v>
       </c>
       <c r="I11" s="2">
-        <v>6.6440109999999999</v>
+        <v>6.7307949999999996</v>
       </c>
       <c r="J11" s="2">
-        <v>6.585121</v>
+        <v>6.494999</v>
       </c>
       <c r="K11" s="2">
-        <v>6.7441459999999998</v>
+        <v>6.7958829999999999</v>
       </c>
       <c r="L11" s="3">
-        <v>6.6831110000000002</v>
+        <v>6.8440440000000002</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -9092,37 +9091,37 @@
       </c>
       <c r="B12" s="11">
         <f t="shared" si="0"/>
-        <v>9.0379710000000006</v>
+        <v>8.9209080000000007</v>
       </c>
       <c r="C12" s="2">
-        <v>9.6111299999999993</v>
+        <v>9.4499589999999998</v>
       </c>
       <c r="D12" s="2">
-        <v>9.4540120000000005</v>
+        <v>8.9209080000000007</v>
       </c>
       <c r="E12" s="2">
-        <v>9.1450209999999998</v>
+        <v>9.2558860000000003</v>
       </c>
       <c r="F12" s="2">
-        <v>9.2880730000000007</v>
+        <v>9.2811579999999996</v>
       </c>
       <c r="G12" s="2">
-        <v>9.3431470000000001</v>
+        <v>9.1090199999999992</v>
       </c>
       <c r="H12" s="2">
-        <v>9.5748899999999999</v>
+        <v>9.5319749999999992</v>
       </c>
       <c r="I12" s="2">
-        <v>9.0379710000000006</v>
+        <v>9.2849730000000008</v>
       </c>
       <c r="J12" s="2">
-        <v>9.5160009999999993</v>
+        <v>9.2918869999999991</v>
       </c>
       <c r="K12" s="2">
-        <v>9.3338490000000007</v>
+        <v>9.4580649999999995</v>
       </c>
       <c r="L12" s="3">
-        <v>9.6111299999999993</v>
+        <v>9.4499589999999998</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -9132,37 +9131,37 @@
       </c>
       <c r="B13" s="11">
         <f t="shared" si="0"/>
-        <v>14.672041</v>
+        <v>14.677047999999999</v>
       </c>
       <c r="C13" s="2">
-        <v>14.770030999999999</v>
+        <v>14.768124</v>
       </c>
       <c r="D13" s="2">
-        <v>14.672041</v>
+        <v>14.677047999999999</v>
       </c>
       <c r="E13" s="2">
-        <v>14.801978999999999</v>
+        <v>14.781952</v>
       </c>
       <c r="F13" s="2">
-        <v>14.711857</v>
+        <v>14.715909999999999</v>
       </c>
       <c r="G13" s="2">
-        <v>14.724970000000001</v>
+        <v>14.693021999999999</v>
       </c>
       <c r="H13" s="2">
-        <v>14.840840999999999</v>
+        <v>14.83798</v>
       </c>
       <c r="I13" s="2">
-        <v>14.732122</v>
+        <v>14.757872000000001</v>
       </c>
       <c r="J13" s="2">
-        <v>14.769076999999999</v>
+        <v>14.738083</v>
       </c>
       <c r="K13" s="2">
-        <v>14.775990999999999</v>
+        <v>14.719963</v>
       </c>
       <c r="L13" s="3">
-        <v>14.770030999999999</v>
+        <v>14.768124</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -9172,37 +9171,37 @@
       </c>
       <c r="B14" s="11">
         <f t="shared" si="0"/>
-        <v>46.700001</v>
+        <v>46.594143000000003</v>
       </c>
       <c r="C14" s="2">
-        <v>46.819924999999998</v>
+        <v>46.904086999999997</v>
       </c>
       <c r="D14" s="2">
-        <v>46.994208999999998</v>
+        <v>46.729087999999997</v>
       </c>
       <c r="E14" s="2">
-        <v>46.782969999999999</v>
+        <v>47.281027000000002</v>
       </c>
       <c r="F14" s="2">
-        <v>46.771048999999998</v>
+        <v>46.981811999999998</v>
       </c>
       <c r="G14" s="2">
-        <v>46.854973000000001</v>
+        <v>46.594143000000003</v>
       </c>
       <c r="H14" s="2">
-        <v>46.973944000000003</v>
+        <v>47.017097</v>
       </c>
       <c r="I14" s="2">
-        <v>46.711922000000001</v>
+        <v>46.972036000000003</v>
       </c>
       <c r="J14" s="2">
-        <v>46.700001</v>
+        <v>47.106980999999998</v>
       </c>
       <c r="K14" s="2">
-        <v>46.709060999999998</v>
+        <v>46.773910999999998</v>
       </c>
       <c r="L14" s="3">
-        <v>46.819924999999998</v>
+        <v>46.904086999999997</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -9212,37 +9211,37 @@
       </c>
       <c r="B15" s="11">
         <f t="shared" si="0"/>
-        <v>49.597979000000002</v>
+        <v>49.566983999999998</v>
       </c>
       <c r="C15" s="2">
-        <v>49.845934</v>
+        <v>49.84498</v>
       </c>
       <c r="D15" s="2">
-        <v>50.075054000000002</v>
+        <v>49.708128000000002</v>
       </c>
       <c r="E15" s="2">
-        <v>49.823045999999998</v>
+        <v>50.125836999999997</v>
       </c>
       <c r="F15" s="2">
-        <v>49.968958000000001</v>
+        <v>49.974203000000003</v>
       </c>
       <c r="G15" s="2">
-        <v>49.962997000000001</v>
+        <v>49.566983999999998</v>
       </c>
       <c r="H15" s="2">
-        <v>50.853968000000002</v>
+        <v>49.962043999999999</v>
       </c>
       <c r="I15" s="2">
-        <v>49.597979000000002</v>
+        <v>49.856186000000001</v>
       </c>
       <c r="J15" s="2">
-        <v>49.638987</v>
+        <v>50.018071999999997</v>
       </c>
       <c r="K15" s="2">
-        <v>49.635171999999997</v>
+        <v>49.886941999999998</v>
       </c>
       <c r="L15" s="3">
-        <v>49.845934</v>
+        <v>49.84498</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -9252,37 +9251,37 @@
       </c>
       <c r="B16" s="11">
         <f t="shared" si="0"/>
-        <v>64.966916999999995</v>
+        <v>64.885855000000006</v>
       </c>
       <c r="C16" s="2">
-        <v>65.190077000000002</v>
+        <v>65.072059999999993</v>
       </c>
       <c r="D16" s="2">
-        <v>65.537930000000003</v>
+        <v>65.088033999999993</v>
       </c>
       <c r="E16" s="2">
-        <v>65.049171000000001</v>
+        <v>65.461873999999995</v>
       </c>
       <c r="F16" s="2">
-        <v>65.184116000000003</v>
+        <v>65.404892000000004</v>
       </c>
       <c r="G16" s="2">
-        <v>65.327883</v>
+        <v>64.885855000000006</v>
       </c>
       <c r="H16" s="2">
-        <v>65.196037000000004</v>
+        <v>65.526961999999997</v>
       </c>
       <c r="I16" s="2">
-        <v>64.966916999999995</v>
+        <v>65.335035000000005</v>
       </c>
       <c r="J16" s="2">
-        <v>65.040111999999993</v>
+        <v>65.411090999999999</v>
       </c>
       <c r="K16" s="2">
+        <v>65.284013999999999</v>
+      </c>
+      <c r="L16" s="3">
         <v>65.072059999999993</v>
-      </c>
-      <c r="L16" s="3">
-        <v>65.190077000000002</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -9292,37 +9291,37 @@
       </c>
       <c r="B17" s="11">
         <f t="shared" si="0"/>
-        <v>95.782042000000004</v>
+        <v>95.501900000000006</v>
       </c>
       <c r="C17" s="2">
-        <v>96.009016000000003</v>
+        <v>95.946073999999996</v>
       </c>
       <c r="D17" s="2">
-        <v>96.173047999999994</v>
+        <v>95.880032</v>
       </c>
       <c r="E17" s="2">
-        <v>96.024035999999995</v>
+        <v>96.211910000000003</v>
       </c>
       <c r="F17" s="2">
-        <v>96.022844000000006</v>
+        <v>97.254037999999994</v>
       </c>
       <c r="G17" s="2">
-        <v>96.054077000000007</v>
+        <v>95.501900000000006</v>
       </c>
       <c r="H17" s="2">
-        <v>95.782042000000004</v>
+        <v>96.141099999999994</v>
       </c>
       <c r="I17" s="2">
-        <v>95.783949000000007</v>
+        <v>96.018075999999994</v>
       </c>
       <c r="J17" s="2">
-        <v>95.824003000000005</v>
+        <v>96.052885000000003</v>
       </c>
       <c r="K17" s="2">
-        <v>95.813035999999997</v>
+        <v>95.932961000000006</v>
       </c>
       <c r="L17" s="3">
-        <v>96.009016000000003</v>
+        <v>95.946073999999996</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -9332,37 +9331,37 @@
       </c>
       <c r="B18" s="11">
         <f t="shared" si="0"/>
-        <v>157.37891200000001</v>
+        <v>157.09710100000001</v>
       </c>
       <c r="C18" s="2">
-        <v>157.45902100000001</v>
+        <v>157.43994699999999</v>
       </c>
       <c r="D18" s="2">
-        <v>157.78994599999999</v>
+        <v>157.31811500000001</v>
       </c>
       <c r="E18" s="2">
-        <v>157.515049</v>
+        <v>157.72295</v>
       </c>
       <c r="F18" s="2">
-        <v>157.406092</v>
+        <v>157.430172</v>
       </c>
       <c r="G18" s="2">
-        <v>157.62519800000001</v>
+        <v>157.09710100000001</v>
       </c>
       <c r="H18" s="2">
-        <v>157.37891200000001</v>
+        <v>157.74488400000001</v>
       </c>
       <c r="I18" s="2">
-        <v>157.41205199999999</v>
+        <v>157.79686000000001</v>
       </c>
       <c r="J18" s="2">
-        <v>157.46402699999999</v>
+        <v>157.562971</v>
       </c>
       <c r="K18" s="2">
-        <v>157.42301900000001</v>
+        <v>157.591105</v>
       </c>
       <c r="L18" s="3">
-        <v>157.45902100000001</v>
+        <v>157.43994699999999</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -9372,37 +9371,37 @@
       </c>
       <c r="B19" s="11">
         <f t="shared" si="0"/>
-        <v>204.21004300000001</v>
+        <v>203.612089</v>
       </c>
       <c r="C19" s="2">
-        <v>204.498053</v>
+        <v>204.29491999999999</v>
       </c>
       <c r="D19" s="2">
-        <v>204.69594000000001</v>
+        <v>204.02002300000001</v>
       </c>
       <c r="E19" s="2">
-        <v>204.28013799999999</v>
+        <v>204.288006</v>
       </c>
       <c r="F19" s="2">
-        <v>204.288006</v>
+        <v>204.21195</v>
       </c>
       <c r="G19" s="2">
-        <v>205.74307400000001</v>
+        <v>203.612089</v>
       </c>
       <c r="H19" s="2">
-        <v>204.32400699999999</v>
+        <v>204.60796400000001</v>
       </c>
       <c r="I19" s="2">
-        <v>204.25701100000001</v>
+        <v>204.45513700000001</v>
       </c>
       <c r="J19" s="2">
-        <v>204.27799200000001</v>
+        <v>204.329014</v>
       </c>
       <c r="K19" s="2">
-        <v>204.21004300000001</v>
+        <v>204.46801199999999</v>
       </c>
       <c r="L19" s="3">
-        <v>204.498053</v>
+        <v>204.29491999999999</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -9412,37 +9411,37 @@
       </c>
       <c r="B20" s="11">
         <f t="shared" si="0"/>
-        <v>298.393011</v>
+        <v>296.96393</v>
       </c>
       <c r="C20" s="2">
-        <v>299.05104599999999</v>
+        <v>298.26808</v>
       </c>
       <c r="D20" s="2">
-        <v>298.92492299999998</v>
+        <v>297.34778399999999</v>
       </c>
       <c r="E20" s="2">
-        <v>298.56109600000002</v>
+        <v>298.18296400000003</v>
       </c>
       <c r="F20" s="2">
-        <v>299.51095600000002</v>
+        <v>297.82509800000003</v>
       </c>
       <c r="G20" s="2">
-        <v>298.68602800000002</v>
+        <v>296.96393</v>
       </c>
       <c r="H20" s="2">
-        <v>298.51102800000001</v>
+        <v>298.30312700000002</v>
       </c>
       <c r="I20" s="2">
-        <v>298.393011</v>
+        <v>297.75190400000002</v>
       </c>
       <c r="J20" s="2">
-        <v>298.50602099999998</v>
+        <v>298.01416399999999</v>
       </c>
       <c r="K20" s="2">
-        <v>298.58207700000003</v>
+        <v>297.70994200000001</v>
       </c>
       <c r="L20" s="3">
-        <v>299.05104599999999</v>
+        <v>298.26808</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -9452,37 +9451,37 @@
       </c>
       <c r="B21" s="11">
         <f t="shared" si="0"/>
-        <v>486.27710300000001</v>
+        <v>484.58004</v>
       </c>
       <c r="C21" s="2">
-        <v>486.91797300000002</v>
+        <v>486.55605300000002</v>
       </c>
       <c r="D21" s="2">
-        <v>487.36381499999999</v>
+        <v>485.72087299999998</v>
       </c>
       <c r="E21" s="2">
-        <v>487.445831</v>
+        <v>485.82696900000002</v>
       </c>
       <c r="F21" s="2">
-        <v>486.27710300000001</v>
+        <v>485.13793900000002</v>
       </c>
       <c r="G21" s="2">
-        <v>487.12992700000001</v>
+        <v>484.58004</v>
       </c>
       <c r="H21" s="2">
-        <v>487.31088599999998</v>
+        <v>487.14995399999998</v>
       </c>
       <c r="I21" s="2">
-        <v>487.16592800000001</v>
+        <v>485.42690299999998</v>
       </c>
       <c r="J21" s="2">
-        <v>486.86981200000002</v>
+        <v>485.83292999999998</v>
       </c>
       <c r="K21" s="2">
-        <v>487.41984400000001</v>
+        <v>485.597849</v>
       </c>
       <c r="L21" s="3">
-        <v>486.91797300000002</v>
+        <v>486.55605300000002</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="19" thickBot="1" x14ac:dyDescent="0.3">
@@ -9492,37 +9491,37 @@
       </c>
       <c r="B22" s="12">
         <f t="shared" si="0"/>
-        <v>886.933088</v>
+        <v>883.67509800000005</v>
       </c>
       <c r="C22" s="5">
-        <v>886.96909000000005</v>
+        <v>886.10696800000005</v>
       </c>
       <c r="D22" s="5">
-        <v>887.48812699999996</v>
+        <v>884.36293599999999</v>
       </c>
       <c r="E22" s="5">
-        <v>887.28904699999998</v>
+        <v>884.99999000000003</v>
       </c>
       <c r="F22" s="5">
-        <v>886.933088</v>
+        <v>885.70094099999994</v>
       </c>
       <c r="G22" s="5">
-        <v>887.53199600000005</v>
+        <v>883.67509800000005</v>
       </c>
       <c r="H22" s="5">
-        <v>887.62593300000003</v>
+        <v>886.61289199999999</v>
       </c>
       <c r="I22" s="5">
-        <v>887.20583899999997</v>
+        <v>884.43398500000001</v>
       </c>
       <c r="J22" s="5">
-        <v>887.49599499999999</v>
+        <v>885.55598299999997</v>
       </c>
       <c r="K22" s="5">
-        <v>887.04800599999999</v>
+        <v>884.18698300000005</v>
       </c>
       <c r="L22" s="6">
-        <v>886.96909000000005</v>
+        <v>886.10696800000005</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="19" thickBot="1" x14ac:dyDescent="0.3">
@@ -9574,37 +9573,37 @@
       </c>
       <c r="B27" s="11">
         <f>MIN(C27:L27)</f>
-        <v>2.2211069999999999</v>
+        <v>2.5529860000000002</v>
       </c>
       <c r="C27" s="2">
-        <v>2.3460390000000002</v>
+        <v>2.9881000000000002</v>
       </c>
       <c r="D27" s="2">
-        <v>2.3729800000000001</v>
+        <v>2.5529860000000002</v>
       </c>
       <c r="E27" s="2">
-        <v>2.2211069999999999</v>
+        <v>2.6869770000000002</v>
       </c>
       <c r="F27" s="2">
-        <v>2.287865</v>
+        <v>2.6130680000000002</v>
       </c>
       <c r="G27" s="2">
-        <v>2.2919179999999999</v>
+        <v>2.5639530000000001</v>
       </c>
       <c r="H27" s="2">
-        <v>2.321005</v>
+        <v>2.8698440000000001</v>
       </c>
       <c r="I27" s="2">
-        <v>2.2289750000000002</v>
+        <v>4.1370389999999997</v>
       </c>
       <c r="J27" s="2">
-        <v>2.4781230000000001</v>
+        <v>2.5660989999999999</v>
       </c>
       <c r="K27" s="2">
-        <v>2.4170880000000001</v>
+        <v>2.590179</v>
       </c>
       <c r="L27" s="3">
-        <v>2.3460390000000002</v>
+        <v>2.9881000000000002</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -9614,37 +9613,37 @@
       </c>
       <c r="B28" s="11">
         <f t="shared" ref="B28:B46" si="2">MIN(C28:L28)</f>
-        <v>2.2850039999999998</v>
+        <v>2.5589469999999999</v>
       </c>
       <c r="C28" s="2">
-        <v>2.3748870000000002</v>
+        <v>2.6040079999999999</v>
       </c>
       <c r="D28" s="2">
-        <v>2.3591519999999999</v>
+        <v>2.5908950000000002</v>
       </c>
       <c r="E28" s="2">
-        <v>2.4151799999999999</v>
+        <v>2.5589469999999999</v>
       </c>
       <c r="F28" s="2">
-        <v>2.3410319999999998</v>
+        <v>2.7070050000000001</v>
       </c>
       <c r="G28" s="2">
-        <v>2.2850039999999998</v>
+        <v>2.738953</v>
       </c>
       <c r="H28" s="2">
-        <v>2.449036</v>
+        <v>2.6209349999999998</v>
       </c>
       <c r="I28" s="2">
-        <v>2.5639530000000001</v>
+        <v>4.101038</v>
       </c>
       <c r="J28" s="2">
-        <v>2.4280550000000001</v>
+        <v>2.6049609999999999</v>
       </c>
       <c r="K28" s="2">
-        <v>2.662182</v>
+        <v>2.5770659999999999</v>
       </c>
       <c r="L28" s="3">
-        <v>2.3748870000000002</v>
+        <v>2.6040079999999999</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -9654,37 +9653,37 @@
       </c>
       <c r="B29" s="11">
         <f t="shared" si="2"/>
-        <v>4.2769909999999998</v>
+        <v>4.1918749999999996</v>
       </c>
       <c r="C29" s="2">
-        <v>4.4198040000000001</v>
+        <v>4.3199059999999996</v>
       </c>
       <c r="D29" s="2">
-        <v>4.3511389999999999</v>
+        <v>4.2948719999999998</v>
       </c>
       <c r="E29" s="2">
-        <v>4.3988230000000001</v>
+        <v>4.3499470000000002</v>
       </c>
       <c r="F29" s="2">
-        <v>4.4960979999999999</v>
+        <v>4.2679309999999999</v>
       </c>
       <c r="G29" s="2">
-        <v>4.2769909999999998</v>
+        <v>4.4269559999999997</v>
       </c>
       <c r="H29" s="2">
-        <v>4.6000480000000001</v>
+        <v>4.1918749999999996</v>
       </c>
       <c r="I29" s="2">
-        <v>4.3489930000000001</v>
+        <v>6.0389039999999996</v>
       </c>
       <c r="J29" s="2">
-        <v>4.4829850000000002</v>
+        <v>4.2400359999999999</v>
       </c>
       <c r="K29" s="2">
-        <v>4.6398640000000002</v>
+        <v>4.4219489999999997</v>
       </c>
       <c r="L29" s="3">
-        <v>4.4198040000000001</v>
+        <v>4.3199059999999996</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -9694,37 +9693,37 @@
       </c>
       <c r="B30" s="11">
         <f t="shared" si="2"/>
-        <v>4.0569309999999996</v>
+        <v>4.0330890000000004</v>
       </c>
       <c r="C30" s="2">
-        <v>4.8689840000000002</v>
+        <v>4.6410559999999998</v>
       </c>
       <c r="D30" s="2">
-        <v>4.0569309999999996</v>
+        <v>4.2459959999999999</v>
       </c>
       <c r="E30" s="2">
-        <v>4.2610169999999998</v>
+        <v>4.3098929999999998</v>
       </c>
       <c r="F30" s="2">
-        <v>4.2238239999999996</v>
+        <v>4.2331219999999998</v>
       </c>
       <c r="G30" s="2">
-        <v>4.3840409999999999</v>
+        <v>4.0330890000000004</v>
       </c>
       <c r="H30" s="2">
-        <v>4.3599610000000002</v>
+        <v>4.0907859999999996</v>
       </c>
       <c r="I30" s="2">
-        <v>4.2910579999999996</v>
+        <v>6.0069559999999997</v>
       </c>
       <c r="J30" s="2">
-        <v>4.4741629999999999</v>
+        <v>4.2369370000000002</v>
       </c>
       <c r="K30" s="2">
-        <v>4.3838020000000002</v>
+        <v>4.4710640000000001</v>
       </c>
       <c r="L30" s="3">
-        <v>4.8689840000000002</v>
+        <v>4.6410559999999998</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -9734,37 +9733,37 @@
       </c>
       <c r="B31" s="11">
         <f t="shared" si="2"/>
-        <v>4.0051940000000004</v>
+        <v>4.0190219999999997</v>
       </c>
       <c r="C31" s="2">
-        <v>4.3830869999999997</v>
+        <v>4.4009689999999999</v>
       </c>
       <c r="D31" s="2">
-        <v>4.4012070000000003</v>
+        <v>4.5640470000000004</v>
       </c>
       <c r="E31" s="2">
-        <v>4.3640140000000001</v>
+        <v>4.2278770000000003</v>
       </c>
       <c r="F31" s="2">
-        <v>4.2269230000000002</v>
+        <v>4.4558049999999998</v>
       </c>
       <c r="G31" s="2">
-        <v>4.0051940000000004</v>
+        <v>4.7020910000000002</v>
       </c>
       <c r="H31" s="2">
-        <v>4.4269559999999997</v>
+        <v>4.0190219999999997</v>
       </c>
       <c r="I31" s="2">
-        <v>4.654884</v>
+        <v>7.5662140000000004</v>
       </c>
       <c r="J31" s="2">
-        <v>4.2049880000000002</v>
+        <v>4.3759350000000001</v>
       </c>
       <c r="K31" s="2">
-        <v>4.7562119999999997</v>
+        <v>4.3449400000000002</v>
       </c>
       <c r="L31" s="3">
-        <v>4.3830869999999997</v>
+        <v>4.4009689999999999</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -9774,37 +9773,37 @@
       </c>
       <c r="B32" s="11">
         <f t="shared" si="2"/>
-        <v>4.1391850000000003</v>
+        <v>4.2049880000000002</v>
       </c>
       <c r="C32" s="2">
-        <v>4.5490259999999996</v>
+        <v>4.6441559999999997</v>
       </c>
       <c r="D32" s="2">
-        <v>4.1940210000000002</v>
+        <v>4.3158529999999997</v>
       </c>
       <c r="E32" s="2">
-        <v>4.6718120000000001</v>
+        <v>4.536867</v>
       </c>
       <c r="F32" s="2">
-        <v>4.6381949999999996</v>
+        <v>4.2049880000000002</v>
       </c>
       <c r="G32" s="2">
-        <v>4.1391850000000003</v>
+        <v>4.256964</v>
       </c>
       <c r="H32" s="2">
-        <v>4.8129559999999998</v>
+        <v>4.4739250000000004</v>
       </c>
       <c r="I32" s="2">
-        <v>4.4820310000000001</v>
+        <v>4.8909190000000002</v>
       </c>
       <c r="J32" s="2">
-        <v>4.6749109999999998</v>
+        <v>4.4808389999999996</v>
       </c>
       <c r="K32" s="2">
-        <v>4.5559409999999998</v>
+        <v>4.743099</v>
       </c>
       <c r="L32" s="3">
-        <v>4.5490259999999996</v>
+        <v>4.6441559999999997</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -9814,37 +9813,37 @@
       </c>
       <c r="B33" s="11">
         <f t="shared" si="2"/>
-        <v>4.3249129999999996</v>
+        <v>4.4820310000000001</v>
       </c>
       <c r="C33" s="2">
-        <v>4.6811100000000003</v>
+        <v>4.7469140000000003</v>
       </c>
       <c r="D33" s="2">
-        <v>4.3249129999999996</v>
+        <v>4.6491619999999996</v>
       </c>
       <c r="E33" s="2">
-        <v>4.3950079999999998</v>
+        <v>4.6160220000000001</v>
       </c>
       <c r="F33" s="2">
-        <v>4.5700070000000004</v>
+        <v>4.4820310000000001</v>
       </c>
       <c r="G33" s="2">
-        <v>4.6849249999999998</v>
+        <v>4.6398640000000002</v>
       </c>
       <c r="H33" s="2">
-        <v>4.7068599999999998</v>
+        <v>4.5509339999999998</v>
       </c>
       <c r="I33" s="2">
-        <v>4.6739579999999998</v>
+        <v>5.1620010000000001</v>
       </c>
       <c r="J33" s="2">
-        <v>4.8139099999999999</v>
+        <v>4.6510699999999998</v>
       </c>
       <c r="K33" s="2">
-        <v>4.7130580000000002</v>
+        <v>4.6830179999999997</v>
       </c>
       <c r="L33" s="3">
-        <v>4.6811100000000003</v>
+        <v>4.7469140000000003</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -9854,37 +9853,37 @@
       </c>
       <c r="B34" s="11">
         <f t="shared" si="2"/>
-        <v>5.1288600000000004</v>
+        <v>5.2421090000000001</v>
       </c>
       <c r="C34" s="2">
-        <v>5.6529049999999996</v>
+        <v>5.7621000000000002</v>
       </c>
       <c r="D34" s="2">
-        <v>5.4509639999999999</v>
+        <v>5.3920750000000002</v>
       </c>
       <c r="E34" s="2">
-        <v>5.5220130000000003</v>
+        <v>5.369186</v>
       </c>
       <c r="F34" s="2">
-        <v>5.5949689999999999</v>
+        <v>5.2988530000000003</v>
       </c>
       <c r="G34" s="2">
-        <v>5.1288600000000004</v>
+        <v>5.3110119999999998</v>
       </c>
       <c r="H34" s="2">
-        <v>5.5210590000000002</v>
+        <v>5.2421090000000001</v>
       </c>
       <c r="I34" s="2">
-        <v>5.5589680000000001</v>
+        <v>6.0260300000000004</v>
       </c>
       <c r="J34" s="2">
-        <v>5.7411190000000003</v>
+        <v>5.4430959999999997</v>
       </c>
       <c r="K34" s="2">
-        <v>5.6619640000000002</v>
+        <v>5.5499080000000003</v>
       </c>
       <c r="L34" s="3">
-        <v>5.6529049999999996</v>
+        <v>5.7621000000000002</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -9894,37 +9893,37 @@
       </c>
       <c r="B35" s="11">
         <f t="shared" si="2"/>
-        <v>6.446123</v>
+        <v>6.3481329999999998</v>
       </c>
       <c r="C35" s="2">
-        <v>6.6139700000000001</v>
+        <v>6.8328379999999997</v>
       </c>
       <c r="D35" s="2">
-        <v>6.446123</v>
+        <v>6.7069530000000004</v>
       </c>
       <c r="E35" s="2">
-        <v>6.5889360000000003</v>
+        <v>6.8171020000000002</v>
       </c>
       <c r="F35" s="2">
-        <v>6.8299770000000004</v>
+        <v>6.6900250000000003</v>
       </c>
       <c r="G35" s="2">
-        <v>6.6831110000000002</v>
+        <v>6.8819520000000001</v>
       </c>
       <c r="H35" s="2">
-        <v>6.880045</v>
+        <v>6.3481329999999998</v>
       </c>
       <c r="I35" s="2">
-        <v>6.6938399999999998</v>
+        <v>9.4900129999999994</v>
       </c>
       <c r="J35" s="2">
-        <v>6.5388679999999999</v>
+        <v>6.8130490000000004</v>
       </c>
       <c r="K35" s="2">
-        <v>6.7579750000000001</v>
+        <v>6.7780019999999999</v>
       </c>
       <c r="L35" s="3">
-        <v>6.6139700000000001</v>
+        <v>6.8328379999999997</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -9934,37 +9933,37 @@
       </c>
       <c r="B36" s="11">
         <f t="shared" si="2"/>
-        <v>9.1850760000000005</v>
+        <v>8.8951589999999996</v>
       </c>
       <c r="C36" s="2">
-        <v>9.5469950000000008</v>
+        <v>9.263992</v>
       </c>
       <c r="D36" s="2">
-        <v>9.5329280000000001</v>
+        <v>9.2048649999999999</v>
       </c>
       <c r="E36" s="2">
-        <v>9.1850760000000005</v>
+        <v>9.5210080000000001</v>
       </c>
       <c r="F36" s="2">
-        <v>10.253906000000001</v>
+        <v>9.3188289999999991</v>
       </c>
       <c r="G36" s="2">
-        <v>9.3169210000000007</v>
+        <v>8.8951589999999996</v>
       </c>
       <c r="H36" s="2">
-        <v>9.7451209999999993</v>
+        <v>9.4418530000000001</v>
       </c>
       <c r="I36" s="2">
-        <v>9.3080999999999996</v>
+        <v>12.630939</v>
       </c>
       <c r="J36" s="2">
-        <v>9.5858570000000007</v>
+        <v>9.4671249999999993</v>
       </c>
       <c r="K36" s="2">
-        <v>9.6390250000000002</v>
+        <v>9.3789099999999994</v>
       </c>
       <c r="L36" s="3">
-        <v>9.5469950000000008</v>
+        <v>9.263992</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
@@ -9974,37 +9973,37 @@
       </c>
       <c r="B37" s="11">
         <f t="shared" si="2"/>
-        <v>14.697075</v>
+        <v>14.684915999999999</v>
       </c>
       <c r="C37" s="2">
-        <v>14.84704</v>
+        <v>15.303850000000001</v>
       </c>
       <c r="D37" s="2">
-        <v>14.753102999999999</v>
+        <v>14.690875999999999</v>
       </c>
       <c r="E37" s="2">
-        <v>14.729977</v>
+        <v>14.770985</v>
       </c>
       <c r="F37" s="2">
-        <v>14.801978999999999</v>
+        <v>14.815092</v>
       </c>
       <c r="G37" s="2">
-        <v>14.697075</v>
+        <v>14.717817</v>
       </c>
       <c r="H37" s="2">
-        <v>14.704943</v>
+        <v>14.694214000000001</v>
       </c>
       <c r="I37" s="2">
-        <v>14.823914</v>
+        <v>18.408059999999999</v>
       </c>
       <c r="J37" s="2">
-        <v>14.708042000000001</v>
+        <v>14.684915999999999</v>
       </c>
       <c r="K37" s="2">
-        <v>14.783144</v>
+        <v>14.746904000000001</v>
       </c>
       <c r="L37" s="3">
-        <v>14.84704</v>
+        <v>15.303850000000001</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
@@ -10014,37 +10013,37 @@
       </c>
       <c r="B38" s="11">
         <f t="shared" si="2"/>
-        <v>75.664043000000007</v>
+        <v>75.479984000000002</v>
       </c>
       <c r="C38" s="2">
-        <v>75.923919999999995</v>
+        <v>75.479984000000002</v>
       </c>
       <c r="D38" s="2">
-        <v>75.852155999999994</v>
+        <v>75.814008999999999</v>
       </c>
       <c r="E38" s="2">
-        <v>75.850964000000005</v>
+        <v>75.874089999999995</v>
       </c>
       <c r="F38" s="2">
-        <v>75.964928</v>
+        <v>75.853825000000001</v>
       </c>
       <c r="G38" s="2">
-        <v>75.664043000000007</v>
+        <v>75.910090999999994</v>
       </c>
       <c r="H38" s="2">
-        <v>75.915813</v>
+        <v>75.744866999999999</v>
       </c>
       <c r="I38" s="2">
-        <v>75.870036999999996</v>
+        <v>80.225944999999996</v>
       </c>
       <c r="J38" s="2">
-        <v>75.819969</v>
+        <v>75.742959999999997</v>
       </c>
       <c r="K38" s="2">
-        <v>76.173067000000003</v>
+        <v>75.793982</v>
       </c>
       <c r="L38" s="3">
-        <v>75.923919999999995</v>
+        <v>75.479984000000002</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -10054,37 +10053,37 @@
       </c>
       <c r="B39" s="11">
         <f t="shared" si="2"/>
-        <v>130.821943</v>
+        <v>130.84197</v>
       </c>
       <c r="C39" s="2">
-        <v>131.042957</v>
+        <v>130.84197</v>
       </c>
       <c r="D39" s="2">
-        <v>131.08086599999999</v>
+        <v>130.86414300000001</v>
       </c>
       <c r="E39" s="2">
-        <v>130.97286199999999</v>
+        <v>130.959034</v>
       </c>
       <c r="F39" s="2">
-        <v>130.977869</v>
+        <v>130.96809400000001</v>
       </c>
       <c r="G39" s="2">
-        <v>130.902052</v>
+        <v>130.99312800000001</v>
       </c>
       <c r="H39" s="2">
-        <v>131.01696999999999</v>
+        <v>130.84912299999999</v>
       </c>
       <c r="I39" s="2">
-        <v>131.08992599999999</v>
+        <v>131.05678599999999</v>
       </c>
       <c r="J39" s="2">
-        <v>130.821943</v>
+        <v>131.18100200000001</v>
       </c>
       <c r="K39" s="2">
-        <v>131.13713300000001</v>
+        <v>130.88798499999999</v>
       </c>
       <c r="L39" s="3">
-        <v>131.042957</v>
+        <v>130.84197</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -10094,37 +10093,37 @@
       </c>
       <c r="B40" s="11">
         <f t="shared" si="2"/>
-        <v>241.37187</v>
+        <v>241.145849</v>
       </c>
       <c r="C40" s="2">
-        <v>241.618156</v>
+        <v>241.276026</v>
       </c>
       <c r="D40" s="2">
-        <v>241.61314999999999</v>
+        <v>241.366863</v>
       </c>
       <c r="E40" s="2">
-        <v>241.51396800000001</v>
+        <v>241.33300800000001</v>
       </c>
       <c r="F40" s="2">
-        <v>241.37187</v>
+        <v>241.26100500000001</v>
       </c>
       <c r="G40" s="2">
-        <v>241.498232</v>
+        <v>241.425037</v>
       </c>
       <c r="H40" s="2">
-        <v>241.58382399999999</v>
+        <v>241.31512599999999</v>
       </c>
       <c r="I40" s="2">
-        <v>241.673946</v>
+        <v>241.145849</v>
       </c>
       <c r="J40" s="2">
-        <v>241.58692400000001</v>
+        <v>241.32895500000001</v>
       </c>
       <c r="K40" s="2">
-        <v>241.72020000000001</v>
+        <v>241.883039</v>
       </c>
       <c r="L40" s="3">
-        <v>241.618156</v>
+        <v>241.276026</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -10134,37 +10133,37 @@
       </c>
       <c r="B41" s="11">
         <f t="shared" si="2"/>
-        <v>462.24999400000002</v>
+        <v>461.87496199999998</v>
       </c>
       <c r="C41" s="2">
-        <v>462.26692200000002</v>
+        <v>461.91382399999998</v>
       </c>
       <c r="D41" s="2">
-        <v>462.567091</v>
+        <v>462.151051</v>
       </c>
       <c r="E41" s="2">
-        <v>462.57996600000001</v>
+        <v>462.02301999999997</v>
       </c>
       <c r="F41" s="2">
-        <v>462.24999400000002</v>
+        <v>462.00490000000002</v>
       </c>
       <c r="G41" s="2">
-        <v>462.32700299999999</v>
+        <v>461.87615399999999</v>
       </c>
       <c r="H41" s="2">
-        <v>462.31913600000001</v>
+        <v>462.02111200000002</v>
       </c>
       <c r="I41" s="2">
-        <v>462.26692200000002</v>
+        <v>461.87496199999998</v>
       </c>
       <c r="J41" s="2">
-        <v>462.49508900000001</v>
+        <v>461.92383799999999</v>
       </c>
       <c r="K41" s="2">
-        <v>462.32104299999997</v>
+        <v>461.969852</v>
       </c>
       <c r="L41" s="3">
-        <v>462.26692200000002</v>
+        <v>461.91382399999998</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
@@ -10174,37 +10173,37 @@
       </c>
       <c r="B42" s="11">
         <f t="shared" si="2"/>
-        <v>903.90801399999998</v>
+        <v>902.70996100000002</v>
       </c>
       <c r="C42" s="2">
-        <v>903.90801399999998</v>
+        <v>902.70996100000002</v>
       </c>
       <c r="D42" s="2">
-        <v>904.10995500000001</v>
+        <v>902.83417699999995</v>
       </c>
       <c r="E42" s="2">
-        <v>904.13403500000004</v>
+        <v>905.70497499999999</v>
       </c>
       <c r="F42" s="2">
-        <v>904.16192999999998</v>
+        <v>903.02801099999999</v>
       </c>
       <c r="G42" s="2">
-        <v>903.99098400000003</v>
+        <v>903.05185300000005</v>
       </c>
       <c r="H42" s="2">
-        <v>904.02698499999997</v>
+        <v>902.99201000000005</v>
       </c>
       <c r="I42" s="2">
-        <v>903.915167</v>
+        <v>902.97794299999998</v>
       </c>
       <c r="J42" s="2">
-        <v>904.52909499999998</v>
+        <v>903.07497999999998</v>
       </c>
       <c r="K42" s="2">
-        <v>904.28805399999999</v>
+        <v>903.44715099999996</v>
       </c>
       <c r="L42" s="3">
-        <v>903.90801399999998</v>
+        <v>902.70996100000002</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
@@ -10214,37 +10213,37 @@
       </c>
       <c r="B43" s="11">
         <f t="shared" si="2"/>
-        <v>203.572035</v>
+        <v>203.88698600000001</v>
       </c>
       <c r="C43" s="2">
-        <v>204.84995799999999</v>
+        <v>204.27513099999999</v>
       </c>
       <c r="D43" s="2">
-        <v>204.301119</v>
+        <v>204.05793199999999</v>
       </c>
       <c r="E43" s="2">
-        <v>203.572035</v>
+        <v>204.14090200000001</v>
       </c>
       <c r="F43" s="2">
-        <v>204.35404800000001</v>
+        <v>203.88698600000001</v>
       </c>
       <c r="G43" s="2">
-        <v>204.09011799999999</v>
+        <v>203.979015</v>
       </c>
       <c r="H43" s="2">
-        <v>204.96010799999999</v>
+        <v>204.20908900000001</v>
       </c>
       <c r="I43" s="2">
-        <v>204.60009600000001</v>
+        <v>204.30398</v>
       </c>
       <c r="J43" s="2">
-        <v>203.857899</v>
+        <v>204.026937</v>
       </c>
       <c r="K43" s="2">
-        <v>204.78105500000001</v>
+        <v>203.97186300000001</v>
       </c>
       <c r="L43" s="3">
-        <v>204.84995799999999</v>
+        <v>204.27513099999999</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
@@ -10254,37 +10253,37 @@
       </c>
       <c r="B44" s="11">
         <f t="shared" si="2"/>
-        <v>296.88596699999999</v>
+        <v>297.354221</v>
       </c>
       <c r="C44" s="2">
-        <v>297.98388499999999</v>
+        <v>297.62411100000003</v>
       </c>
       <c r="D44" s="2">
-        <v>298.691034</v>
+        <v>297.51610799999997</v>
       </c>
       <c r="E44" s="2">
-        <v>296.88596699999999</v>
+        <v>297.76310899999999</v>
       </c>
       <c r="F44" s="2">
-        <v>298.06804699999998</v>
+        <v>297.53112800000002</v>
       </c>
       <c r="G44" s="2">
-        <v>298.12884300000002</v>
+        <v>297.606945</v>
       </c>
       <c r="H44" s="2">
-        <v>298.41017699999998</v>
+        <v>297.354221</v>
       </c>
       <c r="I44" s="2">
-        <v>299.36003699999998</v>
+        <v>298.11620699999997</v>
       </c>
       <c r="J44" s="2">
-        <v>297.58310299999999</v>
+        <v>297.59693099999998</v>
       </c>
       <c r="K44" s="2">
-        <v>298.44093299999997</v>
+        <v>297.65892000000002</v>
       </c>
       <c r="L44" s="3">
-        <v>297.98388499999999</v>
+        <v>297.62411100000003</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -10294,37 +10293,37 @@
       </c>
       <c r="B45" s="11">
         <f t="shared" si="2"/>
-        <v>484.46393</v>
+        <v>484.78102699999999</v>
       </c>
       <c r="C45" s="2">
-        <v>486.72103900000002</v>
+        <v>486.13500599999998</v>
       </c>
       <c r="D45" s="2">
-        <v>487.64204999999998</v>
+        <v>485.82887599999998</v>
       </c>
       <c r="E45" s="2">
-        <v>484.46393</v>
+        <v>485.61716100000001</v>
       </c>
       <c r="F45" s="2">
-        <v>490.33403399999997</v>
+        <v>484.78102699999999</v>
       </c>
       <c r="G45" s="2">
-        <v>487.08081199999998</v>
+        <v>485.301018</v>
       </c>
       <c r="H45" s="2">
-        <v>487.44297</v>
+        <v>485.309124</v>
       </c>
       <c r="I45" s="2">
-        <v>487.95890800000001</v>
+        <v>486.13596000000001</v>
       </c>
       <c r="J45" s="2">
-        <v>485.43906199999998</v>
+        <v>485.14485400000001</v>
       </c>
       <c r="K45" s="2">
-        <v>487.12801899999999</v>
+        <v>485.34297900000001</v>
       </c>
       <c r="L45" s="3">
-        <v>486.72103900000002</v>
+        <v>486.13500599999998</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="19" thickBot="1" x14ac:dyDescent="0.3">
@@ -10334,37 +10333,37 @@
       </c>
       <c r="B46" s="12">
         <f t="shared" si="2"/>
-        <v>881.79612199999997</v>
+        <v>882.72810000000004</v>
       </c>
       <c r="C46" s="5">
-        <v>885.54406200000005</v>
+        <v>884.218931</v>
       </c>
       <c r="D46" s="5">
-        <v>889.27698099999998</v>
+        <v>883.91709300000002</v>
       </c>
       <c r="E46" s="5">
-        <v>881.79612199999997</v>
+        <v>883.25285899999994</v>
       </c>
       <c r="F46" s="5">
-        <v>885.26606600000002</v>
+        <v>883.12101399999995</v>
       </c>
       <c r="G46" s="5">
-        <v>886.27195400000005</v>
+        <v>882.72810000000004</v>
       </c>
       <c r="H46" s="5">
-        <v>886.89517999999998</v>
+        <v>883.41784500000006</v>
       </c>
       <c r="I46" s="5">
-        <v>887.73393599999997</v>
+        <v>885.05005800000004</v>
       </c>
       <c r="J46" s="5">
-        <v>884.51004</v>
+        <v>889.18399799999997</v>
       </c>
       <c r="K46" s="5">
-        <v>887.97116300000005</v>
+        <v>883.38303599999995</v>
       </c>
       <c r="L46" s="6">
-        <v>885.54406200000005</v>
+        <v>884.218931</v>
       </c>
     </row>
   </sheetData>

--- a/pingpong/pingpong.xlsx
+++ b/pingpong/pingpong.xlsx
@@ -9,13 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="4140" windowWidth="39680" windowHeight="17440"/>
+    <workbookView xWindow="11520" yWindow="2040" windowWidth="31140" windowHeight="20060"/>
   </bookViews>
   <sheets>
     <sheet name="TCA" sheetId="1" r:id="rId1"/>
     <sheet name="CPU1" sheetId="2" r:id="rId2"/>
     <sheet name="CPU0" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">TCA!$A$2:$A$20</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">TCA!$B$25:$B$43</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">TCA!$B$2:$B$20</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">TCA!$B$48:$B$66</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -375,9 +381,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.17603937007874015"/>
+          <c:x val="0.1204838145231846"/>
           <c:y val="5.0925925925925923E-2"/>
-          <c:w val="0.79340069991251094"/>
+          <c:w val="0.84895625546806652"/>
           <c:h val="0.752075678040245"/>
         </c:manualLayout>
       </c:layout>
@@ -385,15 +391,12 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="2"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>PEACH2</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -404,11 +407,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent6"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -416,10 +419,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>TCA!$A$2:$A$21</c:f>
+              <c:f>TCA!$A$2:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>8</c:v>
                 </c:pt>
@@ -476,78 +479,72 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>2097152</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4194304</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>TCA!$B$2:$B$21</c:f>
+              <c:f>TCA!$B$48:$B$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>2.0179749999999999</c:v>
+                  <c:v>2.5570390000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0110610000000002</c:v>
+                  <c:v>2.5770659999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.01416</c:v>
+                  <c:v>4.1530129999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0151140000000001</c:v>
+                  <c:v>4.1241649999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.013922</c:v>
+                  <c:v>4.1871070000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.013922</c:v>
+                  <c:v>4.2920109999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.0380020000000001</c:v>
+                  <c:v>4.5411590000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.0840169999999998</c:v>
+                  <c:v>5.3110119999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.1810529999999999</c:v>
+                  <c:v>6.494999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.5428999999999999</c:v>
+                  <c:v>8.9209080000000007</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.9240589999999997</c:v>
+                  <c:v>14.677047999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.8220369999999999</c:v>
+                  <c:v>46.594143000000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14.425039</c:v>
+                  <c:v>49.566983999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>26.829004000000001</c:v>
+                  <c:v>64.885855000000006</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>51.629066000000002</c:v>
+                  <c:v>95.501900000000006</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>101.653814</c:v>
+                  <c:v>157.09710100000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>202.17680899999999</c:v>
+                  <c:v>203.612089</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>446.66099500000001</c:v>
+                  <c:v>296.96393</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>890.20109200000002</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1779.4091699999999</c:v>
+                  <c:v>484.58004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -555,20 +552,17 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3EEF-0B4B-B031-DCAEEC123E49}"/>
+              <c16:uniqueId val="{00000002-3EEF-0B4B-B031-DCAEEC123E49}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>MPI-CPU1</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="0070C0"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -579,11 +573,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="0070C0"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:srgbClr val="0070C0"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -591,10 +585,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>TCA!$A$2:$A$21</c:f>
+              <c:f>TCA!$A$2:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>8</c:v>
                 </c:pt>
@@ -651,19 +645,16 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>2097152</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4194304</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>TCA!$B$25:$B$44</c:f>
+              <c:f>TCA!$B$25:$B$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>2.2718910000000001</c:v>
                 </c:pt>
@@ -720,9 +711,6 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>478.07908099999997</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>871.24800700000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -735,15 +723,12 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="0"/>
           <c:order val="2"/>
-          <c:tx>
-            <c:v>MPI-CPU0</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -754,11 +739,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3"/>
+                  <a:srgbClr val="FF0000"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -766,10 +751,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>TCA!$A$2:$A$21</c:f>
+              <c:f>TCA!$A$2:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>8</c:v>
                 </c:pt>
@@ -826,78 +811,72 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>2097152</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4194304</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>TCA!$B$48:$B$67</c:f>
+              <c:f>TCA!$B$2:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>2.5570390000000001</c:v>
+                  <c:v>2.014875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5770659999999999</c:v>
+                  <c:v>2.0167830000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.1530129999999996</c:v>
+                  <c:v>2.0160680000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.1241649999999996</c:v>
+                  <c:v>2.014875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.1871070000000001</c:v>
+                  <c:v>2.014875</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.2920109999999996</c:v>
+                  <c:v>2.013922</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.5411590000000004</c:v>
+                  <c:v>2.0411009999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.3110119999999998</c:v>
+                  <c:v>2.086163</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.494999</c:v>
+                  <c:v>2.1839140000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.9209080000000007</c:v>
+                  <c:v>3.5400390000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14.677047999999999</c:v>
+                  <c:v>4.9521920000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>46.594143000000003</c:v>
+                  <c:v>7.929087</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>49.566983999999998</c:v>
+                  <c:v>14.403105</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>64.885855000000006</c:v>
+                  <c:v>26.588916999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>95.501900000000006</c:v>
+                  <c:v>51.645040999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>157.09710100000001</c:v>
+                  <c:v>102.113962</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>203.612089</c:v>
+                  <c:v>201.69305800000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>296.96393</c:v>
+                  <c:v>447.693825</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>484.58004</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>883.67509800000005</c:v>
+                  <c:v>891.056061</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -905,7 +884,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-3EEF-0B4B-B031-DCAEEC123E49}"/>
+              <c16:uniqueId val="{00000000-3EEF-0B4B-B031-DCAEEC123E49}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -930,7 +909,7 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1083,7 +1062,7 @@
         </c:txPr>
         <c:crossAx val="409741135"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1192,52 +1171,19 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>最適化オプションあり</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1248,11 +1194,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1260,10 +1206,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'CPU1'!$A$3:$A$22</c:f>
+              <c:f>'CPU1'!$A$3:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>8</c:v>
                 </c:pt>
@@ -1320,78 +1266,72 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>2097152</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4194304</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'CPU1'!$B$3:$B$22</c:f>
+              <c:f>'CPU1'!$B$27:$B$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>2.2718910000000001</c:v>
+                  <c:v>2.2749899999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2780900000000002</c:v>
+                  <c:v>2.298117</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.3578869999999998</c:v>
+                  <c:v>3.4780500000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.4999850000000001</c:v>
+                  <c:v>3.4441950000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.3621789999999998</c:v>
+                  <c:v>3.4899710000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.4699439999999999</c:v>
+                  <c:v>3.5738949999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.6630630000000002</c:v>
+                  <c:v>3.6859510000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.0361880000000001</c:v>
+                  <c:v>4.063129</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.5778749999999997</c:v>
+                  <c:v>4.6579839999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.5730339999999998</c:v>
+                  <c:v>5.724907</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.7760220000000002</c:v>
+                  <c:v>7.8380109999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11.445999</c:v>
+                  <c:v>24.049043999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17.199038999999999</c:v>
+                  <c:v>29.474974</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28.445004999999998</c:v>
+                  <c:v>40.468930999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>50.302028999999997</c:v>
+                  <c:v>62.553882999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>95.841885000000005</c:v>
+                  <c:v>106.892109</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>184.48996500000001</c:v>
+                  <c:v>199.928999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>291.89586600000001</c:v>
+                  <c:v>292.70696600000002</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>478.07908099999997</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>871.24800700000003</c:v>
+                  <c:v>478.230953</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1399,20 +1339,17 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BBDE-2941-A3A4-493B22FF99A3}"/>
+              <c16:uniqueId val="{00000002-BBDE-2941-A3A4-493B22FF99A3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>最適化オプションなし</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="0070C0"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1423,11 +1360,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="0070C0"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="0070C0"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1435,10 +1372,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'CPU1'!$A$3:$A$22</c:f>
+              <c:f>'CPU1'!$A$3:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>8</c:v>
                 </c:pt>
@@ -1495,78 +1432,72 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>2097152</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4194304</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'CPU1'!$B$27:$B$46</c:f>
+              <c:f>'CPU1'!$B$3:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>2.2749899999999998</c:v>
+                  <c:v>2.2718910000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.298117</c:v>
+                  <c:v>2.2780900000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.4780500000000001</c:v>
+                  <c:v>3.3578869999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.4441950000000001</c:v>
+                  <c:v>3.4999850000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.4899710000000002</c:v>
+                  <c:v>3.3621789999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.5738949999999998</c:v>
+                  <c:v>3.4699439999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.6859510000000002</c:v>
+                  <c:v>3.6630630000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.063129</c:v>
+                  <c:v>4.0361880000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.6579839999999999</c:v>
+                  <c:v>4.5778749999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.724907</c:v>
+                  <c:v>5.5730339999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.8380109999999998</c:v>
+                  <c:v>7.7760220000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>24.049043999999999</c:v>
+                  <c:v>11.445999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>29.474974</c:v>
+                  <c:v>17.199038999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>40.468930999999998</c:v>
+                  <c:v>28.445004999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>62.553882999999999</c:v>
+                  <c:v>50.302028999999997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>106.892109</c:v>
+                  <c:v>95.841885000000005</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>199.928999</c:v>
+                  <c:v>184.48996500000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>292.70696600000002</c:v>
+                  <c:v>291.89586600000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>478.230953</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>870.51010099999996</c:v>
+                  <c:v>478.07908099999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1574,7 +1505,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-BBDE-2941-A3A4-493B22FF99A3}"/>
+              <c16:uniqueId val="{00000001-BBDE-2941-A3A4-493B22FF99A3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1599,7 +1530,7 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -1697,7 +1628,7 @@
         </c:txPr>
         <c:crossAx val="422986351"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1707,37 +1638,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1796,52 +1696,29 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.1914260717410323E-2"/>
+          <c:y val="6.2106663750364527E-2"/>
+          <c:w val="0.87753018372703417"/>
+          <c:h val="0.7507323563721201"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>最適化オプションあり</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1852,11 +1729,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1864,10 +1741,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>CPU0!$A$3:$A$22</c:f>
+              <c:f>CPU0!$A$3:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>8</c:v>
                 </c:pt>
@@ -1924,78 +1801,72 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>2097152</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4194304</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CPU0!$B$3:$B$22</c:f>
+              <c:f>CPU0!$B$27:$B$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>2.5570390000000001</c:v>
+                  <c:v>2.5529860000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5770659999999999</c:v>
+                  <c:v>2.5589469999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.1530129999999996</c:v>
+                  <c:v>4.1918749999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.1241649999999996</c:v>
+                  <c:v>4.0330890000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.1871070000000001</c:v>
+                  <c:v>4.0190219999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.2920109999999996</c:v>
+                  <c:v>4.2049880000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.5411590000000004</c:v>
+                  <c:v>4.4820310000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.3110119999999998</c:v>
+                  <c:v>5.2421090000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.494999</c:v>
+                  <c:v>6.3481329999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.9209080000000007</c:v>
+                  <c:v>8.8951589999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14.677047999999999</c:v>
+                  <c:v>14.684915999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>46.594143000000003</c:v>
+                  <c:v>75.479984000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>49.566983999999998</c:v>
+                  <c:v>130.84197</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>64.885855000000006</c:v>
+                  <c:v>241.145849</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>95.501900000000006</c:v>
+                  <c:v>461.87496199999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>157.09710100000001</c:v>
+                  <c:v>902.70996100000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>203.612089</c:v>
+                  <c:v>203.88698600000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>296.96393</c:v>
+                  <c:v>297.354221</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>484.58004</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>883.67509800000005</c:v>
+                  <c:v>484.78102699999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2003,20 +1874,17 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4985-3E41-A73D-DC395A55BFA0}"/>
+              <c16:uniqueId val="{00000002-4985-3E41-A73D-DC395A55BFA0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>最適化オプションなし</c:v>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2027,11 +1895,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent6"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -2039,10 +1907,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>CPU0!$A$3:$A$22</c:f>
+              <c:f>CPU0!$A$3:$A$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>8</c:v>
                 </c:pt>
@@ -2099,78 +1967,72 @@
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>2097152</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4194304</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>CPU0!$B$27:$B$46</c:f>
+              <c:f>CPU0!$B$3:$B$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>2.5529860000000002</c:v>
+                  <c:v>2.5570390000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5589469999999999</c:v>
+                  <c:v>2.5770659999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.1918749999999996</c:v>
+                  <c:v>4.1530129999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.0330890000000004</c:v>
+                  <c:v>4.1241649999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0190219999999997</c:v>
+                  <c:v>4.1871070000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.2049880000000002</c:v>
+                  <c:v>4.2920109999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.4820310000000001</c:v>
+                  <c:v>4.5411590000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.2421090000000001</c:v>
+                  <c:v>5.3110119999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.3481329999999998</c:v>
+                  <c:v>6.494999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.8951589999999996</c:v>
+                  <c:v>8.9209080000000007</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14.684915999999999</c:v>
+                  <c:v>14.677047999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>75.479984000000002</c:v>
+                  <c:v>46.594143000000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>130.84197</c:v>
+                  <c:v>49.566983999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>241.145849</c:v>
+                  <c:v>64.885855000000006</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>461.87496199999998</c:v>
+                  <c:v>95.501900000000006</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>902.70996100000002</c:v>
+                  <c:v>157.09710100000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>203.88698600000001</c:v>
+                  <c:v>203.612089</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>297.354221</c:v>
+                  <c:v>296.96393</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>484.78102699999999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>882.72810000000004</c:v>
+                  <c:v>484.58004</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2178,7 +2040,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4985-3E41-A73D-DC395A55BFA0}"/>
+              <c16:uniqueId val="{00000001-4985-3E41-A73D-DC395A55BFA0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2203,7 +2065,7 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -2301,7 +2163,7 @@
         </c:txPr>
         <c:crossAx val="419728847"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2313,6 +2175,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12535564304461944"/>
+          <c:y val="0.38946704578594343"/>
+          <c:w val="0.31039982502187224"/>
+          <c:h val="7.8125546806649168E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4437,8 +4309,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -4487,37 +4359,37 @@
       </c>
       <c r="B2" s="11">
         <f>MIN(C2:L2)</f>
-        <v>2.0179749999999999</v>
+        <v>2.014875</v>
       </c>
       <c r="C2" s="2">
-        <v>2.0251269999999999</v>
+        <v>2.018929</v>
       </c>
       <c r="D2" s="2">
-        <v>2.0179749999999999</v>
+        <v>2.014875</v>
       </c>
       <c r="E2" s="2">
-        <v>2.0201210000000001</v>
+        <v>2.021074</v>
       </c>
       <c r="F2" s="2">
+        <v>2.0151140000000001</v>
+      </c>
+      <c r="G2" s="2">
         <v>2.018929</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="2">
+        <v>2.018929</v>
+      </c>
+      <c r="I2" s="2">
+        <v>2.0170210000000002</v>
+      </c>
+      <c r="J2" s="2">
         <v>2.021074</v>
       </c>
-      <c r="H2" s="2">
-        <v>2.0201210000000001</v>
-      </c>
-      <c r="I2" s="2">
-        <v>2.0530219999999999</v>
-      </c>
-      <c r="J2" s="2">
-        <v>2.0229819999999998</v>
-      </c>
       <c r="K2" s="2">
-        <v>2.021074</v>
+        <v>2.0217900000000002</v>
       </c>
       <c r="L2" s="3">
-        <v>2.0201210000000001</v>
+        <v>2.0232199999999998</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -4527,37 +4399,37 @@
       </c>
       <c r="B3" s="11">
         <f t="shared" ref="B3:B21" si="0">MIN(C3:L3)</f>
-        <v>2.0110610000000002</v>
+        <v>2.0167830000000002</v>
       </c>
       <c r="C3" s="2">
-        <v>2.018929</v>
+        <v>2.0167830000000002</v>
       </c>
       <c r="D3" s="2">
-        <v>2.0120140000000002</v>
+        <v>2.021074</v>
       </c>
       <c r="E3" s="2">
-        <v>2.0158290000000001</v>
+        <v>2.0279880000000001</v>
       </c>
       <c r="F3" s="2">
-        <v>2.01416</v>
+        <v>2.0179749999999999</v>
       </c>
       <c r="G3" s="2">
-        <v>2.0110610000000002</v>
+        <v>2.0170210000000002</v>
       </c>
       <c r="H3" s="2">
-        <v>2.0160680000000002</v>
+        <v>2.0208360000000001</v>
       </c>
       <c r="I3" s="2">
         <v>2.0179749999999999</v>
       </c>
       <c r="J3" s="2">
-        <v>2.0201210000000001</v>
+        <v>2.0179749999999999</v>
       </c>
       <c r="K3" s="2">
-        <v>2.0170210000000002</v>
+        <v>2.0229819999999998</v>
       </c>
       <c r="L3" s="3">
-        <v>2.021074</v>
+        <v>2.0179749999999999</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -4567,37 +4439,37 @@
       </c>
       <c r="B4" s="11">
         <f t="shared" si="0"/>
-        <v>2.01416</v>
+        <v>2.0160680000000002</v>
       </c>
       <c r="C4" s="2">
-        <v>2.0208360000000001</v>
+        <v>2.0170210000000002</v>
       </c>
       <c r="D4" s="2">
+        <v>2.0298959999999999</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2.026081</v>
+      </c>
+      <c r="F4" s="2">
         <v>2.0160680000000002</v>
       </c>
-      <c r="E4" s="2">
-        <v>2.0151140000000001</v>
-      </c>
-      <c r="F4" s="2">
-        <v>2.01416</v>
-      </c>
       <c r="G4" s="2">
-        <v>2.021074</v>
+        <v>2.0191669999999999</v>
       </c>
       <c r="H4" s="2">
+        <v>2.0248889999999999</v>
+      </c>
+      <c r="I4" s="2">
         <v>2.0179749999999999</v>
       </c>
-      <c r="I4" s="2">
+      <c r="J4" s="2">
+        <v>2.019882</v>
+      </c>
+      <c r="K4" s="2">
         <v>2.018929</v>
       </c>
-      <c r="J4" s="2">
-        <v>2.0191669999999999</v>
-      </c>
-      <c r="K4" s="2">
-        <v>2.0179749999999999</v>
-      </c>
       <c r="L4" s="3">
-        <v>2.0179749999999999</v>
+        <v>2.0201210000000001</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -4607,37 +4479,37 @@
       </c>
       <c r="B5" s="11">
         <f t="shared" si="0"/>
+        <v>2.014875</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2.019882</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2.0279880000000001</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2.0248889999999999</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2.021074</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2.014875</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2.0289419999999998</v>
+      </c>
+      <c r="I5" s="2">
         <v>2.0151140000000001</v>
       </c>
-      <c r="C5" s="2">
-        <v>2.0182129999999998</v>
-      </c>
-      <c r="D5" s="2">
-        <v>2.0151140000000001</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="J5" s="2">
+        <v>2.018929</v>
+      </c>
+      <c r="K5" s="2">
+        <v>2.0158290000000001</v>
+      </c>
+      <c r="L5" s="3">
         <v>2.0170210000000002</v>
-      </c>
-      <c r="F5" s="2">
-        <v>2.0191669999999999</v>
-      </c>
-      <c r="G5" s="2">
-        <v>2.0239349999999998</v>
-      </c>
-      <c r="H5" s="2">
-        <v>2.0160680000000002</v>
-      </c>
-      <c r="I5" s="2">
-        <v>2.0289419999999998</v>
-      </c>
-      <c r="J5" s="2">
-        <v>2.0179749999999999</v>
-      </c>
-      <c r="K5" s="2">
-        <v>2.0179749999999999</v>
-      </c>
-      <c r="L5" s="3">
-        <v>2.0220280000000002</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -4647,37 +4519,37 @@
       </c>
       <c r="B6" s="11">
         <f t="shared" si="0"/>
-        <v>2.013922</v>
+        <v>2.014875</v>
       </c>
       <c r="C6" s="2">
-        <v>2.013922</v>
+        <v>2.014875</v>
       </c>
       <c r="D6" s="2">
-        <v>2.013922</v>
+        <v>2.0279880000000001</v>
       </c>
       <c r="E6" s="2">
-        <v>2.013922</v>
+        <v>2.0229819999999998</v>
       </c>
       <c r="F6" s="2">
-        <v>2.0151140000000001</v>
+        <v>2.0160680000000002</v>
       </c>
       <c r="G6" s="2">
+        <v>2.0160680000000002</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2.019882</v>
+      </c>
+      <c r="I6" s="2">
+        <v>2.0179749999999999</v>
+      </c>
+      <c r="J6" s="2">
+        <v>2.0239349999999998</v>
+      </c>
+      <c r="K6" s="2">
         <v>2.0229819999999998</v>
       </c>
-      <c r="H6" s="2">
-        <v>2.0151140000000001</v>
-      </c>
-      <c r="I6" s="2">
-        <v>2.018929</v>
-      </c>
-      <c r="J6" s="2">
-        <v>2.0201210000000001</v>
-      </c>
-      <c r="K6" s="2">
-        <v>2.0201210000000001</v>
-      </c>
       <c r="L6" s="3">
-        <v>2.0167830000000002</v>
+        <v>2.0170210000000002</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -4690,34 +4562,34 @@
         <v>2.013922</v>
       </c>
       <c r="C7" s="2">
+        <v>2.013922</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2.0270350000000001</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2.0220280000000002</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2.01416</v>
+      </c>
+      <c r="G7" s="2">
+        <v>2.0179749999999999</v>
+      </c>
+      <c r="H7" s="2">
+        <v>2.0258430000000001</v>
+      </c>
+      <c r="I7" s="2">
+        <v>2.0182129999999998</v>
+      </c>
+      <c r="J7" s="2">
+        <v>2.0248889999999999</v>
+      </c>
+      <c r="K7" s="2">
         <v>2.021074</v>
       </c>
-      <c r="D7" s="2">
-        <v>2.0160680000000002</v>
-      </c>
-      <c r="E7" s="2">
-        <v>2.0182129999999998</v>
-      </c>
-      <c r="F7" s="2">
-        <v>2.013922</v>
-      </c>
-      <c r="G7" s="2">
-        <v>2.0258430000000001</v>
-      </c>
-      <c r="H7" s="2">
-        <v>2.013922</v>
-      </c>
-      <c r="I7" s="2">
-        <v>2.0201210000000001</v>
-      </c>
-      <c r="J7" s="2">
-        <v>2.01416</v>
-      </c>
-      <c r="K7" s="2">
-        <v>2.0160680000000002</v>
-      </c>
       <c r="L7" s="3">
-        <v>2.0170210000000002</v>
+        <v>2.018929</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -4727,37 +4599,37 @@
       </c>
       <c r="B8" s="11">
         <f t="shared" si="0"/>
-        <v>2.0380020000000001</v>
+        <v>2.0411009999999998</v>
       </c>
       <c r="C8" s="2">
         <v>2.0411009999999998</v>
       </c>
       <c r="D8" s="2">
+        <v>2.0439620000000001</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2.0461079999999998</v>
+      </c>
+      <c r="F8" s="2">
+        <v>2.0411009999999998</v>
+      </c>
+      <c r="G8" s="2">
+        <v>2.0458699999999999</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2.0580289999999999</v>
+      </c>
+      <c r="I8" s="2">
         <v>2.0430090000000001</v>
       </c>
-      <c r="E8" s="2">
-        <v>2.0389560000000002</v>
-      </c>
-      <c r="F8" s="2">
-        <v>2.0401479999999999</v>
-      </c>
-      <c r="G8" s="2">
-        <v>2.0439620000000001</v>
-      </c>
-      <c r="H8" s="2">
-        <v>2.0399090000000002</v>
-      </c>
-      <c r="I8" s="2">
-        <v>2.0408629999999999</v>
-      </c>
       <c r="J8" s="2">
-        <v>2.0380020000000001</v>
+        <v>2.048969</v>
       </c>
       <c r="K8" s="2">
-        <v>2.0391940000000002</v>
+        <v>2.0461079999999998</v>
       </c>
       <c r="L8" s="3">
-        <v>2.0408629999999999</v>
+        <v>2.0411009999999998</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -4767,37 +4639,37 @@
       </c>
       <c r="B9" s="11">
         <f t="shared" si="0"/>
-        <v>2.0840169999999998</v>
+        <v>2.086163</v>
       </c>
       <c r="C9" s="2">
-        <v>2.091885</v>
+        <v>2.0899770000000002</v>
       </c>
       <c r="D9" s="2">
-        <v>2.0980829999999999</v>
+        <v>2.0999910000000002</v>
       </c>
       <c r="E9" s="2">
         <v>2.0899770000000002</v>
       </c>
       <c r="F9" s="2">
-        <v>2.0840169999999998</v>
+        <v>2.086878</v>
       </c>
       <c r="G9" s="2">
-        <v>2.099037</v>
+        <v>2.086163</v>
       </c>
       <c r="H9" s="2">
-        <v>2.0859239999999999</v>
+        <v>2.0930770000000001</v>
       </c>
       <c r="I9" s="2">
-        <v>2.0911689999999998</v>
+        <v>2.0890240000000002</v>
       </c>
       <c r="J9" s="2">
-        <v>2.092838</v>
+        <v>2.097845</v>
       </c>
       <c r="K9" s="2">
-        <v>2.087116</v>
+        <v>2.087831</v>
       </c>
       <c r="L9" s="3">
-        <v>2.0890240000000002</v>
+        <v>2.0909309999999999</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -4807,37 +4679,37 @@
       </c>
       <c r="B10" s="11">
         <f t="shared" si="0"/>
-        <v>2.1810529999999999</v>
+        <v>2.1839140000000001</v>
       </c>
       <c r="C10" s="2">
+        <v>2.187014</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2.1932130000000001</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2.1920199999999999</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2.1891590000000001</v>
+      </c>
+      <c r="G10" s="2">
+        <v>2.1851060000000002</v>
+      </c>
+      <c r="H10" s="2">
+        <v>2.1970269999999998</v>
+      </c>
+      <c r="I10" s="2">
         <v>2.1839140000000001</v>
       </c>
-      <c r="D10" s="2">
-        <v>2.1851060000000002</v>
-      </c>
-      <c r="E10" s="2">
-        <v>2.1851060000000002</v>
-      </c>
-      <c r="F10" s="2">
-        <v>2.182007</v>
-      </c>
-      <c r="G10" s="2">
-        <v>2.1901130000000002</v>
-      </c>
-      <c r="H10" s="2">
-        <v>2.1810529999999999</v>
-      </c>
-      <c r="I10" s="2">
-        <v>2.1932130000000001</v>
-      </c>
       <c r="J10" s="2">
-        <v>2.1829610000000002</v>
+        <v>2.192974</v>
       </c>
       <c r="K10" s="2">
-        <v>2.1831990000000001</v>
+        <v>2.187014</v>
       </c>
       <c r="L10" s="3">
-        <v>2.1841529999999998</v>
+        <v>2.187014</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -4847,37 +4719,37 @@
       </c>
       <c r="B11" s="11">
         <f t="shared" si="0"/>
-        <v>3.5428999999999999</v>
+        <v>3.5400390000000002</v>
       </c>
       <c r="C11" s="2">
-        <v>3.5510060000000001</v>
+        <v>3.5421849999999999</v>
       </c>
       <c r="D11" s="2">
-        <v>3.5588739999999999</v>
+        <v>3.5459999999999998</v>
       </c>
       <c r="E11" s="2">
-        <v>3.5851000000000002</v>
+        <v>3.5581589999999998</v>
       </c>
       <c r="F11" s="2">
-        <v>3.6017890000000001</v>
+        <v>3.5400390000000002</v>
       </c>
       <c r="G11" s="2">
-        <v>3.622055</v>
+        <v>3.5479069999999999</v>
       </c>
       <c r="H11" s="2">
-        <v>3.605127</v>
+        <v>3.6139489999999999</v>
       </c>
       <c r="I11" s="2">
-        <v>3.582954</v>
+        <v>3.6211009999999999</v>
       </c>
       <c r="J11" s="2">
-        <v>3.6141869999999998</v>
+        <v>3.6990639999999999</v>
       </c>
       <c r="K11" s="2">
-        <v>3.5428999999999999</v>
+        <v>3.6430359999999999</v>
       </c>
       <c r="L11" s="3">
-        <v>3.5917759999999999</v>
+        <v>3.587008</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -4887,37 +4759,37 @@
       </c>
       <c r="B12" s="11">
         <f t="shared" si="0"/>
-        <v>4.9240589999999997</v>
+        <v>4.9521920000000001</v>
       </c>
       <c r="C12" s="2">
-        <v>5.4590699999999996</v>
+        <v>5.2950379999999999</v>
       </c>
       <c r="D12" s="2">
-        <v>5.0580499999999997</v>
+        <v>5.1980019999999998</v>
       </c>
       <c r="E12" s="2">
-        <v>5.0292019999999997</v>
+        <v>5.1829809999999998</v>
       </c>
       <c r="F12" s="2">
-        <v>5.2590370000000002</v>
+        <v>5.2127840000000001</v>
       </c>
       <c r="G12" s="2">
-        <v>4.9240589999999997</v>
+        <v>5.1720139999999999</v>
       </c>
       <c r="H12" s="2">
-        <v>4.9300189999999997</v>
+        <v>5.1078799999999998</v>
       </c>
       <c r="I12" s="2">
-        <v>5.1219460000000003</v>
+        <v>5.1112169999999999</v>
       </c>
       <c r="J12" s="2">
-        <v>5.0890449999999996</v>
+        <v>4.9521920000000001</v>
       </c>
       <c r="K12" s="2">
-        <v>5.1801199999999996</v>
+        <v>4.9738879999999996</v>
       </c>
       <c r="L12" s="3">
-        <v>5.3338999999999999</v>
+        <v>4.9591060000000002</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -4927,37 +4799,37 @@
       </c>
       <c r="B13" s="11">
         <f t="shared" si="0"/>
-        <v>7.8220369999999999</v>
+        <v>7.929087</v>
       </c>
       <c r="C13" s="2">
-        <v>8.2530979999999996</v>
+        <v>8.5880759999999992</v>
       </c>
       <c r="D13" s="2">
-        <v>8.2678790000000006</v>
+        <v>8.2430839999999996</v>
       </c>
       <c r="E13" s="2">
-        <v>8.369923</v>
+        <v>8.3010199999999994</v>
       </c>
       <c r="F13" s="2">
-        <v>8.1951619999999998</v>
+        <v>8.3739760000000008</v>
       </c>
       <c r="G13" s="2">
-        <v>8.1980229999999992</v>
+        <v>8.3789829999999998</v>
       </c>
       <c r="H13" s="2">
-        <v>8.2709790000000005</v>
+        <v>8.0738070000000004</v>
       </c>
       <c r="I13" s="2">
-        <v>8.3870889999999996</v>
+        <v>8.2969670000000004</v>
       </c>
       <c r="J13" s="2">
-        <v>8.5539819999999995</v>
+        <v>8.4619520000000001</v>
       </c>
       <c r="K13" s="2">
-        <v>8.2769390000000005</v>
+        <v>7.929087</v>
       </c>
       <c r="L13" s="3">
-        <v>7.8220369999999999</v>
+        <v>8.4819790000000008</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -4967,37 +4839,37 @@
       </c>
       <c r="B14" s="11">
         <f t="shared" si="0"/>
-        <v>14.425039</v>
+        <v>14.403105</v>
       </c>
       <c r="C14" s="2">
-        <v>14.605999000000001</v>
+        <v>14.403105</v>
       </c>
       <c r="D14" s="2">
-        <v>14.669895</v>
+        <v>14.575005000000001</v>
       </c>
       <c r="E14" s="2">
-        <v>14.524937</v>
+        <v>14.652013999999999</v>
       </c>
       <c r="F14" s="2">
-        <v>14.622927000000001</v>
+        <v>14.624119</v>
       </c>
       <c r="G14" s="2">
-        <v>14.600039000000001</v>
+        <v>14.704943</v>
       </c>
       <c r="H14" s="2">
-        <v>14.425039</v>
+        <v>14.550924</v>
       </c>
       <c r="I14" s="2">
-        <v>14.687061</v>
+        <v>14.659882</v>
       </c>
       <c r="J14" s="2">
-        <v>14.678001</v>
+        <v>14.579058</v>
       </c>
       <c r="K14" s="2">
-        <v>14.611006</v>
+        <v>14.615059</v>
       </c>
       <c r="L14" s="3">
-        <v>14.426947</v>
+        <v>14.636039999999999</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -5007,37 +4879,37 @@
       </c>
       <c r="B15" s="11">
         <f t="shared" si="0"/>
-        <v>26.829004000000001</v>
+        <v>26.588916999999999</v>
       </c>
       <c r="C15" s="2">
-        <v>27.371883</v>
+        <v>27.276039000000001</v>
       </c>
       <c r="D15" s="2">
-        <v>27.21715</v>
+        <v>27.495145999999998</v>
       </c>
       <c r="E15" s="2">
-        <v>27.094840999999999</v>
+        <v>27.318000999999999</v>
       </c>
       <c r="F15" s="2">
-        <v>26.980877</v>
+        <v>27.453899</v>
       </c>
       <c r="G15" s="2">
-        <v>27.145147000000001</v>
+        <v>27.179003000000002</v>
       </c>
       <c r="H15" s="2">
-        <v>27.103901</v>
+        <v>27.096032999999998</v>
       </c>
       <c r="I15" s="2">
-        <v>27.188063</v>
+        <v>27.204989999999999</v>
       </c>
       <c r="J15" s="2">
-        <v>26.829004000000001</v>
+        <v>26.588916999999999</v>
       </c>
       <c r="K15" s="2">
-        <v>27.501106</v>
+        <v>26.672125000000001</v>
       </c>
       <c r="L15" s="3">
-        <v>27.112960999999999</v>
+        <v>26.859998999999998</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -5047,37 +4919,37 @@
       </c>
       <c r="B16" s="11">
         <f t="shared" si="0"/>
-        <v>51.629066000000002</v>
+        <v>51.645040999999999</v>
       </c>
       <c r="C16" s="2">
-        <v>52.348852000000001</v>
+        <v>52.566051000000002</v>
       </c>
       <c r="D16" s="2">
-        <v>52.436829000000003</v>
+        <v>52.624941</v>
       </c>
       <c r="E16" s="2">
-        <v>52.392960000000002</v>
+        <v>52.541018000000001</v>
       </c>
       <c r="F16" s="2">
-        <v>52.366017999999997</v>
+        <v>52.808999999999997</v>
       </c>
       <c r="G16" s="2">
-        <v>52.2089</v>
+        <v>52.599907000000002</v>
       </c>
       <c r="H16" s="2">
-        <v>52.080869999999997</v>
+        <v>52.191018999999997</v>
       </c>
       <c r="I16" s="2">
-        <v>52.546978000000003</v>
+        <v>52.819966999999998</v>
       </c>
       <c r="J16" s="2">
-        <v>51.792859999999997</v>
+        <v>51.645040999999999</v>
       </c>
       <c r="K16" s="2">
-        <v>52.489041999999998</v>
+        <v>51.738976999999998</v>
       </c>
       <c r="L16" s="3">
-        <v>51.629066000000002</v>
+        <v>52.772998999999999</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -5087,37 +4959,37 @@
       </c>
       <c r="B17" s="11">
         <f t="shared" si="0"/>
-        <v>101.653814</v>
+        <v>102.113962</v>
       </c>
       <c r="C17" s="2">
-        <v>102.466106</v>
+        <v>102.322102</v>
       </c>
       <c r="D17" s="2">
-        <v>103.14011600000001</v>
+        <v>102.761984</v>
       </c>
       <c r="E17" s="2">
-        <v>102.698088</v>
+        <v>102.85997399999999</v>
       </c>
       <c r="F17" s="2">
-        <v>102.88000099999999</v>
+        <v>102.52022700000001</v>
       </c>
       <c r="G17" s="2">
-        <v>102.73098899999999</v>
+        <v>102.815151</v>
       </c>
       <c r="H17" s="2">
-        <v>102.72502900000001</v>
+        <v>102.835894</v>
       </c>
       <c r="I17" s="2">
-        <v>102.90002800000001</v>
+        <v>102.684021</v>
       </c>
       <c r="J17" s="2">
-        <v>102.77700400000001</v>
+        <v>102.473021</v>
       </c>
       <c r="K17" s="2">
-        <v>103.527069</v>
+        <v>102.113962</v>
       </c>
       <c r="L17" s="3">
-        <v>101.653814</v>
+        <v>103.04498700000001</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -5127,37 +4999,37 @@
       </c>
       <c r="B18" s="11">
         <f t="shared" si="0"/>
-        <v>202.17680899999999</v>
+        <v>201.69305800000001</v>
       </c>
       <c r="C18" s="2">
-        <v>203.358889</v>
+        <v>201.69305800000001</v>
       </c>
       <c r="D18" s="2">
-        <v>203.95112</v>
+        <v>203.73415900000001</v>
       </c>
       <c r="E18" s="2">
-        <v>204.35404800000001</v>
+        <v>204.663038</v>
       </c>
       <c r="F18" s="2">
-        <v>204.134941</v>
+        <v>204.31399300000001</v>
       </c>
       <c r="G18" s="2">
-        <v>203.44209699999999</v>
+        <v>204.19693000000001</v>
       </c>
       <c r="H18" s="2">
-        <v>204.01000999999999</v>
+        <v>203.35316700000001</v>
       </c>
       <c r="I18" s="2">
-        <v>204.19788399999999</v>
+        <v>204.37192899999999</v>
       </c>
       <c r="J18" s="2">
-        <v>203.402996</v>
+        <v>202.329159</v>
       </c>
       <c r="K18" s="2">
-        <v>204.99301</v>
+        <v>203.294039</v>
       </c>
       <c r="L18" s="3">
-        <v>202.17680899999999</v>
+        <v>204.20694399999999</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -5167,37 +5039,37 @@
       </c>
       <c r="B19" s="11">
         <f t="shared" si="0"/>
-        <v>446.66099500000001</v>
+        <v>447.693825</v>
       </c>
       <c r="C19" s="2">
-        <v>448.71711699999997</v>
+        <v>448.07791700000001</v>
       </c>
       <c r="D19" s="2">
-        <v>449.44191000000001</v>
+        <v>449.89585899999997</v>
       </c>
       <c r="E19" s="2">
-        <v>450.18291499999998</v>
+        <v>451.17497400000002</v>
       </c>
       <c r="F19" s="2">
-        <v>451.10201799999999</v>
+        <v>450.85191700000001</v>
       </c>
       <c r="G19" s="2">
-        <v>449.25093700000002</v>
+        <v>451.28798499999999</v>
       </c>
       <c r="H19" s="2">
-        <v>451.05600399999997</v>
+        <v>450.97589499999998</v>
       </c>
       <c r="I19" s="2">
-        <v>450.57105999999999</v>
+        <v>450.154066</v>
       </c>
       <c r="J19" s="2">
-        <v>449.30100399999998</v>
+        <v>447.693825</v>
       </c>
       <c r="K19" s="2">
-        <v>449.51891899999998</v>
+        <v>448.23312800000002</v>
       </c>
       <c r="L19" s="3">
-        <v>446.66099500000001</v>
+        <v>450.62589600000001</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -5207,37 +5079,37 @@
       </c>
       <c r="B20" s="11">
         <f t="shared" si="0"/>
-        <v>890.20109200000002</v>
+        <v>891.056061</v>
       </c>
       <c r="C20" s="2">
-        <v>890.20109200000002</v>
+        <v>891.056061</v>
       </c>
       <c r="D20" s="2">
-        <v>897.87912400000005</v>
+        <v>898.23007600000005</v>
       </c>
       <c r="E20" s="2">
-        <v>896.09193800000003</v>
+        <v>898.42390999999998</v>
       </c>
       <c r="F20" s="2">
-        <v>897.27401699999996</v>
+        <v>899.17302099999995</v>
       </c>
       <c r="G20" s="2">
-        <v>897.44305599999996</v>
+        <v>899.46985199999995</v>
       </c>
       <c r="H20" s="2">
-        <v>898.90790000000004</v>
+        <v>896.49414999999999</v>
       </c>
       <c r="I20" s="2">
-        <v>899.23906299999999</v>
+        <v>898.13709300000005</v>
       </c>
       <c r="J20" s="2">
-        <v>898.32902000000001</v>
+        <v>891.23988199999997</v>
       </c>
       <c r="K20" s="2">
-        <v>897.92704600000002</v>
+        <v>895.08914900000002</v>
       </c>
       <c r="L20" s="3">
-        <v>891.55006400000002</v>
+        <v>898.90503899999999</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="19" thickBot="1" x14ac:dyDescent="0.3">
@@ -5247,37 +5119,37 @@
       </c>
       <c r="B21" s="12">
         <f t="shared" si="0"/>
-        <v>1779.4091699999999</v>
+        <v>1781.3220020000001</v>
       </c>
       <c r="C21" s="5">
-        <v>1780.18713</v>
+        <v>1786.2770559999999</v>
       </c>
       <c r="D21" s="5">
-        <v>1784.7781179999999</v>
+        <v>1795.0038910000001</v>
       </c>
       <c r="E21" s="5">
-        <v>1795.9940429999999</v>
+        <v>1793.5719489999999</v>
       </c>
       <c r="F21" s="5">
-        <v>1795.558929</v>
+        <v>1794.903994</v>
       </c>
       <c r="G21" s="5">
-        <v>1794.1689490000001</v>
+        <v>1790.5130389999999</v>
       </c>
       <c r="H21" s="5">
-        <v>1794.4121359999999</v>
+        <v>1796.2307929999999</v>
       </c>
       <c r="I21" s="5">
-        <v>1791.8579580000001</v>
+        <v>1792.9940220000001</v>
       </c>
       <c r="J21" s="5">
-        <v>1792.4809459999999</v>
+        <v>1781.3220020000001</v>
       </c>
       <c r="K21" s="5">
-        <v>1794.7120669999999</v>
+        <v>1786.3271239999999</v>
       </c>
       <c r="L21" s="6">
-        <v>1779.4091699999999</v>
+        <v>1793.579817</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="19" thickBot="1" x14ac:dyDescent="0.3">
@@ -6967,6 +6839,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -6975,8 +6848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -8677,7 +8550,7 @@
   <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="N26" sqref="N26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
